--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -205,10 +205,6 @@
   </si>
   <si>
     <t>对话内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -708,7 +704,7 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -765,7 +761,7 @@
         <v>35</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -811,19 +807,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5">
@@ -834,19 +830,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5">
@@ -857,19 +853,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5">
@@ -880,19 +876,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5">
@@ -903,19 +899,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5">

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -208,80 +208,129 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Image/Head/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天风这么大，站着挺费劲儿吧。</t>
+  </si>
+  <si>
+    <t>Image/Head/2;Image/Head/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1;2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>富察皇后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>??</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李公公</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>延禧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天天气真好啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是啊，挺好的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇上驾到…上驾到…驾到…到…刀…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朕惟乾坤德合、式隆化育之功。内外治成、聿懋雍和之用。典礼于斯而备。教化所由以兴。咨尔何舍里氏。乃内大臣噶布喇之女也。世德钟祥。崇勋启秀。柔嘉成性、宜昭女教于六宫。贞静持躬、应正母仪于万国。兹仰承太皇太后懿命。以册宝立尔为皇后。其尚弘资孝养。克赞恭勤。茂本支奕叶之休。佐宗庙维馨之祀。钦哉。</t>
-  </si>
-  <si>
-    <t>谢皇上隆恩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/1;Image/Head/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/3;Image/Head/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>李玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赐花。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一天吃五顿饭。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天顶着酱油晒太阳吗？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>李玉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/3</t>
+  </si>
+  <si>
+    <t>光禄寺少卿陆士隆之女陆晚晚，年十六！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳兰淳雪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>臣女阿玛常说，女子一耳带三钳，穿花盆鞋，乃是老祖宗留下的规矩，若是一朝抛弃，效法汉女一耳一坠，就是忘了祖宗。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Image/Head/4;Image/Head/2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说的不错。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4;Image/Head/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留牌子。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你脚上是怎么回事？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/2;Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌雅青黛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这叫步步生莲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>来人，叉出去</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/2;Image/Head/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上，秀女想要拔个头筹，也没有什么不对，您若是不喜欢，赐花就是了，这样驱逐出宫，她以后有何颜面见人。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上，皇上，臣女只是仿照步步生莲，想要博个头彩，皇上宽恕！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>朕早已明令，禁止汉军旗秀女缠足，非但汉军旗如此，连乌雅氏也学此等奢靡颓废风气，这样的女子进了宫，一定会惹出是非，朕不但要将她驱逐出宫，还要将她的父亲按违例治罪，以儆效尤！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要，皇上！不要啊！臣女知错了！臣女真的知错了！对了，是那贱婢，是那贱婢害了臣女！不是我，往鞋底涂抹香粉的主意不是我……呜！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -309,6 +358,13 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -342,7 +398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -360,6 +416,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -700,14 +771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.59765625" style="1" customWidth="1"/>
@@ -718,7 +789,7 @@
     <col min="7" max="7" width="251" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -741,7 +812,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -764,7 +835,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +847,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -799,1179 +870,1383 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
-      <c r="A5">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="9">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5">
-      <c r="A6">
+      <c r="G5" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="11">
+        <v>2</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12">
+        <v>6</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6">
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12">
+        <v>6</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="11">
         <v>2</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="G16" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12">
+        <v>6</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7">
+      <c r="G17" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12">
+        <v>6</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="11">
+        <v>2</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>15</v>
+      </c>
+      <c r="B19" s="12">
+        <v>6</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="11">
+        <v>2</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>16</v>
+      </c>
+      <c r="B20" s="12">
+        <v>6</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="11">
         <v>1</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="G20" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>17</v>
+      </c>
+      <c r="B21" s="12">
+        <v>6</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F8">
+      <c r="E21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="11">
         <v>2</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5">
-      <c r="A10"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5">
-      <c r="A11"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5">
-      <c r="A12"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5">
-      <c r="A13"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5">
-      <c r="A14"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5">
-      <c r="A15"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5">
-      <c r="A16"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5">
-      <c r="A17"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5">
-      <c r="A18"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5">
-      <c r="A19"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5">
-      <c r="A20"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.5">
-      <c r="A21"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5">
+      <c r="G21" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="7"/>
       <c r="C22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="7"/>
       <c r="C23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
     </row>
@@ -1987,26 +2262,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2032,7 +2307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -302,10 +302,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Image/Head/2;Image/Head/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>皇后</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -324,6 +320,38 @@
   <si>
     <t>不要，皇上！不要啊！臣女知错了！臣女真的知错了！对了，是那贱婢，是那贱婢害了臣女！不是我，往鞋底涂抹香粉的主意不是我……呜！</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>本宫很满意!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/2;Image/Head/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本宫非常满意!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本宫满意!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本宫特别满意!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本宫不太满意!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本宫很无语!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -775,7 +803,7 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1177,19 +1205,19 @@
         <v>6</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="11">
         <v>2</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1212,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1235,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1258,35 +1286,134 @@
         <v>2</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="B22" s="7">
+        <v>7</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="7">
+        <v>8</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="11">
+        <v>1</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24"/>
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="7">
+        <v>9</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="7">
+        <v>10</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="11">
+        <v>1</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26"/>
-      <c r="B26"/>
+      <c r="B26" s="7">
+        <v>11</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27"/>
-      <c r="F27" s="7"/>
+      <c r="B27" s="7">
+        <v>12</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28"/>

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -803,7 +803,7 @@
   <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A17" sqref="A17:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1290,7 +1290,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22"/>
+      <c r="A22" s="8">
+        <v>18</v>
+      </c>
       <c r="B22" s="7">
         <v>7</v>
       </c>
@@ -1311,7 +1313,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23"/>
+      <c r="A23" s="8">
+        <v>19</v>
+      </c>
       <c r="B23" s="7">
         <v>8</v>
       </c>
@@ -1332,7 +1336,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24"/>
+      <c r="A24" s="8">
+        <v>20</v>
+      </c>
       <c r="B24" s="7">
         <v>9</v>
       </c>
@@ -1353,7 +1359,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25"/>
+      <c r="A25" s="8">
+        <v>21</v>
+      </c>
       <c r="B25" s="7">
         <v>10</v>
       </c>
@@ -1374,7 +1382,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26"/>
+      <c r="A26" s="8">
+        <v>22</v>
+      </c>
       <c r="B26" s="7">
         <v>11</v>
       </c>
@@ -1395,7 +1405,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27"/>
+      <c r="A27" s="8">
+        <v>23</v>
+      </c>
       <c r="B27" s="7">
         <v>12</v>
       </c>

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -262,10 +262,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>臣女阿玛常说，女子一耳带三钳，穿花盆鞋，乃是老祖宗留下的规矩，若是一朝抛弃，效法汉女一耳一坠，就是忘了祖宗。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Image/Head/4;Image/Head/2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,64 +290,68 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>这叫步步生莲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>来人，叉出去</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>皇后</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>皇上，皇上，臣女只是仿照步步生莲，想要博个头彩，皇上宽恕！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>本宫很满意!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/2;Image/Head/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本宫非常满意!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本宫满意!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本宫特别满意!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本宫不太满意!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本宫很无语!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女子一耳带三钳，穿花盆鞋，乃是老祖宗留下的规矩，若是一朝抛弃，效法汉女一耳一坠，就是忘了祖宗。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>皇上，秀女想要拔个头筹，也没有什么不对，您若是不喜欢，赐花就是了，这样驱逐出宫，她以后有何颜面见人。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>皇上，皇上，臣女只是仿照步步生莲，想要博个头彩，皇上宽恕！</t>
+    <t>朕早已明令，禁止汉军旗秀女缠足，如今乌雅氏也学此等奢靡颓废风气，这样的女子进了宫，一定会惹出是非，驱逐出宫，以儆效尤！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>朕早已明令，禁止汉军旗秀女缠足，非但汉军旗如此，连乌雅氏也学此等奢靡颓废风气，这样的女子进了宫，一定会惹出是非，朕不但要将她驱逐出宫，还要将她的父亲按违例治罪，以儆效尤！</t>
+    <t>来人，叉出去。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>不要，皇上！不要啊！臣女知错了！臣女真的知错了！对了，是那贱婢，是那贱婢害了臣女！不是我，往鞋底涂抹香粉的主意不是我……呜！</t>
+    <t>皇上，臣女这叫步步生莲。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>本宫很满意!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/2;Image/Head/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本宫非常满意!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本宫满意!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本宫特别满意!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本宫不太满意!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本宫很无语!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>不要，皇上！不要啊！臣女知错了！对了，是那贱婢，是那贱婢害了臣女！不是我，往鞋底涂抹香粉的主意不是我……呜！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -802,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A27"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1090,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>42</v>
@@ -1102,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1113,7 +1113,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>42</v>
@@ -1125,7 +1125,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1159,19 +1159,19 @@
         <v>6</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="11">
         <v>2</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1182,7 +1182,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>42</v>
@@ -1194,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1205,19 +1205,19 @@
         <v>6</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F18" s="11">
         <v>2</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1228,19 +1228,19 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" s="11">
         <v>2</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1251,7 +1251,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>42</v>
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1274,19 +1274,19 @@
         <v>6</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="11">
         <v>2</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1297,19 +1297,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F22" s="11">
         <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1320,19 +1320,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F23" s="11">
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1343,19 +1343,19 @@
         <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F24" s="11">
         <v>1</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1366,19 +1366,19 @@
         <v>10</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F25" s="11">
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1389,19 +1389,19 @@
         <v>11</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F26" s="11">
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1412,19 +1412,19 @@
         <v>12</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F27" s="11">
         <v>1</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -352,6 +352,26 @@
   <si>
     <t>不要，皇上！不要啊！臣女知错了！对了，是那贱婢，是那贱婢害了臣女！不是我，往鞋底涂抹香粉的主意不是我……呜！</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我会守护你的一生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我就是你的白月光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -802,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1427,15 +1447,57 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29"/>
-      <c r="B29"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30"/>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>24</v>
+      </c>
+      <c r="B28" s="7">
+        <v>13</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
+        <v>25</v>
+      </c>
+      <c r="B29" s="7">
+        <v>14</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <v>26</v>
+      </c>
+      <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31"/>

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="100">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -270,10 +270,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Image/Head/4;Image/Head/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>留牌子。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -298,35 +294,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>本宫很满意!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Image/Head/2;Image/Head/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image/Head/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本宫非常满意!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本宫满意!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本宫特别满意!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本宫不太满意!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本宫很无语!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -371,6 +343,107 @@
   </si>
   <si>
     <t>Image/Head/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娴妃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯妃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒贵人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高贵妃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富察皇后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭贺皇后娘娘，芳龄永驻，福寿绵长。</t>
+  </si>
+  <si>
+    <t>这既不是金线也不是银线。这到底是用什么织的？</t>
+  </si>
+  <si>
+    <t>回禀皇后娘娘，听闻皇后娘娘素来节俭。今年特意用了鹿尾绒毛搓成的丝线。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来人啊，赏！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臣妾谢皇上厚恩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上有赏。恭祝皇后娘娘福寿康宁。这是皇上特意为娘娘准备的一件礼物——报时妆奁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(强压怒火）高贵妃一番美意，这份厚礼，本宫收下了。</t>
+  </si>
+  <si>
+    <t>皇后娘娘，臣妾特意命人为您打造了一尊送子观音。您可喜欢呀。</t>
+  </si>
+  <si>
+    <t>真是漂亮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后娘娘，臣妾托人打造了一个宝石盆景。您看喜不喜欢。</t>
+  </si>
+  <si>
+    <t>皇后娘娘，臣妾准备一块暖玉，非常适合娘娘体质。</t>
+  </si>
+  <si>
+    <t>纯妃有心了，本宫很喜欢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臣妾准备了一双玉如意，恭祝娘娘福泽绵长 万事如意。</t>
+  </si>
+  <si>
+    <t>（微笑点头）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/2;Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1;Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1;Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4;Image/Head/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1;Image/Head/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G304"/>
+  <dimension ref="A1:G312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:G29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1099,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1133,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>42</v>
@@ -1145,7 +1218,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1168,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1179,19 +1252,19 @@
         <v>6</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="11">
         <v>2</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1202,7 +1275,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>42</v>
@@ -1214,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1225,19 +1298,19 @@
         <v>6</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="F18" s="11">
         <v>2</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1248,19 +1321,19 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" s="11">
         <v>2</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1271,7 +1344,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>42</v>
@@ -1283,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1294,19 +1367,19 @@
         <v>6</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="11">
         <v>2</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1317,19 +1390,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F22" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1337,22 +1410,22 @@
         <v>19</v>
       </c>
       <c r="B23" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="F23" s="11">
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1360,22 +1433,22 @@
         <v>20</v>
       </c>
       <c r="B24" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F24" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1383,22 +1456,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="F25" s="11">
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1406,22 +1479,22 @@
         <v>22</v>
       </c>
       <c r="B26" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F26" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1429,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B27" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="F27" s="11">
         <v>1</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1452,22 +1525,22 @@
         <v>24</v>
       </c>
       <c r="B28" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>76</v>
       </c>
       <c r="F28" s="11">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>77</v>
+        <v>2</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1475,90 +1548,244 @@
         <v>25</v>
       </c>
       <c r="B29" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>75</v>
+        <v>95</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="F29" s="11">
         <v>1</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>78</v>
+      <c r="G29" s="11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>26</v>
       </c>
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32"/>
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35"/>
-      <c r="B35"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37"/>
-      <c r="B37"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="7">
+        <v>11</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="11">
+        <v>2</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>27</v>
+      </c>
+      <c r="B31" s="7">
+        <v>11</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
+        <v>28</v>
+      </c>
+      <c r="B32" s="7">
+        <v>12</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="11">
+        <v>2</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
+        <v>29</v>
+      </c>
+      <c r="B33" s="7">
+        <v>12</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
+        <v>30</v>
+      </c>
+      <c r="B34" s="7">
+        <v>12</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="11">
+        <v>2</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
+        <v>31</v>
+      </c>
+      <c r="B35" s="7">
+        <v>12</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="11">
+        <v>1</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
+        <v>32</v>
+      </c>
+      <c r="B36" s="7">
+        <v>13</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="11">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
+        <v>33</v>
+      </c>
+      <c r="B37" s="7">
+        <v>14</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="11">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39"/>
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41"/>
-      <c r="B41"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1584,24 +1811,28 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55"/>
+      <c r="B55"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57"/>
+      <c r="B57"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59"/>
+      <c r="B59"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61"/>
+      <c r="B61"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62"/>
@@ -1623,28 +1854,24 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68"/>
-      <c r="B68"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70"/>
-      <c r="B70"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72"/>
-      <c r="B72"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74"/>
-      <c r="B74"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75"/>
@@ -2450,6 +2677,34 @@
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305"/>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306"/>
+      <c r="B306"/>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307"/>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308"/>
+      <c r="B308"/>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309"/>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310"/>
+      <c r="B310"/>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311"/>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312"/>
+      <c r="B312"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -322,129 +322,129 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>不要，皇上！不要啊！臣女知错了！对了，是那贱婢，是那贱婢害了臣女！不是我，往鞋底涂抹香粉的主意不是我……呜！</t>
+    <t>皇后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我会守护你的一生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我就是你的白月光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娴妃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯妃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒贵人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高贵妃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富察皇后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭贺皇后娘娘，芳龄永驻，福寿绵长。</t>
+  </si>
+  <si>
+    <t>这既不是金线也不是银线。这到底是用什么织的？</t>
+  </si>
+  <si>
+    <t>回禀皇后娘娘，听闻皇后娘娘素来节俭。今年特意用了鹿尾绒毛搓成的丝线。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来人啊，赏！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臣妾谢皇上厚恩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上有赏。恭祝皇后娘娘福寿康宁。这是皇上特意为娘娘准备的一件礼物——报时妆奁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(强压怒火）高贵妃一番美意，这份厚礼，本宫收下了。</t>
+  </si>
+  <si>
+    <t>皇后娘娘，臣妾特意命人为您打造了一尊送子观音。您可喜欢呀。</t>
+  </si>
+  <si>
+    <t>真是漂亮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后娘娘，臣妾托人打造了一个宝石盆景。您看喜不喜欢。</t>
+  </si>
+  <si>
+    <t>皇后娘娘，臣妾准备一块暖玉，非常适合娘娘体质。</t>
+  </si>
+  <si>
+    <t>纯妃有心了，本宫很喜欢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臣妾准备了一双玉如意，恭祝娘娘福泽绵长 万事如意。</t>
+  </si>
+  <si>
+    <t>（微笑点头）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/2;Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1;Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1;Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4;Image/Head/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1;Image/Head/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要啊！皇上！臣女知错了！对了，是那贱婢害了臣女！往鞋底涂抹香粉的主意不是我……呜！</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侍卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我会守护你的一生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我就是你的白月光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娴妃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯妃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舒贵人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高贵妃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>璎珞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富察皇后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭贺皇后娘娘，芳龄永驻，福寿绵长。</t>
-  </si>
-  <si>
-    <t>这既不是金线也不是银线。这到底是用什么织的？</t>
-  </si>
-  <si>
-    <t>回禀皇后娘娘，听闻皇后娘娘素来节俭。今年特意用了鹿尾绒毛搓成的丝线。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来人啊，赏！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臣妾谢皇上厚恩。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇上有赏。恭祝皇后娘娘福寿康宁。这是皇上特意为娘娘准备的一件礼物——报时妆奁。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(强压怒火）高贵妃一番美意，这份厚礼，本宫收下了。</t>
-  </si>
-  <si>
-    <t>皇后娘娘，臣妾特意命人为您打造了一尊送子观音。您可喜欢呀。</t>
-  </si>
-  <si>
-    <t>真是漂亮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇后娘娘，臣妾托人打造了一个宝石盆景。您看喜不喜欢。</t>
-  </si>
-  <si>
-    <t>皇后娘娘，臣妾准备一块暖玉，非常适合娘娘体质。</t>
-  </si>
-  <si>
-    <t>纯妃有心了，本宫很喜欢。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臣妾准备了一双玉如意，恭祝娘娘福泽绵长 万事如意。</t>
-  </si>
-  <si>
-    <t>（微笑点头）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/2;Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/1;Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/1;Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/4;Image/Head/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/1;Image/Head/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1206,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>42</v>
@@ -1304,7 +1304,7 @@
         <v>42</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="11">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>42</v>
@@ -1379,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1390,19 +1390,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="9">
         <v>2</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="11">
         <v>2</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1413,19 +1413,19 @@
         <v>7</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F23" s="11">
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1436,19 +1436,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24" s="11">
         <v>2</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1459,19 +1459,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25" s="11">
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1482,19 +1482,19 @@
         <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" s="11">
         <v>2</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1505,19 +1505,19 @@
         <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F27" s="11">
         <v>1</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1528,19 +1528,19 @@
         <v>10</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F28" s="11">
         <v>2</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1551,19 +1551,19 @@
         <v>10</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F29" s="11">
         <v>1</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1580,13 +1580,13 @@
         <v>2</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F30" s="11">
         <v>2</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1597,7 +1597,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>42</v>
@@ -1609,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1620,19 +1620,19 @@
         <v>12</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F32" s="11">
         <v>2</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1643,19 +1643,19 @@
         <v>12</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F33" s="11">
         <v>1</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1666,19 +1666,19 @@
         <v>12</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" s="11">
         <v>2</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1689,7 +1689,7 @@
         <v>12</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>42</v>
@@ -1701,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1712,19 +1712,19 @@
         <v>13</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36" s="11">
         <v>1</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1741,13 +1741,13 @@
         <v>1</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F37" s="11">
         <v>1</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="151">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -87,26 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>唯一</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ListSpliter:";"</t>
   </si>
   <si>
@@ -130,52 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>头像位置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>左</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>右</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,34 +166,34 @@
   </si>
   <si>
     <t>赐花。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>这是一天吃五顿饭。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每天顶着酱油晒太阳吗？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>李玉</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Image/Head/3</t>
   </si>
   <si>
     <t>光禄寺少卿陆士隆之女陆晚晚，年十六！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Image/Head/4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>纳兰淳雪</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Image/Head/4;Image/Head/2</t>
@@ -267,15 +201,15 @@
   </si>
   <si>
     <t>说的不错。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>留牌子。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>你脚上是怎么回事？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Image/Head/2;Image/Head/4</t>
@@ -283,15 +217,15 @@
   </si>
   <si>
     <t>乌雅青黛</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>皇后</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>皇上，皇上，臣女只是仿照步步生莲，想要博个头彩，皇上宽恕！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Image/Head/2;Image/Head/1</t>
@@ -303,139 +237,347 @@
   </si>
   <si>
     <t>女子一耳带三钳，穿花盆鞋，乃是老祖宗留下的规矩，若是一朝抛弃，效法汉女一耳一坠，就是忘了祖宗。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>皇上，秀女想要拔个头筹，也没有什么不对，您若是不喜欢，赐花就是了，这样驱逐出宫，她以后有何颜面见人。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>来人，叉出去。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上，臣女这叫步步生莲。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娴妃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯妃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒贵人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高贵妃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富察皇后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭贺皇后娘娘，芳龄永驻，福寿绵长。</t>
+  </si>
+  <si>
+    <t>这既不是金线也不是银线。这到底是用什么织的？</t>
+  </si>
+  <si>
+    <t>回禀皇后娘娘，听闻皇后娘娘素来节俭。今年特意用了鹿尾绒毛搓成的丝线。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来人啊，赏！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臣妾谢皇上厚恩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上有赏。恭祝皇后娘娘福寿康宁。这是皇上特意为娘娘准备的一件礼物——报时妆奁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后娘娘，臣妾特意命人为您打造了一尊送子观音。您可喜欢呀。</t>
+  </si>
+  <si>
+    <t>真是漂亮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后娘娘，臣妾托人打造了一个宝石盆景。您看喜不喜欢。</t>
+  </si>
+  <si>
+    <t>皇后娘娘，臣妾准备一块暖玉，非常适合娘娘体质。</t>
+  </si>
+  <si>
+    <t>纯妃有心了，本宫很喜欢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臣妾准备了一双玉如意，恭祝娘娘福泽绵长 万事如意。</t>
+  </si>
+  <si>
+    <t>Image/Head/2;Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1;Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1;Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4;Image/Head/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1;Image/Head/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要啊！皇上！臣女知错了！对了，是那贱婢害了臣女！往鞋底涂抹香粉的主意不是我……呜！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我就是你的白月光。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我会守护你的一生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年久失修的义庄内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姐姐，你我怎么会在这种地方见面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他们都说你没资格葬入祖坟，我不信他们的话，姐，我要你亲口告诉我真相……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞，住手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞轰的砍了下去。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你，你在干什么啊？这可是你姐姐的棺材啊……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有人说姐姐是病死的，也有的说她是在宫里做了丑事，没脸见人才自尽身亡的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看她脖子上的手印，告诉我，一个人，该怎么把自己给掐死？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要再追究了，快跟我回家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不……我要进宫。查明真凶，为我姐姐报仇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏清泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏璎珞</t>
+  </si>
+  <si>
+    <t>魏璎珞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>朕早已明令，禁止汉军旗秀女缠足，如今乌雅氏也学此等奢靡颓废风气，这样的女子进了宫，一定会惹出是非，驱逐出宫，以儆效尤！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>来人，叉出去。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇上，臣女这叫步步生莲。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侍卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我会守护你的一生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我就是你的白月光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娴妃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯妃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舒贵人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高贵妃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>璎珞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富察皇后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭贺皇后娘娘，芳龄永驻，福寿绵长。</t>
-  </si>
-  <si>
-    <t>这既不是金线也不是银线。这到底是用什么织的？</t>
-  </si>
-  <si>
-    <t>回禀皇后娘娘，听闻皇后娘娘素来节俭。今年特意用了鹿尾绒毛搓成的丝线。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来人啊，赏！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臣妾谢皇上厚恩。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇上有赏。恭祝皇后娘娘福寿康宁。这是皇上特意为娘娘准备的一件礼物——报时妆奁。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(强压怒火）高贵妃一番美意，这份厚礼，本宫收下了。</t>
-  </si>
-  <si>
-    <t>皇后娘娘，臣妾特意命人为您打造了一尊送子观音。您可喜欢呀。</t>
-  </si>
-  <si>
-    <t>真是漂亮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇后娘娘，臣妾托人打造了一个宝石盆景。您看喜不喜欢。</t>
-  </si>
-  <si>
-    <t>皇后娘娘，臣妾准备一块暖玉，非常适合娘娘体质。</t>
-  </si>
-  <si>
-    <t>纯妃有心了，本宫很喜欢。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臣妾准备了一双玉如意，恭祝娘娘福泽绵长 万事如意。</t>
-  </si>
-  <si>
-    <t>（微笑点头）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/2;Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/1;Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/1;Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/4;Image/Head/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/1;Image/Head/3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(强压怒火)高贵妃一番美意，这份厚礼，本宫收下了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(微笑点头)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉祥看着远处预备殿选的秀女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要是能穿上这么漂亮的衣服就好了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少做白日梦了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被锦绣一撞吉祥拎的水桶弄脏了乌雅秀女的裙子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对不起，对不起，我现在就帮你擦干净……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混账奴才！你现在弄脏了，要我穿什么去见皇上！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奴才给您擦，奴才马上就给您擦干净……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既然弄脏了我的衣裳，就用你这只手来赔吧!(言罢，一只脚便重重碾在吉祥的手背上)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好疼啊，饶命啊，救救我!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌雅小主。请高抬贵脚。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你一个小小宫女，也妄想请我容情？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小主匠心独运，特意将鞋底雕刻成莲花形状，可惜还少了一样东西，奴才斗胆，愿为小主分忧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何分忧？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请乌雅小主抬足。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(魏璎珞双手捧着乌雅青黛的绣鞋，然后以香囊沾粉，均匀的将香粉涂抹在乌雅青黛的鞋底，神情专注)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日璎珞雕虫小技，用玫瑰花粉嵌入鞋底，祝愿小主心愿得偿、步步高升！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就冲你这哈巴狗的样，我饶她一命！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦绣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌雅青黛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌雅青黛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像位置 1左 2右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍珠你好，我是新来的魏璎珞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛瑙，我来帮你一起打扫吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翡翠，有需要我帮忙的吗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琥珀，还有哪里需要我做的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真不知道皇后娘娘看中你什么，一个小小绣女也能来长春宫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明玉姐姐说的是。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我终于到了长春宫，为姐姐报仇，查找真正凶手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好了璎珞，这收拾的挺干净的，回去休息吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢谢尔晴姐姐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我看这丫头挺机灵的，全当来给我逗个闷儿。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尔晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明玉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -443,8 +585,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不要啊！皇上！臣女知错了！对了，是那贱婢害了臣女！往鞋底涂抹香粉的主意不是我……呜！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -468,12 +614,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -487,8 +627,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +645,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9BBB59"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -519,7 +671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -529,29 +681,32 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -895,65 +1050,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.796875" customWidth="1"/>
-    <col min="4" max="4" width="18.19921875" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="251" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="89.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>36</v>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>31</v>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -961,936 +1116,1664 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="10">
+        <v>2</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8">
+        <v>5</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8">
+        <v>6</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8">
+        <v>6</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8">
+        <v>6</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>14</v>
+      </c>
+      <c r="B18" s="8">
+        <v>6</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8">
+        <v>6</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8">
+        <v>6</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8">
+        <v>6</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="7">
+        <v>2</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6">
+        <v>7</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="10">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6">
+        <v>7</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6">
+        <v>8</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6">
+        <v>8</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>22</v>
+      </c>
+      <c r="B26" s="6">
+        <v>9</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="9">
+        <v>2</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="7">
+        <v>2</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B27" s="6">
+        <v>9</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>24</v>
+      </c>
+      <c r="B28" s="6">
+        <v>10</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="9">
+        <v>2</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="7">
+        <v>2</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>25</v>
+      </c>
+      <c r="B29" s="6">
+        <v>10</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>26</v>
+      </c>
+      <c r="B30" s="6">
+        <v>11</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="9">
+        <v>2</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="7">
+        <v>2</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>27</v>
+      </c>
+      <c r="B31" s="6">
+        <v>11</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <v>28</v>
+      </c>
+      <c r="B32" s="6">
+        <v>12</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="9">
+        <v>2</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="7">
+        <v>2</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
+        <v>29</v>
+      </c>
+      <c r="B33" s="6">
+        <v>12</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
+        <v>30</v>
+      </c>
+      <c r="B34" s="6">
+        <v>12</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="9">
+        <v>2</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="7">
+        <v>2</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
+        <v>31</v>
+      </c>
+      <c r="B35" s="6">
+        <v>12</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
+        <v>32</v>
+      </c>
+      <c r="B36" s="6">
+        <v>13</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
+        <v>33</v>
+      </c>
+      <c r="B37" s="6">
+        <v>14</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
+        <v>34</v>
+      </c>
+      <c r="B38" s="6">
+        <v>15</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="9">
+        <v>2</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="7">
+        <v>2</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="10">
+        <v>35</v>
+      </c>
+      <c r="B39" s="6">
+        <v>15</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="9">
+        <v>1</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="7">
+        <v>1</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
+        <v>36</v>
+      </c>
+      <c r="B40" s="6">
+        <v>15</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
+        <v>37</v>
+      </c>
+      <c r="B41" s="6">
+        <v>16</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="9">
+        <v>1</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
+        <v>38</v>
+      </c>
+      <c r="B42" s="6">
+        <v>16</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="7">
+        <v>2</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
+        <v>39</v>
+      </c>
+      <c r="B43" s="6">
+        <v>16</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="10">
+        <v>1</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="7">
+        <v>1</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
+        <v>40</v>
+      </c>
+      <c r="B44" s="6">
+        <v>17</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="10">
+        <v>1</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
+        <v>41</v>
+      </c>
+      <c r="B45" s="6">
+        <v>17</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="10">
+        <v>1</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" s="7">
+        <v>1</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="10">
+        <v>42</v>
+      </c>
+      <c r="B46" s="6">
+        <v>18</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="10">
+        <v>2</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="7">
+        <v>2</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
+        <v>43</v>
+      </c>
+      <c r="B47" s="6">
+        <v>18</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
+        <v>44</v>
+      </c>
+      <c r="B48" s="11">
+        <v>19</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="10">
+        <v>1</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="9">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="10">
+        <v>45</v>
+      </c>
+      <c r="B49" s="11">
+        <v>19</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="9">
+        <v>2</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="10">
+        <v>46</v>
+      </c>
+      <c r="B50" s="11">
+        <v>20</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="9">
+        <v>1</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="9">
+        <v>1</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="10">
+        <v>47</v>
+      </c>
+      <c r="B51" s="11">
+        <v>20</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" s="9">
+        <v>2</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="10">
+        <v>48</v>
+      </c>
+      <c r="B52" s="11">
+        <v>20</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" s="9">
+        <v>1</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="10">
+        <v>49</v>
+      </c>
+      <c r="B53" s="11">
+        <v>21</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="10">
+        <v>1</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" s="9">
+        <v>1</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="10">
+        <v>50</v>
+      </c>
+      <c r="B54" s="11">
+        <v>21</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F54" s="9">
+        <v>2</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="10">
+        <v>51</v>
+      </c>
+      <c r="B55" s="11">
+        <v>21</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" s="9">
+        <v>1</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="10">
+        <v>52</v>
+      </c>
+      <c r="B56" s="11">
+        <v>21</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" s="9">
+        <v>2</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="10">
+        <v>53</v>
+      </c>
+      <c r="B57" s="11">
+        <v>22</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="9">
+        <v>1</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" s="9">
+        <v>1</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="10">
+        <v>54</v>
+      </c>
+      <c r="B58" s="11">
+        <v>22</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F58" s="9">
+        <v>2</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="10">
+        <v>55</v>
+      </c>
+      <c r="B59" s="11">
+        <v>22</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" s="9">
+        <v>1</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="10">
+        <v>56</v>
+      </c>
+      <c r="B60" s="11">
         <v>23</v>
       </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="C60" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="9">
+        <v>2</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" s="9">
+        <v>2</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="10">
+        <v>57</v>
+      </c>
+      <c r="B61" s="11">
+        <v>23</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F61" s="9">
+        <v>1</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="10">
+        <v>58</v>
+      </c>
+      <c r="B62" s="11">
+        <v>23</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F62" s="9">
+        <v>2</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="10">
+        <v>59</v>
+      </c>
+      <c r="B63" s="11">
+        <v>24</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="9">
+        <v>1</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" s="9">
+        <v>1</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="10">
+        <v>60</v>
+      </c>
+      <c r="B64" s="11">
+        <v>24</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64" s="9">
+        <v>2</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="10">
+        <v>61</v>
+      </c>
+      <c r="B65" s="11">
         <v>25</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="C65" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F65" s="9">
+        <v>1</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="10">
+        <v>62</v>
+      </c>
+      <c r="B66" s="11">
+        <v>26</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F66" s="9">
+        <v>1</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="10">
+        <v>63</v>
+      </c>
+      <c r="B67" s="11">
+        <v>27</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" s="9">
+        <v>1</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F67" s="9">
+        <v>1</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="10">
+        <v>64</v>
+      </c>
+      <c r="B68" s="11">
+        <v>28</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="9">
+        <v>1</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F68" s="9">
+        <v>1</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="10">
+        <v>65</v>
+      </c>
+      <c r="B69" s="11">
         <v>29</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="C69" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" s="9">
+        <v>2</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F69" s="9">
+        <v>2</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="10">
+        <v>66</v>
+      </c>
+      <c r="B70" s="11">
+        <v>29</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F70" s="9">
+        <v>1</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="10">
+        <v>67</v>
+      </c>
+      <c r="B71" s="11">
+        <v>30</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="9">
+        <v>1</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F71" s="9">
+        <v>1</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="10">
+        <v>68</v>
+      </c>
+      <c r="B72" s="11">
+        <v>31</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" s="9">
+        <v>2</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F72" s="9">
+        <v>2</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="10">
+        <v>69</v>
+      </c>
+      <c r="B73" s="11">
+        <v>31</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F73" s="9">
+        <v>1</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="10">
+        <v>70</v>
+      </c>
+      <c r="B74" s="11">
         <v>32</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="8">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="8">
-        <v>2</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>6</v>
-      </c>
-      <c r="B10" s="12">
-        <v>3</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="11">
-        <v>2</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>7</v>
-      </c>
-      <c r="B11" s="12">
-        <v>4</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12">
-        <v>5</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="11">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>9</v>
-      </c>
-      <c r="B13" s="12">
-        <v>5</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="11">
-        <v>2</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>10</v>
-      </c>
-      <c r="B14" s="12">
-        <v>5</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="11">
-        <v>2</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>11</v>
-      </c>
-      <c r="B15" s="12">
-        <v>6</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="11">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>12</v>
-      </c>
-      <c r="B16" s="12">
-        <v>6</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="11">
-        <v>2</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <v>13</v>
-      </c>
-      <c r="B17" s="12">
-        <v>6</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="11">
-        <v>1</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>14</v>
-      </c>
-      <c r="B18" s="12">
-        <v>6</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="11">
-        <v>2</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <v>15</v>
-      </c>
-      <c r="B19" s="12">
-        <v>6</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="11">
-        <v>2</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>16</v>
-      </c>
-      <c r="B20" s="12">
-        <v>6</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="11">
-        <v>1</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <v>17</v>
-      </c>
-      <c r="B21" s="12">
-        <v>6</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="11">
-        <v>2</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>18</v>
-      </c>
-      <c r="B22" s="7">
-        <v>7</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="9">
-        <v>2</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="C74" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D74" s="9">
+        <v>1</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="11">
-        <v>2</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>19</v>
-      </c>
-      <c r="B23" s="7">
-        <v>7</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="11">
-        <v>1</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>20</v>
-      </c>
-      <c r="B24" s="7">
-        <v>8</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="11">
-        <v>2</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <v>21</v>
-      </c>
-      <c r="B25" s="7">
-        <v>8</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="11">
-        <v>1</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <v>22</v>
-      </c>
-      <c r="B26" s="7">
-        <v>9</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="11">
-        <v>2</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <v>23</v>
-      </c>
-      <c r="B27" s="7">
-        <v>9</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="11">
-        <v>1</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <v>24</v>
-      </c>
-      <c r="B28" s="7">
-        <v>10</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="11">
-        <v>2</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
-        <v>25</v>
-      </c>
-      <c r="B29" s="7">
-        <v>10</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="11">
-        <v>1</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
-        <v>26</v>
-      </c>
-      <c r="B30" s="7">
-        <v>11</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="11">
-        <v>2</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
-        <v>27</v>
-      </c>
-      <c r="B31" s="7">
-        <v>11</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="11">
-        <v>1</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
-        <v>28</v>
-      </c>
-      <c r="B32" s="7">
-        <v>12</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" s="11">
-        <v>2</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
-        <v>29</v>
-      </c>
-      <c r="B33" s="7">
-        <v>12</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="11">
-        <v>1</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
-        <v>30</v>
-      </c>
-      <c r="B34" s="7">
-        <v>12</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="11">
-        <v>2</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
-        <v>31</v>
-      </c>
-      <c r="B35" s="7">
-        <v>12</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="11">
-        <v>1</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
-        <v>32</v>
-      </c>
-      <c r="B36" s="7">
-        <v>13</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="11">
-        <v>1</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
-        <v>33</v>
-      </c>
-      <c r="B37" s="7">
-        <v>14</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="11">
-        <v>1</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40"/>
-      <c r="B40"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43"/>
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45"/>
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47"/>
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49"/>
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51"/>
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53"/>
-      <c r="B53"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55"/>
-      <c r="B55"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57"/>
-      <c r="B57"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59"/>
-      <c r="B59"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61"/>
-      <c r="B61"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F74" s="9">
+        <v>1</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="10"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
     </row>

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -1050,7 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="153">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -150,9 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今天风这么大，站着挺费劲儿吧。</t>
-  </si>
-  <si>
     <t>Image/Head/2;Image/Head/3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,18 +160,6 @@
   <si>
     <t>李玉</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赐花。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是一天吃五顿饭。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天顶着酱油晒太阳吗？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>李玉</t>
@@ -200,7 +185,408 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>说的不错。</t>
+    <t>Image/Head/2;Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌雅青黛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上，皇上，臣女只是仿照步步生莲，想要博个头彩，皇上宽恕！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/2;Image/Head/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上，秀女想要拔个头筹，也没有什么不对，您若是不喜欢，赐花就是了，这样驱逐出宫，她以后有何颜面见人。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>来人，叉出去。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侍卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娴妃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯妃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒贵人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高贵妃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富察皇后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭贺皇后娘娘，芳龄永驻，福寿绵长。</t>
+  </si>
+  <si>
+    <t>这既不是金线也不是银线。这到底是用什么织的？</t>
+  </si>
+  <si>
+    <t>回禀皇后娘娘，听闻皇后娘娘素来节俭。今年特意用了鹿尾绒毛搓成的丝线。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来人啊，赏！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臣妾谢皇上厚恩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上有赏。恭祝皇后娘娘福寿康宁。这是皇上特意为娘娘准备的一件礼物——报时妆奁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后娘娘，臣妾特意命人为您打造了一尊送子观音。您可喜欢呀。</t>
+  </si>
+  <si>
+    <t>真是漂亮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后娘娘，臣妾托人打造了一个宝石盆景。您看喜不喜欢。</t>
+  </si>
+  <si>
+    <t>皇后娘娘，臣妾准备一块暖玉，非常适合娘娘体质。</t>
+  </si>
+  <si>
+    <t>纯妃有心了，本宫很喜欢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臣妾准备了一双玉如意，恭祝娘娘福泽绵长 万事如意。</t>
+  </si>
+  <si>
+    <t>Image/Head/2;Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1;Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1;Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4;Image/Head/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1;Image/Head/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要啊！皇上！臣女知错了！对了，是那贱婢害了臣女！往鞋底涂抹香粉的主意不是我……呜！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我就是你的白月光。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我会守护你的一生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年久失修的义庄内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姐姐，你我怎么会在这种地方见面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他们都说你没资格葬入祖坟，我不信他们的话，姐，我要你亲口告诉我真相……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞，住手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞轰的砍了下去。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你，你在干什么啊？这可是你姐姐的棺材啊……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有人说姐姐是病死的，也有的说她是在宫里做了丑事，没脸见人才自尽身亡的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看她脖子上的手印，告诉我，一个人，该怎么把自己给掐死？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要再追究了，快跟我回家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不……我要进宫。查明真凶，为我姐姐报仇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏清泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏璎珞</t>
+  </si>
+  <si>
+    <t>魏璎珞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朕早已明令，禁止汉军旗秀女缠足，如今乌雅氏也学此等奢靡颓废风气，这样的女子进了宫，一定会惹出是非，驱逐出宫，以儆效尤！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(强压怒火)高贵妃一番美意，这份厚礼，本宫收下了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(微笑点头)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉祥看着远处预备殿选的秀女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要是能穿上这么漂亮的衣服就好了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少做白日梦了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被锦绣一撞吉祥拎的水桶弄脏了乌雅秀女的裙子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对不起，对不起，我现在就帮你擦干净……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混账奴才！你现在弄脏了，要我穿什么去见皇上！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奴才给您擦，奴才马上就给您擦干净……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既然弄脏了我的衣裳，就用你这只手来赔吧!(言罢，一只脚便重重碾在吉祥的手背上)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好疼啊，饶命啊，救救我!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌雅小主。请高抬贵脚。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你一个小小宫女，也妄想请我容情？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小主匠心独运，特意将鞋底雕刻成莲花形状，可惜还少了一样东西，奴才斗胆，愿为小主分忧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何分忧？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请乌雅小主抬足。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(魏璎珞双手捧着乌雅青黛的绣鞋，然后以香囊沾粉，均匀的将香粉涂抹在乌雅青黛的鞋底，神情专注)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日璎珞雕虫小技，用玫瑰花粉嵌入鞋底，祝愿小主心愿得偿、步步高升！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就冲你这哈巴狗的样，我饶她一命！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦绣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌雅青黛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌雅青黛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像位置 1左 2右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍珠你好，我是新来的魏璎珞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛瑙，我来帮你一起打扫吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翡翠，有需要我帮忙的吗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琥珀，还有哪里需要我做的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真不知道皇后娘娘看中你什么，一个小小绣女也能来长春宫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明玉姐姐说的是。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我终于到了长春宫，为姐姐报仇，查找真正凶手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好了璎珞，这收拾的挺干净的，回去休息吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢谢尔晴姐姐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我看这丫头挺机灵的，全当来给我逗个闷儿。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尔晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上说你太瘦，赐花。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>这秀女，今天风这么大，站着挺费劲儿吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你这是一天吃五顿饭。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上说你太胖，赐花。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是每天顶着酱油晒太阳吗？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上说你太黑了，赐花。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上，女子一耳带三钳，穿花盆鞋，乃是老祖宗留下的规矩，若是一朝抛弃，效法汉女一耳一坠，就是忘了祖宗。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯，说的不错。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -208,389 +594,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>你脚上是怎么回事？</t>
+    <t>你这脚上是怎么回事？</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Image/Head/2;Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌雅青黛</t>
+    <t>回皇上，臣女这叫步步生莲。</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇后</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇上，皇上，臣女只是仿照步步生莲，想要博个头彩，皇上宽恕！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/2;Image/Head/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女子一耳带三钳，穿花盆鞋，乃是老祖宗留下的规矩，若是一朝抛弃，效法汉女一耳一坠，就是忘了祖宗。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇上，秀女想要拔个头筹，也没有什么不对，您若是不喜欢，赐花就是了，这样驱逐出宫，她以后有何颜面见人。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>来人，叉出去。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇上，臣女这叫步步生莲。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侍卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娴妃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯妃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舒贵人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高贵妃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富察皇后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭贺皇后娘娘，芳龄永驻，福寿绵长。</t>
-  </si>
-  <si>
-    <t>这既不是金线也不是银线。这到底是用什么织的？</t>
-  </si>
-  <si>
-    <t>回禀皇后娘娘，听闻皇后娘娘素来节俭。今年特意用了鹿尾绒毛搓成的丝线。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来人啊，赏！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臣妾谢皇上厚恩。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇上有赏。恭祝皇后娘娘福寿康宁。这是皇上特意为娘娘准备的一件礼物——报时妆奁。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇后娘娘，臣妾特意命人为您打造了一尊送子观音。您可喜欢呀。</t>
-  </si>
-  <si>
-    <t>真是漂亮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇后娘娘，臣妾托人打造了一个宝石盆景。您看喜不喜欢。</t>
-  </si>
-  <si>
-    <t>皇后娘娘，臣妾准备一块暖玉，非常适合娘娘体质。</t>
-  </si>
-  <si>
-    <t>纯妃有心了，本宫很喜欢。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臣妾准备了一双玉如意，恭祝娘娘福泽绵长 万事如意。</t>
-  </si>
-  <si>
-    <t>Image/Head/2;Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/1;Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/1;Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/4;Image/Head/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/1;Image/Head/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不要啊！皇上！臣女知错了！对了，是那贱婢害了臣女！往鞋底涂抹香粉的主意不是我……呜！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>我就是你的白月光。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我会守护你的一生。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年久失修的义庄内。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姐姐，你我怎么会在这种地方见面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他们都说你没资格葬入祖坟，我不信他们的话，姐，我要你亲口告诉我真相……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>璎珞，住手。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>璎珞轰的砍了下去。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你，你在干什么啊？这可是你姐姐的棺材啊……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有人说姐姐是病死的，也有的说她是在宫里做了丑事，没脸见人才自尽身亡的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看看她脖子上的手印，告诉我，一个人，该怎么把自己给掐死？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不要再追究了，快跟我回家。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不……我要进宫。查明真凶，为我姐姐报仇。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旁白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏清泰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏璎珞</t>
-  </si>
-  <si>
-    <t>魏璎珞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朕早已明令，禁止汉军旗秀女缠足，如今乌雅氏也学此等奢靡颓废风气，这样的女子进了宫，一定会惹出是非，驱逐出宫，以儆效尤！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>(强压怒火)高贵妃一番美意，这份厚礼，本宫收下了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(微笑点头)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉祥看着远处预备殿选的秀女。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要是能穿上这么漂亮的衣服就好了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少做白日梦了！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被锦绣一撞吉祥拎的水桶弄脏了乌雅秀女的裙子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对不起，对不起，我现在就帮你擦干净……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混账奴才！你现在弄脏了，要我穿什么去见皇上！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奴才给您擦，奴才马上就给您擦干净……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>既然弄脏了我的衣裳，就用你这只手来赔吧!(言罢，一只脚便重重碾在吉祥的手背上)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好疼啊，饶命啊，救救我!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌雅小主。请高抬贵脚。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你一个小小宫女，也妄想请我容情？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小主匠心独运，特意将鞋底雕刻成莲花形状，可惜还少了一样东西，奴才斗胆，愿为小主分忧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何分忧？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请乌雅小主抬足。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(魏璎珞双手捧着乌雅青黛的绣鞋，然后以香囊沾粉，均匀的将香粉涂抹在乌雅青黛的鞋底，神情专注)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日璎珞雕虫小技，用玫瑰花粉嵌入鞋底，祝愿小主心愿得偿、步步高升！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就冲你这哈巴狗的样，我饶她一命！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉祥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锦绣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌雅青黛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌雅青黛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像位置 1左 2右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>珍珠你好，我是新来的魏璎珞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玛瑙，我来帮你一起打扫吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翡翠，有需要我帮忙的吗。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>琥珀，还有哪里需要我做的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真不知道皇后娘娘看中你什么，一个小小绣女也能来长春宫。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明玉姐姐说的是。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我终于到了长春宫，为姐姐报仇，查找真正凶手。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好了璎珞，这收拾的挺干净的，回去休息吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢谢尔晴姐姐。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我看这丫头挺机灵的，全当来给我逗个闷儿。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尔晴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1050,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1125,7 +1134,7 @@
     </row>
     <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>20</v>
@@ -1134,7 +1143,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>30</v>
@@ -1166,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1177,19 +1186,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="F6" s="10">
         <v>2</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1212,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1223,19 +1232,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="F8" s="10">
         <v>2</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1258,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1269,19 +1278,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F10" s="7">
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1292,19 +1301,19 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1315,19 +1324,19 @@
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F12" s="7">
         <v>1</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1338,10 +1347,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>37</v>
@@ -1350,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1361,19 +1370,19 @@
         <v>5</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="F14" s="7">
         <v>2</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1396,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1407,19 +1416,19 @@
         <v>6</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F16" s="7">
         <v>2</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1430,10 +1439,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>37</v>
@@ -1442,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1453,19 +1462,19 @@
         <v>6</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F18" s="7">
         <v>2</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1476,19 +1485,19 @@
         <v>6</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F19" s="7">
         <v>2</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1499,10 +1508,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>37</v>
@@ -1511,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1522,19 +1531,19 @@
         <v>6</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F21" s="7">
         <v>2</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1545,19 +1554,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D22" s="10">
         <v>2</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F22" s="7">
         <v>2</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1568,19 +1577,19 @@
         <v>7</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F23" s="7">
         <v>1</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1591,19 +1600,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D24" s="9">
         <v>2</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F24" s="7">
         <v>2</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1614,19 +1623,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F25" s="7">
         <v>1</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1637,19 +1646,19 @@
         <v>9</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D26" s="9">
         <v>2</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F26" s="7">
         <v>2</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1660,19 +1669,19 @@
         <v>9</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F27" s="7">
         <v>1</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1683,19 +1692,19 @@
         <v>10</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D28" s="9">
         <v>2</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="7">
+        <v>2</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F28" s="7">
-        <v>2</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1706,19 +1715,19 @@
         <v>10</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F29" s="7">
         <v>1</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1729,19 +1738,19 @@
         <v>11</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D30" s="9">
         <v>2</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F30" s="7">
         <v>2</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1752,19 +1761,19 @@
         <v>11</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F31" s="7">
         <v>1</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1775,19 +1784,19 @@
         <v>12</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D32" s="9">
         <v>2</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F32" s="7">
         <v>2</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1798,19 +1807,19 @@
         <v>12</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1821,19 +1830,19 @@
         <v>12</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D34" s="9">
         <v>2</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F34" s="7">
         <v>2</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1844,19 +1853,19 @@
         <v>12</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F35" s="7">
         <v>1</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1867,19 +1876,19 @@
         <v>13</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D36" s="9">
         <v>1</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F36" s="7">
         <v>1</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1890,19 +1899,19 @@
         <v>14</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D37" s="9">
         <v>1</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F37" s="7">
         <v>1</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1913,19 +1922,19 @@
         <v>15</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D38" s="9">
         <v>2</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F38" s="7">
         <v>2</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1936,19 +1945,19 @@
         <v>15</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D39" s="9">
         <v>1</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F39" s="7">
         <v>1</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1959,19 +1968,19 @@
         <v>15</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D40" s="9">
         <v>1</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F40" s="7">
         <v>1</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -1982,19 +1991,19 @@
         <v>16</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D41" s="9">
         <v>1</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F41" s="7">
         <v>1</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2005,19 +2014,19 @@
         <v>16</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F42" s="7">
         <v>2</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2028,19 +2037,19 @@
         <v>16</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D43" s="10">
         <v>1</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F43" s="7">
         <v>1</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2051,19 +2060,19 @@
         <v>17</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D44" s="10">
         <v>1</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F44" s="7">
         <v>1</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2074,19 +2083,19 @@
         <v>17</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D45" s="10">
         <v>1</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F45" s="7">
         <v>1</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2097,19 +2106,19 @@
         <v>18</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D46" s="10">
         <v>2</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F46" s="7">
         <v>2</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2120,19 +2129,19 @@
         <v>18</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F47" s="7">
         <v>1</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2143,19 +2152,19 @@
         <v>19</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D48" s="10">
         <v>1</v>
       </c>
       <c r="E48" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="9">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="F48" s="9">
-        <v>1</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2166,19 +2175,19 @@
         <v>19</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F49" s="9">
         <v>2</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2189,19 +2198,19 @@
         <v>20</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D50" s="9">
         <v>1</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F50" s="9">
         <v>1</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2212,19 +2221,19 @@
         <v>20</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F51" s="9">
         <v>2</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2235,19 +2244,19 @@
         <v>20</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D52" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F52" s="9">
+        <v>1</v>
+      </c>
+      <c r="G52" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F52" s="9">
-        <v>1</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2258,19 +2267,19 @@
         <v>21</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D53" s="10">
         <v>1</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F53" s="9">
         <v>1</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2281,19 +2290,19 @@
         <v>21</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F54" s="9">
         <v>2</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2304,19 +2313,19 @@
         <v>21</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F55" s="9">
         <v>1</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2327,19 +2336,19 @@
         <v>21</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F56" s="9">
         <v>2</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2350,19 +2359,19 @@
         <v>22</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D57" s="9">
         <v>1</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F57" s="9">
         <v>1</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2373,19 +2382,19 @@
         <v>22</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F58" s="9">
         <v>2</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2396,19 +2405,19 @@
         <v>22</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F59" s="9">
         <v>1</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2419,19 +2428,19 @@
         <v>23</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D60" s="9">
         <v>2</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F60" s="9">
         <v>2</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2442,19 +2451,19 @@
         <v>23</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F61" s="9">
         <v>1</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2465,19 +2474,19 @@
         <v>23</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F62" s="9">
         <v>2</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2488,19 +2497,19 @@
         <v>24</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D63" s="9">
         <v>1</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F63" s="9">
         <v>1</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2511,19 +2520,19 @@
         <v>24</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F64" s="9">
         <v>2</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2534,19 +2543,19 @@
         <v>25</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F65" s="9">
         <v>1</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2557,19 +2566,19 @@
         <v>26</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F66" s="9">
         <v>1</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2580,19 +2589,19 @@
         <v>27</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D67" s="9">
         <v>1</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F67" s="9">
         <v>1</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2603,19 +2612,19 @@
         <v>28</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D68" s="9">
         <v>1</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F68" s="9">
         <v>1</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2626,19 +2635,19 @@
         <v>29</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D69" s="9">
         <v>2</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F69" s="9">
         <v>2</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2649,19 +2658,19 @@
         <v>29</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F70" s="9">
         <v>1</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2672,19 +2681,19 @@
         <v>30</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D71" s="9">
         <v>1</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F71" s="9">
         <v>1</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2695,19 +2704,19 @@
         <v>31</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D72" s="9">
         <v>2</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F72" s="9">
         <v>2</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2718,19 +2727,19 @@
         <v>31</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F73" s="9">
         <v>1</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
@@ -2741,19 +2750,19 @@
         <v>32</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D74" s="9">
         <v>1</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F74" s="9">
         <v>1</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="156">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -209,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>皇上，秀女想要拔个头筹，也没有什么不对，您若是不喜欢，赐花就是了，这样驱逐出宫，她以后有何颜面见人。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>来人，叉出去。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -394,10 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>朕早已明令，禁止汉军旗秀女缠足，如今乌雅氏也学此等奢靡颓废风气，这样的女子进了宫，一定会惹出是非，驱逐出宫，以儆效尤！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>(强压怒火)高贵妃一番美意，这份厚礼，本宫收下了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -590,15 +582,35 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>你这脚上是怎么回事？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回皇上，臣女这叫步步生莲。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>朕早已明令，禁止汉军旗秀女缠足，如今乌雅氏也学此等奢靡颓废风气，驱逐出宫，以儆效尤！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上，您若是不喜欢，赐花就是了，这样驱逐出宫，她以后有何颜面见人。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯，还行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>留牌子。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>你这脚上是怎么回事？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>回皇上，臣女这叫步步生莲。</t>
+    <t>留牌子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李玉</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +618,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -638,6 +650,17 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -680,7 +703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,9 +713,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -702,20 +722,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1057,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G312"/>
+  <dimension ref="A1:G314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="A5" sqref="A5:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1071,1709 +1098,1751 @@
     <col min="4" max="4" width="14.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="89.296875" customWidth="1"/>
+    <col min="7" max="7" width="70.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="13">
+        <v>2</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7">
+        <v>3</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7">
+        <v>4</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7">
+        <v>5</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7">
+        <v>5</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>6</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7">
+        <v>6</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7">
+        <v>6</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>16</v>
+      </c>
+      <c r="B20" s="7">
+        <v>6</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>17</v>
+      </c>
+      <c r="B21" s="7">
+        <v>6</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>18</v>
+      </c>
+      <c r="B22" s="7">
+        <v>6</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>19</v>
+      </c>
+      <c r="B23" s="7">
+        <v>6</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5">
+        <v>7</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="13">
+        <v>2</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>21</v>
+      </c>
+      <c r="B25" s="5">
+        <v>7</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5">
+        <v>8</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="12">
+        <v>2</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="6">
+        <v>2</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
+        <v>23</v>
+      </c>
+      <c r="B27" s="5">
+        <v>8</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
+        <v>24</v>
+      </c>
+      <c r="B28" s="5">
+        <v>9</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="12">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="6">
+        <v>2</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5">
+        <v>9</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>26</v>
+      </c>
+      <c r="B30" s="5">
+        <v>10</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="12">
+        <v>2</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <v>27</v>
+      </c>
+      <c r="B31" s="5">
+        <v>10</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
+        <v>28</v>
+      </c>
+      <c r="B32" s="5">
+        <v>11</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="12">
+        <v>2</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="6">
+        <v>2</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="13">
+        <v>29</v>
+      </c>
+      <c r="B33" s="5">
+        <v>11</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="13">
+        <v>30</v>
+      </c>
+      <c r="B34" s="5">
+        <v>12</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="12">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="6">
+        <v>2</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="13">
+        <v>31</v>
+      </c>
+      <c r="B35" s="5">
+        <v>12</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="13">
+        <v>32</v>
+      </c>
+      <c r="B36" s="5">
+        <v>12</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="12">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="6">
+        <v>2</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
+        <v>33</v>
+      </c>
+      <c r="B37" s="5">
+        <v>12</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="13">
+        <v>34</v>
+      </c>
+      <c r="B38" s="5">
+        <v>13</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="12">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="13">
+        <v>35</v>
+      </c>
+      <c r="B39" s="5">
+        <v>14</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="12">
+        <v>1</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="13">
+        <v>36</v>
+      </c>
+      <c r="B40" s="5">
+        <v>15</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="12">
+        <v>2</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="6">
+        <v>2</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="13">
+        <v>37</v>
+      </c>
+      <c r="B41" s="5">
+        <v>15</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="12">
+        <v>1</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="13">
+        <v>38</v>
+      </c>
+      <c r="B42" s="5">
+        <v>15</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="12">
+        <v>1</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="13">
+        <v>39</v>
+      </c>
+      <c r="B43" s="5">
+        <v>16</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="13">
+        <v>40</v>
+      </c>
+      <c r="B44" s="5">
+        <v>16</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="6">
+        <v>2</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="13">
+        <v>41</v>
+      </c>
+      <c r="B45" s="5">
+        <v>16</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="13">
+        <v>1</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="13">
+        <v>42</v>
+      </c>
+      <c r="B46" s="5">
+        <v>17</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="13">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="13">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5">
+        <v>17</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="13">
+        <v>1</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="13">
+        <v>44</v>
+      </c>
+      <c r="B48" s="5">
+        <v>18</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="13">
+        <v>2</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="6">
+        <v>2</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="13">
+        <v>45</v>
+      </c>
+      <c r="B49" s="5">
+        <v>18</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="13">
+        <v>46</v>
+      </c>
+      <c r="B50" s="15">
+        <v>19</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="13">
+        <v>1</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" s="12">
+        <v>1</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="13">
+        <v>47</v>
+      </c>
+      <c r="B51" s="15">
+        <v>19</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F51" s="12">
+        <v>2</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="13">
+        <v>48</v>
+      </c>
+      <c r="B52" s="15">
+        <v>20</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="12">
+        <v>1</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="12">
+        <v>1</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="13">
+        <v>49</v>
+      </c>
+      <c r="B53" s="15">
+        <v>20</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="12">
+        <v>2</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="13">
+        <v>50</v>
+      </c>
+      <c r="B54" s="15">
+        <v>20</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" s="12">
+        <v>1</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="13">
+        <v>51</v>
+      </c>
+      <c r="B55" s="15">
+        <v>21</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="13">
+        <v>1</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="12">
+        <v>1</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="13">
+        <v>52</v>
+      </c>
+      <c r="B56" s="15">
+        <v>21</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="12">
+        <v>2</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="13">
+        <v>53</v>
+      </c>
+      <c r="B57" s="15">
+        <v>21</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="12">
+        <v>1</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="13">
+        <v>54</v>
+      </c>
+      <c r="B58" s="15">
+        <v>21</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" s="12">
+        <v>2</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="13">
+        <v>55</v>
+      </c>
+      <c r="B59" s="15">
+        <v>22</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="12">
+        <v>1</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F59" s="12">
+        <v>1</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="13">
+        <v>56</v>
+      </c>
+      <c r="B60" s="15">
+        <v>22</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="12">
+        <v>2</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="13">
+        <v>57</v>
+      </c>
+      <c r="B61" s="15">
+        <v>22</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="12">
+        <v>1</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="13">
+        <v>58</v>
+      </c>
+      <c r="B62" s="15">
+        <v>23</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="12">
+        <v>2</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" s="12">
+        <v>2</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="13">
+        <v>59</v>
+      </c>
+      <c r="B63" s="15">
+        <v>23</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F63" s="12">
+        <v>1</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="13">
+        <v>60</v>
+      </c>
+      <c r="B64" s="15">
+        <v>23</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F64" s="12">
+        <v>2</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="13">
+        <v>61</v>
+      </c>
+      <c r="B65" s="15">
+        <v>24</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="12">
+        <v>1</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65" s="12">
+        <v>1</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="13">
+        <v>62</v>
+      </c>
+      <c r="B66" s="15">
+        <v>24</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" s="12">
+        <v>2</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="13">
+        <v>63</v>
+      </c>
+      <c r="B67" s="15">
+        <v>25</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="10">
+        <v>1</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" s="12">
+        <v>1</v>
+      </c>
+      <c r="G67" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="9" t="s">
+    </row>
+    <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="13">
+        <v>64</v>
+      </c>
+      <c r="B68" s="15">
+        <v>26</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="10">
+        <v>1</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F68" s="12">
+        <v>1</v>
+      </c>
+      <c r="G68" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="9" t="s">
+    </row>
+    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="13">
+        <v>65</v>
+      </c>
+      <c r="B69" s="15">
+        <v>27</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D69" s="12">
+        <v>1</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" s="12">
+        <v>1</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="13">
+        <v>66</v>
+      </c>
+      <c r="B70" s="15">
+        <v>28</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" s="12">
+        <v>1</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F70" s="12">
+        <v>1</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="13">
+        <v>67</v>
+      </c>
+      <c r="B71" s="15">
+        <v>29</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="12">
+        <v>2</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" s="12">
+        <v>2</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="13">
+        <v>68</v>
+      </c>
+      <c r="B72" s="15">
+        <v>29</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F72" s="12">
+        <v>1</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="13">
+        <v>69</v>
+      </c>
+      <c r="B73" s="15">
         <v>30</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="C73" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D73" s="12">
+        <v>1</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F73" s="12">
+        <v>1</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="13">
+        <v>70</v>
+      </c>
+      <c r="B74" s="15">
+        <v>31</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" s="12">
+        <v>2</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F74" s="12">
+        <v>2</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="13">
+        <v>71</v>
+      </c>
+      <c r="B75" s="15">
+        <v>31</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F75" s="12">
+        <v>1</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="13">
+        <v>72</v>
+      </c>
+      <c r="B76" s="15">
         <v>32</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="10">
-        <v>2</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6">
-        <v>2</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="10">
-        <v>2</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6">
-        <v>3</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8">
-        <v>3</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="7">
-        <v>2</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8">
-        <v>4</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8">
-        <v>5</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
-        <v>9</v>
-      </c>
-      <c r="B13" s="8">
-        <v>5</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="7">
-        <v>2</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
-        <v>10</v>
-      </c>
-      <c r="B14" s="8">
-        <v>5</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="7">
-        <v>2</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <v>11</v>
-      </c>
-      <c r="B15" s="8">
-        <v>6</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
-        <v>12</v>
-      </c>
-      <c r="B16" s="8">
-        <v>6</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" s="7">
-        <v>2</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
-        <v>13</v>
-      </c>
-      <c r="B17" s="8">
-        <v>6</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="7">
-        <v>1</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
-        <v>14</v>
-      </c>
-      <c r="B18" s="8">
-        <v>6</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="7">
-        <v>2</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
-        <v>15</v>
-      </c>
-      <c r="B19" s="8">
-        <v>6</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="7">
-        <v>2</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
-        <v>16</v>
-      </c>
-      <c r="B20" s="8">
-        <v>6</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="7">
-        <v>1</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
-        <v>17</v>
-      </c>
-      <c r="B21" s="8">
-        <v>6</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="7">
-        <v>2</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
-        <v>18</v>
-      </c>
-      <c r="B22" s="6">
-        <v>7</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="10">
-        <v>2</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="7">
-        <v>2</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
-        <v>19</v>
-      </c>
-      <c r="B23" s="6">
-        <v>7</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="7">
-        <v>1</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
-        <v>20</v>
-      </c>
-      <c r="B24" s="6">
-        <v>8</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="9">
-        <v>2</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="7">
-        <v>2</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
-        <v>21</v>
-      </c>
-      <c r="B25" s="6">
-        <v>8</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="7">
-        <v>1</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
-        <v>22</v>
-      </c>
-      <c r="B26" s="6">
-        <v>9</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="9">
-        <v>2</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="7">
-        <v>2</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
-        <v>23</v>
-      </c>
-      <c r="B27" s="6">
-        <v>9</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7">
-        <v>1</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
-        <v>24</v>
-      </c>
-      <c r="B28" s="6">
-        <v>10</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="9">
-        <v>2</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="7">
-        <v>2</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
-        <v>25</v>
-      </c>
-      <c r="B29" s="6">
-        <v>10</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="7">
-        <v>1</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
-        <v>26</v>
-      </c>
-      <c r="B30" s="6">
-        <v>11</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="9">
-        <v>2</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="C76" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="12">
+        <v>1</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="7">
-        <v>2</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
-        <v>27</v>
-      </c>
-      <c r="B31" s="6">
-        <v>11</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="7">
-        <v>1</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
-        <v>28</v>
-      </c>
-      <c r="B32" s="6">
-        <v>12</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="9">
-        <v>2</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="7">
-        <v>2</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
-        <v>29</v>
-      </c>
-      <c r="B33" s="6">
-        <v>12</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7">
-        <v>1</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="10">
-        <v>30</v>
-      </c>
-      <c r="B34" s="6">
-        <v>12</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="9">
-        <v>2</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="7">
-        <v>2</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
-        <v>31</v>
-      </c>
-      <c r="B35" s="6">
-        <v>12</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="7">
-        <v>1</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="10">
-        <v>32</v>
-      </c>
-      <c r="B36" s="6">
-        <v>13</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="9">
-        <v>1</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="7">
-        <v>1</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="10">
-        <v>33</v>
-      </c>
-      <c r="B37" s="6">
-        <v>14</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="9">
-        <v>1</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="7">
-        <v>1</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="10">
-        <v>34</v>
-      </c>
-      <c r="B38" s="6">
-        <v>15</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="9">
-        <v>2</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38" s="7">
-        <v>2</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="10">
-        <v>35</v>
-      </c>
-      <c r="B39" s="6">
-        <v>15</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="9">
-        <v>1</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F39" s="7">
-        <v>1</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="10">
-        <v>36</v>
-      </c>
-      <c r="B40" s="6">
-        <v>15</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="9">
-        <v>1</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="7">
-        <v>1</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="10">
-        <v>37</v>
-      </c>
-      <c r="B41" s="6">
-        <v>16</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="9">
-        <v>1</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F41" s="7">
-        <v>1</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="10">
-        <v>38</v>
-      </c>
-      <c r="B42" s="6">
-        <v>16</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F42" s="7">
-        <v>2</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="10">
-        <v>39</v>
-      </c>
-      <c r="B43" s="6">
-        <v>16</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="10">
-        <v>1</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F43" s="7">
-        <v>1</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="10">
-        <v>40</v>
-      </c>
-      <c r="B44" s="6">
-        <v>17</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="10">
-        <v>1</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" s="7">
-        <v>1</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="10">
-        <v>41</v>
-      </c>
-      <c r="B45" s="6">
-        <v>17</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="10">
-        <v>1</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45" s="7">
-        <v>1</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="10">
-        <v>42</v>
-      </c>
-      <c r="B46" s="6">
-        <v>18</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="10">
-        <v>2</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="7">
-        <v>2</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="10">
-        <v>43</v>
-      </c>
-      <c r="B47" s="6">
-        <v>18</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" s="7">
-        <v>1</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="10">
-        <v>44</v>
-      </c>
-      <c r="B48" s="11">
-        <v>19</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="10">
-        <v>1</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F48" s="9">
-        <v>1</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="10">
-        <v>45</v>
-      </c>
-      <c r="B49" s="11">
-        <v>19</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F49" s="9">
-        <v>2</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="10">
-        <v>46</v>
-      </c>
-      <c r="B50" s="11">
-        <v>20</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="9">
-        <v>1</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F50" s="9">
-        <v>1</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="10">
-        <v>47</v>
-      </c>
-      <c r="B51" s="11">
-        <v>20</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F51" s="9">
-        <v>2</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="10">
-        <v>48</v>
-      </c>
-      <c r="B52" s="11">
-        <v>20</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F52" s="9">
-        <v>1</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="10">
-        <v>49</v>
-      </c>
-      <c r="B53" s="11">
-        <v>21</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="10">
-        <v>1</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F53" s="9">
-        <v>1</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="10">
-        <v>50</v>
-      </c>
-      <c r="B54" s="11">
-        <v>21</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F54" s="9">
-        <v>2</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="10">
-        <v>51</v>
-      </c>
-      <c r="B55" s="11">
-        <v>21</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F55" s="9">
-        <v>1</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="10">
-        <v>52</v>
-      </c>
-      <c r="B56" s="11">
-        <v>21</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F56" s="9">
-        <v>2</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="10">
-        <v>53</v>
-      </c>
-      <c r="B57" s="11">
-        <v>22</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="9">
-        <v>1</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F57" s="9">
-        <v>1</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="10">
-        <v>54</v>
-      </c>
-      <c r="B58" s="11">
-        <v>22</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F58" s="9">
-        <v>2</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="10">
-        <v>55</v>
-      </c>
-      <c r="B59" s="11">
-        <v>22</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F59" s="9">
-        <v>1</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="10">
-        <v>56</v>
-      </c>
-      <c r="B60" s="11">
-        <v>23</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" s="9">
-        <v>2</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F60" s="9">
-        <v>2</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="10">
-        <v>57</v>
-      </c>
-      <c r="B61" s="11">
-        <v>23</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F61" s="9">
-        <v>1</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="10">
-        <v>58</v>
-      </c>
-      <c r="B62" s="11">
-        <v>23</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F62" s="9">
-        <v>2</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="10">
-        <v>59</v>
-      </c>
-      <c r="B63" s="11">
-        <v>24</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" s="9">
-        <v>1</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F63" s="9">
-        <v>1</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="10">
-        <v>60</v>
-      </c>
-      <c r="B64" s="11">
-        <v>24</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F64" s="9">
-        <v>2</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="10">
-        <v>61</v>
-      </c>
-      <c r="B65" s="11">
-        <v>25</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F65" s="9">
-        <v>1</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="10">
-        <v>62</v>
-      </c>
-      <c r="B66" s="11">
-        <v>26</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F66" s="9">
-        <v>1</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="10">
-        <v>63</v>
-      </c>
-      <c r="B67" s="11">
-        <v>27</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D67" s="9">
-        <v>1</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F67" s="9">
-        <v>1</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="10">
-        <v>64</v>
-      </c>
-      <c r="B68" s="11">
-        <v>28</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D68" s="9">
-        <v>1</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F68" s="9">
-        <v>1</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="10">
-        <v>65</v>
-      </c>
-      <c r="B69" s="11">
-        <v>29</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D69" s="9">
-        <v>2</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F69" s="9">
-        <v>2</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="10">
-        <v>66</v>
-      </c>
-      <c r="B70" s="11">
-        <v>29</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F70" s="9">
-        <v>1</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="10">
-        <v>67</v>
-      </c>
-      <c r="B71" s="11">
-        <v>30</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D71" s="9">
-        <v>1</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F71" s="9">
-        <v>1</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="10">
-        <v>68</v>
-      </c>
-      <c r="B72" s="11">
-        <v>31</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D72" s="9">
-        <v>2</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F72" s="9">
-        <v>2</v>
-      </c>
-      <c r="G72" s="13" t="s">
+      <c r="F76" s="12">
+        <v>1</v>
+      </c>
+      <c r="G76" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="10">
-        <v>69</v>
-      </c>
-      <c r="B73" s="11">
-        <v>31</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F73" s="9">
-        <v>1</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="10">
-        <v>70</v>
-      </c>
-      <c r="B74" s="11">
-        <v>32</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D74" s="9">
-        <v>1</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F74" s="9">
-        <v>1</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="10"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76"/>
-      <c r="B76"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77"/>
+    <row r="77" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="8"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78"/>
@@ -3597,6 +3666,13 @@
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312"/>
       <c r="B312"/>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313"/>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314"/>
+      <c r="B314"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="157">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -612,6 +612,10 @@
   <si>
     <t>李玉</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1086,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A76"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="B34:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1392,7 +1396,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -1908,8 +1912,8 @@
       <c r="C36" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="12">
-        <v>2</v>
+      <c r="D36" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>96</v>
@@ -2093,7 +2097,7 @@
         <v>77</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>94</v>

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="173">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -615,6 +615,70 @@
   </si>
   <si>
     <t>1;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴总管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫女甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏璎珞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总管，我错了，再也不敢了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张嬷嬷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这牡丹生动逼真，形神具备，好，好，好！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心思巧，针法也好，这届的宫女，可真是人才辈出！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总管，魏璎珞代人作弊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我，我……都是因为我。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁说我作弊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这本就是一副绣品，名为—牡丹锦鸡图。因为耗时太长，故由我与吉祥合作完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫里面可没有这样的先例，吴总管……您看？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫里得用之人，就得少说话，多办事。还有……主子最讨厌搬弄是非的蠢东西。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉下去，除名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,12 +717,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -667,6 +725,12 @@
       <sz val="11"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -726,27 +790,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1088,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G314"/>
+  <dimension ref="A1:G315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="B34:D37"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G77" sqref="B77:G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1106,215 +1170,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="13">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>2</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="13">
-        <v>2</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="12">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>3</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="13">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>4</v>
       </c>
       <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="13">
-        <v>2</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="12">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>5</v>
       </c>
       <c r="B9" s="5">
         <v>3</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="13">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>6</v>
       </c>
       <c r="B10" s="7">
         <v>3</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -1323,12 +1387,12 @@
       <c r="F10" s="6">
         <v>2</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>7</v>
       </c>
       <c r="B11" s="7">
@@ -1337,7 +1401,7 @@
       <c r="C11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -1346,44 +1410,44 @@
       <c r="F11" s="6">
         <v>2</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>8</v>
       </c>
       <c r="B12" s="7">
         <v>4</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="6">
         <v>1</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>9</v>
       </c>
       <c r="B13" s="7">
         <v>4</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -1392,12 +1456,12 @@
       <c r="F13" s="6">
         <v>2</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>10</v>
       </c>
       <c r="B14" s="7">
@@ -1406,7 +1470,7 @@
       <c r="C14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -1415,90 +1479,90 @@
       <c r="F14" s="6">
         <v>1</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>11</v>
       </c>
       <c r="B15" s="7">
         <v>5</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="6">
         <v>2</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>12</v>
       </c>
       <c r="B16" s="7">
         <v>5</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="6">
         <v>2</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>13</v>
       </c>
       <c r="B17" s="7">
         <v>6</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="13">
-        <v>1</v>
-      </c>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="6">
         <v>1</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>14</v>
       </c>
       <c r="B18" s="7">
         <v>6</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -1507,44 +1571,44 @@
       <c r="F18" s="6">
         <v>2</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>15</v>
       </c>
       <c r="B19" s="7">
         <v>6</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>37</v>
       </c>
       <c r="F19" s="6">
         <v>1</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>16</v>
       </c>
       <c r="B20" s="7">
         <v>6</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -1553,21 +1617,21 @@
       <c r="F20" s="6">
         <v>2</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="8" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>17</v>
       </c>
       <c r="B21" s="7">
         <v>6</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -1576,44 +1640,44 @@
       <c r="F21" s="6">
         <v>2</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>18</v>
       </c>
       <c r="B22" s="7">
         <v>6</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>37</v>
       </c>
       <c r="F22" s="6">
         <v>1</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>19</v>
       </c>
       <c r="B23" s="7">
         <v>6</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -1622,21 +1686,21 @@
       <c r="F23" s="6">
         <v>2</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>20</v>
       </c>
       <c r="B24" s="5">
         <v>7</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="12">
         <v>2</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -1650,16 +1714,16 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
+      <c r="A25" s="12">
         <v>21</v>
       </c>
       <c r="B25" s="5">
         <v>7</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -1673,16 +1737,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>22</v>
       </c>
       <c r="B26" s="5">
         <v>8</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <v>2</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -1696,16 +1760,16 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="A27" s="12">
         <v>23</v>
       </c>
       <c r="B27" s="5">
         <v>8</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -1719,16 +1783,16 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
+      <c r="A28" s="12">
         <v>24</v>
       </c>
       <c r="B28" s="5">
         <v>9</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <v>2</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -1742,16 +1806,16 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
+      <c r="A29" s="12">
         <v>25</v>
       </c>
       <c r="B29" s="5">
         <v>9</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E29" s="6" t="s">
@@ -1765,16 +1829,16 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
+      <c r="A30" s="12">
         <v>26</v>
       </c>
       <c r="B30" s="5">
         <v>10</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="11">
         <v>2</v>
       </c>
       <c r="E30" s="6" t="s">
@@ -1788,16 +1852,16 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
+      <c r="A31" s="12">
         <v>27</v>
       </c>
       <c r="B31" s="5">
         <v>10</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="6" t="s">
@@ -1811,16 +1875,16 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <v>28</v>
       </c>
       <c r="B32" s="5">
         <v>11</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="11">
         <v>2</v>
       </c>
       <c r="E32" s="6" t="s">
@@ -1834,16 +1898,16 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
+      <c r="A33" s="12">
         <v>29</v>
       </c>
       <c r="B33" s="5">
         <v>11</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E33" s="6" t="s">
@@ -1857,16 +1921,16 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
+      <c r="A34" s="12">
         <v>30</v>
       </c>
       <c r="B34" s="5">
         <v>12</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="11">
         <v>2</v>
       </c>
       <c r="E34" s="6" t="s">
@@ -1880,16 +1944,16 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
+      <c r="A35" s="12">
         <v>31</v>
       </c>
       <c r="B35" s="5">
         <v>12</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="6" t="s">
@@ -1903,16 +1967,16 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="13">
+      <c r="A36" s="12">
         <v>32</v>
       </c>
       <c r="B36" s="5">
         <v>12</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E36" s="6" t="s">
@@ -1926,16 +1990,16 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="13">
+      <c r="A37" s="12">
         <v>33</v>
       </c>
       <c r="B37" s="5">
         <v>12</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>98</v>
       </c>
       <c r="E37" s="6" t="s">
@@ -1949,1734 +2013,1933 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="13">
+      <c r="A38" s="12">
         <v>34</v>
       </c>
       <c r="B38" s="5">
         <v>13</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="12">
-        <v>1</v>
-      </c>
-      <c r="E38" s="12" t="s">
+      <c r="D38" s="11">
+        <v>1</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F38" s="6">
         <v>1</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
+      <c r="A39" s="12">
         <v>35</v>
       </c>
       <c r="B39" s="5">
         <v>14</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="12">
-        <v>1</v>
-      </c>
-      <c r="E39" s="12" t="s">
+      <c r="D39" s="11">
+        <v>1</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>54</v>
       </c>
       <c r="F39" s="6">
         <v>1</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="13">
+      <c r="A40" s="12">
         <v>36</v>
       </c>
       <c r="B40" s="5">
         <v>15</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="12">
-        <v>2</v>
-      </c>
-      <c r="E40" s="12" t="s">
+      <c r="D40" s="11">
+        <v>2</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>94</v>
       </c>
       <c r="F40" s="6">
         <v>2</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
+      <c r="A41" s="12">
         <v>37</v>
       </c>
       <c r="B41" s="5">
         <v>15</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="12">
-        <v>1</v>
-      </c>
-      <c r="E41" s="12" t="s">
+      <c r="D41" s="11">
+        <v>1</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>97</v>
       </c>
       <c r="F41" s="6">
         <v>1</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="13">
+      <c r="A42" s="12">
         <v>38</v>
       </c>
       <c r="B42" s="5">
         <v>15</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="12">
-        <v>1</v>
-      </c>
-      <c r="E42" s="12" t="s">
+      <c r="D42" s="11">
+        <v>1</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>97</v>
       </c>
       <c r="F42" s="6">
         <v>1</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="13">
+      <c r="A43" s="12">
         <v>39</v>
       </c>
       <c r="B43" s="5">
         <v>16</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="12">
-        <v>1</v>
-      </c>
-      <c r="E43" s="12" t="s">
+      <c r="D43" s="11">
+        <v>1</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>95</v>
       </c>
       <c r="F43" s="6">
         <v>1</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="13">
+      <c r="A44" s="12">
         <v>40</v>
       </c>
       <c r="B44" s="5">
         <v>16</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="11" t="s">
         <v>94</v>
       </c>
       <c r="F44" s="6">
         <v>2</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="13">
+      <c r="A45" s="12">
         <v>41</v>
       </c>
       <c r="B45" s="5">
         <v>16</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="13">
-        <v>1</v>
-      </c>
-      <c r="E45" s="12" t="s">
+      <c r="D45" s="12">
+        <v>1</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>95</v>
       </c>
       <c r="F45" s="6">
         <v>1</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="13" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="13">
+      <c r="A46" s="12">
         <v>42</v>
       </c>
       <c r="B46" s="5">
         <v>17</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="13">
-        <v>1</v>
-      </c>
-      <c r="E46" s="12" t="s">
+      <c r="D46" s="12">
+        <v>1</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>97</v>
       </c>
       <c r="F46" s="6">
         <v>1</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="13">
+      <c r="A47" s="12">
         <v>43</v>
       </c>
       <c r="B47" s="5">
         <v>17</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="13">
-        <v>1</v>
-      </c>
-      <c r="E47" s="12" t="s">
+      <c r="D47" s="12">
+        <v>1</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>97</v>
       </c>
       <c r="F47" s="6">
         <v>1</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="13">
+      <c r="A48" s="12">
         <v>44</v>
       </c>
       <c r="B48" s="5">
         <v>18</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="13">
-        <v>2</v>
-      </c>
-      <c r="E48" s="12" t="s">
+      <c r="D48" s="12">
+        <v>2</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>95</v>
       </c>
       <c r="F48" s="6">
         <v>2</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="13">
+      <c r="A49" s="12">
         <v>45</v>
       </c>
       <c r="B49" s="5">
         <v>18</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="11" t="s">
         <v>97</v>
       </c>
       <c r="F49" s="6">
         <v>1</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="13">
+      <c r="A50" s="12">
         <v>46</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="14">
         <v>19</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="13">
-        <v>1</v>
-      </c>
-      <c r="E50" s="12" t="s">
+      <c r="D50" s="12">
+        <v>1</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F50" s="12">
-        <v>1</v>
-      </c>
-      <c r="G50" s="12" t="s">
+      <c r="F50" s="11">
+        <v>1</v>
+      </c>
+      <c r="G50" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="13">
+      <c r="A51" s="12">
         <v>47</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="14">
         <v>19</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F51" s="12">
-        <v>2</v>
-      </c>
-      <c r="G51" s="12" t="s">
+      <c r="F51" s="11">
+        <v>2</v>
+      </c>
+      <c r="G51" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="13">
+      <c r="A52" s="12">
         <v>48</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="14">
         <v>20</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="12">
-        <v>1</v>
-      </c>
-      <c r="E52" s="12" t="s">
+      <c r="D52" s="11">
+        <v>1</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F52" s="12">
-        <v>1</v>
-      </c>
-      <c r="G52" s="12" t="s">
+      <c r="F52" s="11">
+        <v>1</v>
+      </c>
+      <c r="G52" s="11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="13">
+      <c r="A53" s="12">
         <v>49</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="14">
         <v>20</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F53" s="12">
-        <v>2</v>
-      </c>
-      <c r="G53" s="12" t="s">
+      <c r="F53" s="11">
+        <v>2</v>
+      </c>
+      <c r="G53" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="13">
+      <c r="A54" s="12">
         <v>50</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="14">
         <v>20</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F54" s="12">
-        <v>1</v>
-      </c>
-      <c r="G54" s="12" t="s">
+      <c r="F54" s="11">
+        <v>1</v>
+      </c>
+      <c r="G54" s="11" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="13">
+      <c r="A55" s="12">
         <v>51</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="14">
         <v>21</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="13">
-        <v>1</v>
-      </c>
-      <c r="E55" s="12" t="s">
+      <c r="D55" s="12">
+        <v>1</v>
+      </c>
+      <c r="E55" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F55" s="12">
-        <v>1</v>
-      </c>
-      <c r="G55" s="12" t="s">
+      <c r="F55" s="11">
+        <v>1</v>
+      </c>
+      <c r="G55" s="11" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="13">
+      <c r="A56" s="12">
         <v>52</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="14">
         <v>21</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F56" s="12">
-        <v>2</v>
-      </c>
-      <c r="G56" s="12" t="s">
+      <c r="F56" s="11">
+        <v>2</v>
+      </c>
+      <c r="G56" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="13">
+      <c r="A57" s="12">
         <v>53</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="14">
         <v>21</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F57" s="12">
-        <v>1</v>
-      </c>
-      <c r="G57" s="12" t="s">
+      <c r="F57" s="11">
+        <v>1</v>
+      </c>
+      <c r="G57" s="11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="13">
+      <c r="A58" s="12">
         <v>54</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="14">
         <v>21</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F58" s="12">
-        <v>2</v>
-      </c>
-      <c r="G58" s="12" t="s">
+      <c r="F58" s="11">
+        <v>2</v>
+      </c>
+      <c r="G58" s="11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="13">
+      <c r="A59" s="12">
         <v>55</v>
       </c>
-      <c r="B59" s="15">
+      <c r="B59" s="14">
         <v>22</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="12">
-        <v>1</v>
-      </c>
-      <c r="E59" s="12" t="s">
+      <c r="D59" s="11">
+        <v>1</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F59" s="12">
-        <v>1</v>
-      </c>
-      <c r="G59" s="12" t="s">
+      <c r="F59" s="11">
+        <v>1</v>
+      </c>
+      <c r="G59" s="11" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="13">
+      <c r="A60" s="12">
         <v>56</v>
       </c>
-      <c r="B60" s="15">
+      <c r="B60" s="14">
         <v>22</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F60" s="12">
-        <v>2</v>
-      </c>
-      <c r="G60" s="12" t="s">
+      <c r="F60" s="11">
+        <v>2</v>
+      </c>
+      <c r="G60" s="11" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="13">
+      <c r="A61" s="12">
         <v>57</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="14">
         <v>22</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F61" s="12">
-        <v>1</v>
-      </c>
-      <c r="G61" s="12" t="s">
+      <c r="F61" s="11">
+        <v>1</v>
+      </c>
+      <c r="G61" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="13">
+      <c r="A62" s="12">
         <v>58</v>
       </c>
-      <c r="B62" s="15">
+      <c r="B62" s="14">
         <v>23</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="12">
-        <v>2</v>
-      </c>
-      <c r="E62" s="12" t="s">
+      <c r="D62" s="11">
+        <v>2</v>
+      </c>
+      <c r="E62" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F62" s="12">
-        <v>2</v>
-      </c>
-      <c r="G62" s="12" t="s">
+      <c r="F62" s="11">
+        <v>2</v>
+      </c>
+      <c r="G62" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="13">
+      <c r="A63" s="12">
         <v>59</v>
       </c>
-      <c r="B63" s="15">
+      <c r="B63" s="14">
         <v>23</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F63" s="12">
-        <v>1</v>
-      </c>
-      <c r="G63" s="12" t="s">
+      <c r="F63" s="11">
+        <v>1</v>
+      </c>
+      <c r="G63" s="11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="13">
+      <c r="A64" s="12">
         <v>60</v>
       </c>
-      <c r="B64" s="15">
+      <c r="B64" s="14">
         <v>23</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F64" s="12">
-        <v>2</v>
-      </c>
-      <c r="G64" s="12" t="s">
+      <c r="F64" s="11">
+        <v>2</v>
+      </c>
+      <c r="G64" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="13">
+      <c r="A65" s="12">
         <v>61</v>
       </c>
-      <c r="B65" s="15">
+      <c r="B65" s="14">
         <v>24</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" s="12">
-        <v>1</v>
-      </c>
-      <c r="E65" s="12" t="s">
+      <c r="C65" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" s="11">
+        <v>1</v>
+      </c>
+      <c r="E65" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F65" s="12">
-        <v>1</v>
-      </c>
-      <c r="G65" s="12" t="s">
+      <c r="F65" s="11">
+        <v>1</v>
+      </c>
+      <c r="G65" s="11" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="13">
+      <c r="A66" s="12">
         <v>62</v>
       </c>
-      <c r="B66" s="15">
+      <c r="B66" s="14">
         <v>24</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F66" s="12">
-        <v>2</v>
-      </c>
-      <c r="G66" s="12" t="s">
+      <c r="F66" s="11">
+        <v>2</v>
+      </c>
+      <c r="G66" s="11" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="13">
+      <c r="A67" s="12">
         <v>63</v>
       </c>
-      <c r="B67" s="15">
+      <c r="B67" s="14">
         <v>25</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D67" s="10">
-        <v>1</v>
-      </c>
-      <c r="E67" s="12" t="s">
+      <c r="D67" s="9">
+        <v>1</v>
+      </c>
+      <c r="E67" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F67" s="12">
-        <v>1</v>
-      </c>
-      <c r="G67" s="14" t="s">
+      <c r="F67" s="11">
+        <v>1</v>
+      </c>
+      <c r="G67" s="13" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="13">
+      <c r="A68" s="12">
         <v>64</v>
       </c>
-      <c r="B68" s="15">
+      <c r="B68" s="14">
         <v>26</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D68" s="10">
-        <v>1</v>
-      </c>
-      <c r="E68" s="12" t="s">
+      <c r="D68" s="9">
+        <v>1</v>
+      </c>
+      <c r="E68" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F68" s="12">
-        <v>1</v>
-      </c>
-      <c r="G68" s="14" t="s">
+      <c r="F68" s="11">
+        <v>1</v>
+      </c>
+      <c r="G68" s="13" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="13">
+      <c r="A69" s="12">
         <v>65</v>
       </c>
-      <c r="B69" s="15">
+      <c r="B69" s="14">
         <v>27</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D69" s="12">
-        <v>1</v>
-      </c>
-      <c r="E69" s="12" t="s">
+      <c r="D69" s="11">
+        <v>1</v>
+      </c>
+      <c r="E69" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F69" s="12">
-        <v>1</v>
-      </c>
-      <c r="G69" s="14" t="s">
+      <c r="F69" s="11">
+        <v>1</v>
+      </c>
+      <c r="G69" s="13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="13">
+      <c r="A70" s="12">
         <v>66</v>
       </c>
-      <c r="B70" s="15">
+      <c r="B70" s="14">
         <v>28</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D70" s="12">
-        <v>1</v>
-      </c>
-      <c r="E70" s="12" t="s">
+      <c r="D70" s="11">
+        <v>1</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F70" s="12">
-        <v>1</v>
-      </c>
-      <c r="G70" s="14" t="s">
+      <c r="F70" s="11">
+        <v>1</v>
+      </c>
+      <c r="G70" s="13" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="13">
+      <c r="A71" s="12">
         <v>67</v>
       </c>
-      <c r="B71" s="15">
+      <c r="B71" s="14">
         <v>29</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D71" s="12">
-        <v>2</v>
-      </c>
-      <c r="E71" s="12" t="s">
+      <c r="D71" s="11">
+        <v>2</v>
+      </c>
+      <c r="E71" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F71" s="12">
-        <v>2</v>
-      </c>
-      <c r="G71" s="14" t="s">
+      <c r="F71" s="11">
+        <v>2</v>
+      </c>
+      <c r="G71" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="13">
+      <c r="A72" s="12">
         <v>68</v>
       </c>
-      <c r="B72" s="15">
+      <c r="B72" s="14">
         <v>29</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E72" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F72" s="12">
-        <v>1</v>
-      </c>
-      <c r="G72" s="14" t="s">
+      <c r="F72" s="11">
+        <v>1</v>
+      </c>
+      <c r="G72" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="13">
+      <c r="A73" s="12">
         <v>69</v>
       </c>
-      <c r="B73" s="15">
+      <c r="B73" s="14">
         <v>30</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D73" s="12">
-        <v>1</v>
-      </c>
-      <c r="E73" s="12" t="s">
+      <c r="D73" s="11">
+        <v>1</v>
+      </c>
+      <c r="E73" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F73" s="12">
-        <v>1</v>
-      </c>
-      <c r="G73" s="14" t="s">
+      <c r="F73" s="11">
+        <v>1</v>
+      </c>
+      <c r="G73" s="13" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="13">
+      <c r="A74" s="12">
         <v>70</v>
       </c>
-      <c r="B74" s="15">
+      <c r="B74" s="14">
         <v>31</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D74" s="12">
-        <v>2</v>
-      </c>
-      <c r="E74" s="12" t="s">
+      <c r="D74" s="11">
+        <v>2</v>
+      </c>
+      <c r="E74" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F74" s="12">
-        <v>2</v>
-      </c>
-      <c r="G74" s="14" t="s">
+      <c r="F74" s="11">
+        <v>2</v>
+      </c>
+      <c r="G74" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="13">
+      <c r="A75" s="12">
         <v>71</v>
       </c>
-      <c r="B75" s="15">
+      <c r="B75" s="14">
         <v>31</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E75" s="12" t="s">
+      <c r="E75" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F75" s="12">
-        <v>1</v>
-      </c>
-      <c r="G75" s="14" t="s">
+      <c r="F75" s="11">
+        <v>1</v>
+      </c>
+      <c r="G75" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="13">
+      <c r="A76" s="12">
         <v>72</v>
       </c>
-      <c r="B76" s="15">
+      <c r="B76" s="14">
         <v>32</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="11">
         <v>1</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F76" s="12">
-        <v>1</v>
-      </c>
-      <c r="G76" s="14" t="s">
+      <c r="F76" s="11">
+        <v>1</v>
+      </c>
+      <c r="G76" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78"/>
-      <c r="B78"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80"/>
-      <c r="B80"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82"/>
-      <c r="B82"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84"/>
-      <c r="B84"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86"/>
-      <c r="B86"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="12">
+        <v>73</v>
+      </c>
+      <c r="B77" s="14">
+        <v>33</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" s="11">
+        <v>1</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F77" s="11">
+        <v>1</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="12">
+        <v>74</v>
+      </c>
+      <c r="B78" s="14">
+        <v>34</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D78" s="11">
+        <v>1</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F78" s="11">
+        <v>1</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="12">
+        <v>75</v>
+      </c>
+      <c r="B79" s="14">
+        <v>35</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D79" s="11">
+        <v>1</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F79" s="11">
+        <v>1</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="12">
+        <v>76</v>
+      </c>
+      <c r="B80" s="14">
+        <v>35</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F80" s="11">
+        <v>2</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="12">
+        <v>77</v>
+      </c>
+      <c r="B81" s="14">
+        <v>36</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" s="11">
+        <v>1</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" s="11">
+        <v>1</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="12">
+        <v>78</v>
+      </c>
+      <c r="B82" s="14">
+        <v>36</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D82" s="11">
+        <v>1</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" s="11">
+        <v>1</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="12">
+        <v>79</v>
+      </c>
+      <c r="B83" s="14">
+        <v>37</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83" s="11">
+        <v>1</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" s="11">
+        <v>1</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="12">
+        <v>80</v>
+      </c>
+      <c r="B84" s="14">
+        <v>38</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" s="11">
+        <v>1</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F84" s="11">
+        <v>1</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="12">
+        <v>81</v>
+      </c>
+      <c r="B85" s="14">
+        <v>38</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D85" s="11">
+        <v>1</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F85" s="11">
+        <v>1</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="12">
+        <v>82</v>
+      </c>
+      <c r="B86" s="14">
+        <v>38</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F86" s="11">
+        <v>2</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B87"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88"/>
-      <c r="B88"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B89"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90"/>
-      <c r="B90"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B91"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92"/>
-      <c r="B92"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B93"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94"/>
-      <c r="B94"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B95"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96"/>
-      <c r="B96"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97"/>
+      <c r="B97"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98"/>
-      <c r="B98"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99"/>
+      <c r="B99"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100"/>
-      <c r="B100"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101"/>
+      <c r="B101"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102"/>
-      <c r="B102"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103"/>
+      <c r="B103"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104"/>
-      <c r="B104"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105"/>
+      <c r="B105"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106"/>
-      <c r="B106"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107"/>
+      <c r="B107"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108"/>
-      <c r="B108"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109"/>
+      <c r="B109"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110"/>
-      <c r="B110"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111"/>
+      <c r="B111"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112"/>
-      <c r="B112"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113"/>
+      <c r="B113"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114"/>
-      <c r="B114"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115"/>
+      <c r="B115"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116"/>
-      <c r="B116"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117"/>
+      <c r="B117"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118"/>
-      <c r="B118"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119"/>
+      <c r="B119"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120"/>
-      <c r="B120"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121"/>
+      <c r="B121"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122"/>
-      <c r="B122"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123"/>
+      <c r="B123"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124"/>
-      <c r="B124"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125"/>
+      <c r="B125"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126"/>
-      <c r="B126"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127"/>
+      <c r="B127"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128"/>
-      <c r="B128"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129"/>
+      <c r="B129"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130"/>
-      <c r="B130"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131"/>
+      <c r="B131"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132"/>
-      <c r="B132"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133"/>
+      <c r="B133"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134"/>
-      <c r="B134"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135"/>
+      <c r="B135"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136"/>
-      <c r="B136"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137"/>
+      <c r="B137"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138"/>
-      <c r="B138"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139"/>
+      <c r="B139"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140"/>
-      <c r="B140"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141"/>
+      <c r="B141"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142"/>
-      <c r="B142"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143"/>
+      <c r="B143"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144"/>
-      <c r="B144"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145"/>
+      <c r="B145"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146"/>
-      <c r="B146"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147"/>
+      <c r="B147"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148"/>
-      <c r="B148"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149"/>
+      <c r="B149"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150"/>
-      <c r="B150"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151"/>
+      <c r="B151"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152"/>
-      <c r="B152"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153"/>
+      <c r="B153"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154"/>
-      <c r="B154"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155"/>
+      <c r="B155"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156"/>
-      <c r="B156"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157"/>
+      <c r="B157"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158"/>
-      <c r="B158"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159"/>
+      <c r="B159"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160"/>
-      <c r="B160"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161"/>
+      <c r="B161"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162"/>
-      <c r="B162"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163"/>
+      <c r="B163"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164"/>
-      <c r="B164"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165"/>
+      <c r="B165"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166"/>
-      <c r="B166"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167"/>
+      <c r="B167"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168"/>
-      <c r="B168"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169"/>
+      <c r="B169"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170"/>
-      <c r="B170"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171"/>
+      <c r="B171"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172"/>
-      <c r="B172"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173"/>
+      <c r="B173"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174"/>
-      <c r="B174"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175"/>
+      <c r="B175"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176"/>
-      <c r="B176"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177"/>
+      <c r="B177"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178"/>
-      <c r="B178"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179"/>
+      <c r="B179"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180"/>
-      <c r="B180"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181"/>
+      <c r="B181"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182"/>
-      <c r="B182"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183"/>
+      <c r="B183"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184"/>
-      <c r="B184"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185"/>
+      <c r="B185"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186"/>
-      <c r="B186"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187"/>
+      <c r="B187"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188"/>
-      <c r="B188"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189"/>
+      <c r="B189"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190"/>
-      <c r="B190"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191"/>
+      <c r="B191"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192"/>
-      <c r="B192"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193"/>
+      <c r="B193"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194"/>
-      <c r="B194"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195"/>
+      <c r="B195"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196"/>
-      <c r="B196"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197"/>
+      <c r="B197"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198"/>
-      <c r="B198"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199"/>
+      <c r="B199"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200"/>
-      <c r="B200"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201"/>
+      <c r="B201"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202"/>
-      <c r="B202"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203"/>
+      <c r="B203"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204"/>
-      <c r="B204"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205"/>
+      <c r="B205"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206"/>
-      <c r="B206"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207"/>
+      <c r="B207"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208"/>
-      <c r="B208"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209"/>
+      <c r="B209"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210"/>
-      <c r="B210"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211"/>
+      <c r="B211"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212"/>
-      <c r="B212"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213"/>
+      <c r="B213"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214"/>
-      <c r="B214"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215"/>
+      <c r="B215"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216"/>
-      <c r="B216"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217"/>
+      <c r="B217"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218"/>
-      <c r="B218"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219"/>
+      <c r="B219"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220"/>
-      <c r="B220"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221"/>
+      <c r="B221"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222"/>
-      <c r="B222"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223"/>
+      <c r="B223"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224"/>
-      <c r="B224"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225"/>
+      <c r="B225"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226"/>
-      <c r="B226"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227"/>
+      <c r="B227"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228"/>
-      <c r="B228"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229"/>
+      <c r="B229"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230"/>
-      <c r="B230"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231"/>
+      <c r="B231"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232"/>
-      <c r="B232"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233"/>
+      <c r="B233"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234"/>
-      <c r="B234"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235"/>
+      <c r="B235"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236"/>
-      <c r="B236"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237"/>
+      <c r="B237"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238"/>
-      <c r="B238"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239"/>
+      <c r="B239"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240"/>
-      <c r="B240"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241"/>
+      <c r="B241"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242"/>
-      <c r="B242"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243"/>
+      <c r="B243"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244"/>
-      <c r="B244"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245"/>
+      <c r="B245"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246"/>
-      <c r="B246"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247"/>
+      <c r="B247"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248"/>
-      <c r="B248"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249"/>
+      <c r="B249"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250"/>
-      <c r="B250"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251"/>
+      <c r="B251"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252"/>
-      <c r="B252"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253"/>
+      <c r="B253"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254"/>
-      <c r="B254"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255"/>
+      <c r="B255"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256"/>
-      <c r="B256"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257"/>
+      <c r="B257"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258"/>
-      <c r="B258"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259"/>
+      <c r="B259"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260"/>
-      <c r="B260"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261"/>
+      <c r="B261"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262"/>
-      <c r="B262"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263"/>
+      <c r="B263"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264"/>
-      <c r="B264"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265"/>
+      <c r="B265"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266"/>
-      <c r="B266"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267"/>
+      <c r="B267"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268"/>
-      <c r="B268"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269"/>
+      <c r="B269"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270"/>
-      <c r="B270"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271"/>
+      <c r="B271"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272"/>
-      <c r="B272"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273"/>
+      <c r="B273"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274"/>
-      <c r="B274"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275"/>
+      <c r="B275"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276"/>
-      <c r="B276"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277"/>
+      <c r="B277"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278"/>
-      <c r="B278"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279"/>
+      <c r="B279"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280"/>
-      <c r="B280"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281"/>
+      <c r="B281"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282"/>
-      <c r="B282"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283"/>
+      <c r="B283"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284"/>
-      <c r="B284"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285"/>
+      <c r="B285"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286"/>
-      <c r="B286"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287"/>
+      <c r="B287"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288"/>
-      <c r="B288"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289"/>
+      <c r="B289"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290"/>
-      <c r="B290"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291"/>
+      <c r="B291"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292"/>
-      <c r="B292"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293"/>
+      <c r="B293"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294"/>
-      <c r="B294"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295"/>
+      <c r="B295"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296"/>
-      <c r="B296"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297"/>
+      <c r="B297"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298"/>
-      <c r="B298"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299"/>
+      <c r="B299"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300"/>
-      <c r="B300"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301"/>
+      <c r="B301"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302"/>
-      <c r="B302"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303"/>
+      <c r="B303"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304"/>
-      <c r="B304"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305"/>
+      <c r="B305"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306"/>
-      <c r="B306"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307"/>
+      <c r="B307"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308"/>
-      <c r="B308"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309"/>
+      <c r="B309"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310"/>
-      <c r="B310"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311"/>
+      <c r="B311"/>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312"/>
-      <c r="B312"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313"/>
+      <c r="B313"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314"/>
-      <c r="B314"/>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315"/>
+      <c r="B315"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -686,7 +686,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -727,12 +727,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -771,7 +765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,9 +802,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1154,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G77" sqref="B77:G86"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2922,13 +2913,13 @@
       <c r="D77" s="11">
         <v>1</v>
       </c>
-      <c r="E77" s="15" t="s">
+      <c r="E77" s="11" t="s">
         <v>157</v>
       </c>
       <c r="F77" s="11">
         <v>1</v>
       </c>
-      <c r="G77" s="15" t="s">
+      <c r="G77" s="11" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2945,13 +2936,13 @@
       <c r="D78" s="11">
         <v>1</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="11" t="s">
         <v>157</v>
       </c>
       <c r="F78" s="11">
         <v>1</v>
       </c>
-      <c r="G78" s="15" t="s">
+      <c r="G78" s="11" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2968,13 +2959,13 @@
       <c r="D79" s="11">
         <v>1</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="11" t="s">
         <v>158</v>
       </c>
       <c r="F79" s="11">
         <v>1</v>
       </c>
-      <c r="G79" s="15" t="s">
+      <c r="G79" s="11" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2991,13 +2982,13 @@
       <c r="D80" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E80" s="15" t="s">
+      <c r="E80" s="11" t="s">
         <v>159</v>
       </c>
       <c r="F80" s="11">
         <v>2</v>
       </c>
-      <c r="G80" s="15" t="s">
+      <c r="G80" s="11" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3014,13 +3005,13 @@
       <c r="D81" s="11">
         <v>1</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="E81" s="11" t="s">
         <v>160</v>
       </c>
       <c r="F81" s="11">
         <v>1</v>
       </c>
-      <c r="G81" s="15" t="s">
+      <c r="G81" s="11" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3037,13 +3028,13 @@
       <c r="D82" s="11">
         <v>1</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E82" s="11" t="s">
         <v>160</v>
       </c>
       <c r="F82" s="11">
         <v>1</v>
       </c>
-      <c r="G82" s="15" t="s">
+      <c r="G82" s="11" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3060,13 +3051,13 @@
       <c r="D83" s="11">
         <v>1</v>
       </c>
-      <c r="E83" s="15" t="s">
+      <c r="E83" s="11" t="s">
         <v>162</v>
       </c>
       <c r="F83" s="11">
         <v>1</v>
       </c>
-      <c r="G83" s="15" t="s">
+      <c r="G83" s="11" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3083,13 +3074,13 @@
       <c r="D84" s="11">
         <v>1</v>
       </c>
-      <c r="E84" s="15" t="s">
+      <c r="E84" s="11" t="s">
         <v>157</v>
       </c>
       <c r="F84" s="11">
         <v>1</v>
       </c>
-      <c r="G84" s="15" t="s">
+      <c r="G84" s="11" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3106,13 +3097,13 @@
       <c r="D85" s="11">
         <v>1</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E85" s="11" t="s">
         <v>157</v>
       </c>
       <c r="F85" s="11">
         <v>1</v>
       </c>
-      <c r="G85" s="15" t="s">
+      <c r="G85" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3129,13 +3120,13 @@
       <c r="D86" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E86" s="15" t="s">
+      <c r="E86" s="11" t="s">
         <v>158</v>
       </c>
       <c r="F86" s="11">
         <v>2</v>
       </c>
-      <c r="G86" s="15" t="s">
+      <c r="G86" s="11" t="s">
         <v>161</v>
       </c>
     </row>

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -10,12 +10,12 @@
     <sheet name="TDialogue" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="205">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -675,6 +675,144 @@
   </si>
   <si>
     <t>拉下去，除名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦绣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方姑姑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫她踩着我们上位，这就是下场。（说着将茶水泼倒璎珞被子上）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞话也不说去拿了桶水进来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞，你干嘛浇湿我的被子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你干什么？璎珞，你疯了！把我都泼湿了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我，魏璎珞天生脾气爆，不好惹。谁要再叽叽歪歪，我有的是法子对付她。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大半夜的，都在闹什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没什么。是我刚刚不小心，把茶壶打翻了，湿了床上的被褥。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今儿晚上你就把被褥翻过来盖吧，记住，不许再出声，否则一并挨罚，听见没！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘太医！还不快给愉贵人喂药？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高贵妃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘太医，你给愉贵人喝的是什么。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回禀皇后娘娘，臣给愉贵人诊治，发现是咳疾，喝的枇杷膏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你胡说，愉贵人分明是身怀有孕哪里是咳疾。嫔妾猜测，这枇杷膏就是贵妃毒杀皇嗣的证据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大胆怡嫔，竟敢以下犯上，诬陷本宫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臣领旨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有毒没毒一验便知，张院判。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后娘娘，一切都是我的错。是我跟怡嫔姐姐商量，现在月份小还不敢确定。等确定了再前来禀报。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉贵人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张院判</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怡嫔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘太医</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后娘娘，您都听到了，愉贵人自己都说月份太小，太医诊断是常事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至于怡嫔，诬陷嫔妾，需交由臣妾处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回禀皇后娘娘，这药的确是枇杷膏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;2</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -765,7 +903,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -802,6 +940,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1143,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G315"/>
+  <dimension ref="A1:G316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3130,807 +3271,1181 @@
         <v>161</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87"/>
-      <c r="B87"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89"/>
-      <c r="B89"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91"/>
-      <c r="B91"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93"/>
-      <c r="B93"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95"/>
-      <c r="B95"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97"/>
-      <c r="B97"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99"/>
-      <c r="B99"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101"/>
-      <c r="B101"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103"/>
-      <c r="B103"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105"/>
-      <c r="B105"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="12">
+        <v>83</v>
+      </c>
+      <c r="B87" s="14">
+        <v>39</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87" s="11">
+        <v>1</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F87" s="11">
+        <v>1</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="12">
+        <v>84</v>
+      </c>
+      <c r="B88" s="14">
+        <v>40</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D88" s="11">
+        <v>1</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" s="11">
+        <v>1</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="12">
+        <v>85</v>
+      </c>
+      <c r="B89" s="14">
+        <v>41</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D89" s="11">
+        <v>1</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F89" s="11">
+        <v>1</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="12">
+        <v>86</v>
+      </c>
+      <c r="B90" s="14">
+        <v>42</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D90" s="11">
+        <v>1</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F90" s="11">
+        <v>1</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="12">
+        <v>87</v>
+      </c>
+      <c r="B91" s="14">
+        <v>43</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D91" s="11">
+        <v>1</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F91" s="11">
+        <v>1</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="12">
+        <v>88</v>
+      </c>
+      <c r="B92" s="14">
+        <v>44</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D92" s="11">
+        <v>1</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" s="11">
+        <v>1</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="12">
+        <v>89</v>
+      </c>
+      <c r="B93" s="14">
+        <v>44</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F93" s="11">
+        <v>2</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="12">
+        <v>90</v>
+      </c>
+      <c r="B94" s="14">
+        <v>44</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F94" s="11">
+        <v>2</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="12">
+        <v>91</v>
+      </c>
+      <c r="B95" s="14">
+        <v>45</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95" s="11">
+        <v>1</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" s="11">
+        <v>1</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="12">
+        <v>92</v>
+      </c>
+      <c r="B96" s="14">
+        <v>46</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D96" s="11">
+        <v>1</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F96" s="11">
+        <v>1</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="12">
+        <v>93</v>
+      </c>
+      <c r="B97" s="14">
+        <v>46</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F97" s="11">
+        <v>2</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="12">
+        <v>94</v>
+      </c>
+      <c r="B98" s="14">
+        <v>47</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F98" s="11">
+        <v>1</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="12">
+        <v>95</v>
+      </c>
+      <c r="B99" s="14">
+        <v>47</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F99" s="11">
+        <v>2</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="12">
+        <v>96</v>
+      </c>
+      <c r="B100" s="14">
+        <v>48</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D100" s="15">
+        <v>1</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" s="11">
+        <v>1</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="12">
+        <v>97</v>
+      </c>
+      <c r="B101" s="14">
+        <v>48</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D101" s="15">
+        <v>1</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F101" s="11">
+        <v>1</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="12">
+        <v>98</v>
+      </c>
+      <c r="B102" s="14">
+        <v>49</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F102" s="11">
+        <v>2</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="12">
+        <v>99</v>
+      </c>
+      <c r="B103" s="14">
+        <v>50</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D103" s="15">
+        <v>1</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F103" s="11">
+        <v>1</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="12">
+        <v>100</v>
+      </c>
+      <c r="B104" s="14">
+        <v>50</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F104" s="11">
+        <v>2</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="12">
+        <v>101</v>
+      </c>
+      <c r="B105" s="14">
+        <v>50</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F105" s="11">
+        <v>2</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B106"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107"/>
-      <c r="B107"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B108"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109"/>
-      <c r="B109"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B110"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111"/>
-      <c r="B111"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112"/>
+      <c r="B112"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113"/>
-      <c r="B113"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114"/>
+      <c r="B114"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115"/>
-      <c r="B115"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116"/>
+      <c r="B116"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117"/>
-      <c r="B117"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118"/>
+      <c r="B118"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119"/>
-      <c r="B119"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120"/>
+      <c r="B120"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121"/>
-      <c r="B121"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122"/>
+      <c r="B122"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123"/>
-      <c r="B123"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124"/>
+      <c r="B124"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125"/>
-      <c r="B125"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126"/>
+      <c r="B126"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127"/>
-      <c r="B127"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128"/>
+      <c r="B128"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129"/>
-      <c r="B129"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130"/>
+      <c r="B130"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131"/>
-      <c r="B131"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132"/>
+      <c r="B132"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133"/>
-      <c r="B133"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134"/>
+      <c r="B134"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135"/>
-      <c r="B135"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136"/>
+      <c r="B136"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137"/>
-      <c r="B137"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138"/>
+      <c r="B138"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139"/>
-      <c r="B139"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140"/>
+      <c r="B140"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141"/>
-      <c r="B141"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142"/>
+      <c r="B142"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143"/>
-      <c r="B143"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144"/>
+      <c r="B144"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145"/>
-      <c r="B145"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146"/>
+      <c r="B146"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147"/>
-      <c r="B147"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148"/>
+      <c r="B148"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149"/>
-      <c r="B149"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150"/>
+      <c r="B150"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151"/>
-      <c r="B151"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152"/>
+      <c r="B152"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153"/>
-      <c r="B153"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154"/>
+      <c r="B154"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155"/>
-      <c r="B155"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156"/>
+      <c r="B156"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157"/>
-      <c r="B157"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158"/>
+      <c r="B158"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159"/>
-      <c r="B159"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160"/>
+      <c r="B160"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161"/>
-      <c r="B161"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162"/>
+      <c r="B162"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163"/>
-      <c r="B163"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164"/>
+      <c r="B164"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165"/>
-      <c r="B165"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166"/>
+      <c r="B166"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167"/>
-      <c r="B167"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168"/>
+      <c r="B168"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169"/>
-      <c r="B169"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170"/>
+      <c r="B170"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171"/>
-      <c r="B171"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172"/>
+      <c r="B172"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173"/>
-      <c r="B173"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174"/>
+      <c r="B174"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175"/>
-      <c r="B175"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176"/>
+      <c r="B176"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177"/>
-      <c r="B177"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178"/>
+      <c r="B178"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179"/>
-      <c r="B179"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180"/>
+      <c r="B180"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181"/>
-      <c r="B181"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182"/>
+      <c r="B182"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183"/>
-      <c r="B183"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184"/>
+      <c r="B184"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185"/>
-      <c r="B185"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186"/>
+      <c r="B186"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187"/>
-      <c r="B187"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188"/>
+      <c r="B188"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189"/>
-      <c r="B189"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190"/>
+      <c r="B190"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191"/>
-      <c r="B191"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192"/>
+      <c r="B192"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193"/>
-      <c r="B193"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194"/>
+      <c r="B194"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195"/>
-      <c r="B195"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196"/>
+      <c r="B196"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197"/>
-      <c r="B197"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198"/>
+      <c r="B198"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199"/>
-      <c r="B199"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200"/>
+      <c r="B200"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201"/>
-      <c r="B201"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202"/>
+      <c r="B202"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203"/>
-      <c r="B203"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204"/>
+      <c r="B204"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205"/>
-      <c r="B205"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206"/>
+      <c r="B206"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207"/>
-      <c r="B207"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208"/>
+      <c r="B208"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209"/>
-      <c r="B209"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210"/>
+      <c r="B210"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211"/>
-      <c r="B211"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212"/>
+      <c r="B212"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213"/>
-      <c r="B213"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214"/>
+      <c r="B214"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215"/>
-      <c r="B215"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216"/>
+      <c r="B216"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217"/>
-      <c r="B217"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218"/>
+      <c r="B218"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219"/>
-      <c r="B219"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220"/>
+      <c r="B220"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221"/>
-      <c r="B221"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222"/>
+      <c r="B222"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223"/>
-      <c r="B223"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224"/>
+      <c r="B224"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225"/>
-      <c r="B225"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226"/>
+      <c r="B226"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227"/>
-      <c r="B227"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228"/>
+      <c r="B228"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229"/>
-      <c r="B229"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230"/>
+      <c r="B230"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231"/>
-      <c r="B231"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232"/>
+      <c r="B232"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233"/>
-      <c r="B233"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234"/>
+      <c r="B234"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235"/>
-      <c r="B235"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236"/>
+      <c r="B236"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237"/>
-      <c r="B237"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238"/>
+      <c r="B238"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239"/>
-      <c r="B239"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240"/>
+      <c r="B240"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241"/>
-      <c r="B241"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242"/>
+      <c r="B242"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243"/>
-      <c r="B243"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244"/>
+      <c r="B244"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245"/>
-      <c r="B245"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246"/>
+      <c r="B246"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247"/>
-      <c r="B247"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248"/>
+      <c r="B248"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249"/>
-      <c r="B249"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250"/>
+      <c r="B250"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251"/>
-      <c r="B251"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252"/>
+      <c r="B252"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253"/>
-      <c r="B253"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254"/>
+      <c r="B254"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255"/>
-      <c r="B255"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256"/>
+      <c r="B256"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257"/>
-      <c r="B257"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258"/>
+      <c r="B258"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259"/>
-      <c r="B259"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260"/>
+      <c r="B260"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261"/>
-      <c r="B261"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262"/>
+      <c r="B262"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263"/>
-      <c r="B263"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264"/>
+      <c r="B264"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265"/>
-      <c r="B265"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266"/>
+      <c r="B266"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267"/>
-      <c r="B267"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268"/>
+      <c r="B268"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269"/>
-      <c r="B269"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270"/>
+      <c r="B270"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271"/>
-      <c r="B271"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272"/>
+      <c r="B272"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273"/>
-      <c r="B273"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274"/>
+      <c r="B274"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275"/>
-      <c r="B275"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276"/>
+      <c r="B276"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277"/>
-      <c r="B277"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278"/>
+      <c r="B278"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279"/>
-      <c r="B279"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280"/>
+      <c r="B280"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281"/>
-      <c r="B281"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282"/>
+      <c r="B282"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283"/>
-      <c r="B283"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284"/>
+      <c r="B284"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285"/>
-      <c r="B285"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286"/>
+      <c r="B286"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287"/>
-      <c r="B287"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288"/>
+      <c r="B288"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289"/>
-      <c r="B289"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290"/>
+      <c r="B290"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291"/>
-      <c r="B291"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292"/>
+      <c r="B292"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293"/>
-      <c r="B293"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294"/>
+      <c r="B294"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295"/>
-      <c r="B295"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296"/>
+      <c r="B296"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297"/>
-      <c r="B297"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298"/>
+      <c r="B298"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299"/>
-      <c r="B299"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300"/>
+      <c r="B300"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301"/>
-      <c r="B301"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302"/>
+      <c r="B302"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303"/>
-      <c r="B303"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304"/>
+      <c r="B304"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305"/>
-      <c r="B305"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306"/>
+      <c r="B306"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307"/>
-      <c r="B307"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308"/>
+      <c r="B308"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309"/>
-      <c r="B309"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310"/>
+      <c r="B310"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311"/>
-      <c r="B311"/>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312"/>
+      <c r="B312"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313"/>
-      <c r="B313"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314"/>
+      <c r="B314"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315"/>
-      <c r="B315"/>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316"/>
+      <c r="B316"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="221">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -142,15 +142,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/Head/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>皇上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/2;Image/Head/3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -166,29 +158,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Image/Head/3</t>
-  </si>
-  <si>
     <t>光禄寺少卿陆士隆之女陆晚晚，年十六！</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Image/Head/4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>纳兰淳雪</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Image/Head/4;Image/Head/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/2;Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>乌雅青黛</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -201,10 +178,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Image/Head/2;Image/Head/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Image/Head/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,27 +264,11 @@
     <t>臣妾准备了一双玉如意，恭祝娘娘福泽绵长 万事如意。</t>
   </si>
   <si>
-    <t>Image/Head/2;Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Image/Head/1;Image/Head/4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image/Head/1;Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/4;Image/Head/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/1;Image/Head/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -535,14 +492,6 @@
   </si>
   <si>
     <t>明玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -817,6 +766,122 @@
   </si>
   <si>
     <t>Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/2;Image/GameScene/halfbody/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/6;Image/GameScene/halfbody/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/6;Image/GameScene/halfbody/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/2;Image/GameScene/halfbody/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/2;Image/GameScene/halfbody/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/1;Image/GameScene/halfbody/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/1;Image/GameScene/halfbody/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/1;Image/GameScene/halfbody/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/1;Image/GameScene/halfbody/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/1;Image/GameScene/halfbody/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/4;Image/GameScene/halfbody/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/4;Image/GameScene/halfbody/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/10;Image/GameScene/halfbody/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/11;Image/GameScene/halfbody/10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1286,15 +1351,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
     <col min="4" max="4" width="14.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.09765625" bestFit="1" customWidth="1"/>
@@ -1364,7 +1429,7 @@
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>20</v>
@@ -1373,7 +1438,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>30</v>
@@ -1393,19 +1458,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="F5" s="12">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1416,19 +1481,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="F6" s="12">
         <v>2</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1439,19 +1504,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="F7" s="12">
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1462,19 +1527,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="F8" s="12">
         <v>2</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1485,19 +1550,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="F9" s="12">
         <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1508,19 +1573,19 @@
         <v>3</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="F10" s="6">
         <v>2</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1531,19 +1596,19 @@
         <v>4</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="D11" s="12">
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F11" s="6">
         <v>2</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1554,19 +1619,19 @@
         <v>4</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="6">
         <v>1</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1577,19 +1642,19 @@
         <v>4</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F13" s="6">
         <v>2</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.2">
@@ -1600,19 +1665,19 @@
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F14" s="6">
         <v>1</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1623,19 +1688,19 @@
         <v>5</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="6">
         <v>2</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1646,19 +1711,19 @@
         <v>5</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F16" s="6">
         <v>2</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1669,19 +1734,19 @@
         <v>6</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="12">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="F17" s="6">
         <v>1</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1692,19 +1757,19 @@
         <v>6</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F18" s="6">
         <v>2</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1715,19 +1780,19 @@
         <v>6</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="6">
         <v>1</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1738,19 +1803,19 @@
         <v>6</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F20" s="6">
         <v>2</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1761,19 +1826,19 @@
         <v>6</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F21" s="6">
         <v>2</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1784,19 +1849,19 @@
         <v>6</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="6">
         <v>1</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1807,19 +1872,19 @@
         <v>6</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F23" s="6">
         <v>2</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1830,19 +1895,19 @@
         <v>7</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="D24" s="12">
         <v>2</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F24" s="6">
         <v>2</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1853,19 +1918,19 @@
         <v>7</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F25" s="6">
         <v>1</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1876,19 +1941,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="D26" s="11">
         <v>2</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F26" s="6">
         <v>2</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1899,19 +1964,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F27" s="6">
         <v>1</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1922,19 +1987,19 @@
         <v>9</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="D28" s="11">
         <v>2</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F28" s="6">
         <v>2</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1945,19 +2010,19 @@
         <v>9</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F29" s="6">
         <v>1</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1968,19 +2033,19 @@
         <v>10</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="D30" s="11">
         <v>2</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F30" s="6">
         <v>2</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1991,19 +2056,19 @@
         <v>10</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F31" s="6">
         <v>1</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2014,19 +2079,19 @@
         <v>11</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="D32" s="11">
         <v>2</v>
       </c>
       <c r="E32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="6">
+        <v>2</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" s="6">
-        <v>2</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2037,19 +2102,19 @@
         <v>11</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F33" s="6">
         <v>1</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2060,19 +2125,19 @@
         <v>12</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="D34" s="11">
         <v>2</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F34" s="6">
         <v>2</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2083,19 +2148,19 @@
         <v>12</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F35" s="6">
         <v>1</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2106,19 +2171,19 @@
         <v>12</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F36" s="6">
         <v>2</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2129,19 +2194,19 @@
         <v>12</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F37" s="6">
         <v>1</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2152,19 +2217,19 @@
         <v>13</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D38" s="11">
         <v>1</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F38" s="6">
         <v>1</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2175,19 +2240,19 @@
         <v>14</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D39" s="11">
         <v>1</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F39" s="6">
         <v>1</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2198,19 +2263,19 @@
         <v>15</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D40" s="11">
         <v>2</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F40" s="6">
         <v>2</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2221,19 +2286,19 @@
         <v>15</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D41" s="11">
         <v>1</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F41" s="6">
         <v>1</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2244,19 +2309,19 @@
         <v>15</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D42" s="11">
         <v>1</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F42" s="6">
         <v>1</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2267,19 +2332,19 @@
         <v>16</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D43" s="11">
         <v>1</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F43" s="6">
         <v>1</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2290,19 +2355,19 @@
         <v>16</v>
       </c>
       <c r="C44" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="6">
+        <v>2</v>
+      </c>
+      <c r="G44" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" s="6">
-        <v>2</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2313,19 +2378,19 @@
         <v>16</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D45" s="12">
         <v>1</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F45" s="6">
         <v>1</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2336,19 +2401,19 @@
         <v>17</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D46" s="12">
         <v>1</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F46" s="6">
         <v>1</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2359,19 +2424,19 @@
         <v>17</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D47" s="12">
         <v>1</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F47" s="6">
         <v>1</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2382,19 +2447,19 @@
         <v>18</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D48" s="12">
         <v>2</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F48" s="6">
         <v>2</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2405,19 +2470,19 @@
         <v>18</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F49" s="6">
         <v>1</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2428,19 +2493,19 @@
         <v>19</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D50" s="12">
         <v>1</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F50" s="11">
         <v>1</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2451,19 +2516,19 @@
         <v>19</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F51" s="11">
         <v>2</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2474,19 +2539,19 @@
         <v>20</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D52" s="11">
         <v>1</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F52" s="11">
         <v>1</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2497,19 +2562,19 @@
         <v>20</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E53" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="11">
+        <v>2</v>
+      </c>
+      <c r="G53" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="F53" s="11">
-        <v>2</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2520,19 +2585,19 @@
         <v>20</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F54" s="11">
         <v>1</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2543,19 +2608,19 @@
         <v>21</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D55" s="12">
         <v>1</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F55" s="11">
         <v>1</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2566,19 +2631,19 @@
         <v>21</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F56" s="11">
         <v>2</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2589,19 +2654,19 @@
         <v>21</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D57" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" s="11">
+        <v>1</v>
+      </c>
+      <c r="G57" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F57" s="11">
-        <v>1</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2612,19 +2677,19 @@
         <v>21</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D58" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" s="11">
+        <v>2</v>
+      </c>
+      <c r="G58" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F58" s="11">
-        <v>2</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2635,19 +2700,19 @@
         <v>22</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D59" s="11">
         <v>1</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F59" s="11">
         <v>1</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2658,19 +2723,19 @@
         <v>22</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F60" s="11">
         <v>2</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2681,19 +2746,19 @@
         <v>22</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F61" s="11">
         <v>1</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2704,19 +2769,19 @@
         <v>23</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D62" s="11">
         <v>2</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F62" s="11">
         <v>2</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2727,19 +2792,19 @@
         <v>23</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F63" s="11">
         <v>1</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2750,19 +2815,19 @@
         <v>23</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F64" s="11">
         <v>2</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2773,19 +2838,19 @@
         <v>24</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D65" s="11">
         <v>1</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F65" s="11">
         <v>1</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2796,19 +2861,19 @@
         <v>24</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F66" s="11">
         <v>2</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2819,19 +2884,19 @@
         <v>25</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="D67" s="9">
         <v>1</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F67" s="11">
         <v>1</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2842,19 +2907,19 @@
         <v>26</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="D68" s="9">
         <v>1</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F68" s="11">
         <v>1</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2865,19 +2930,19 @@
         <v>27</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="D69" s="11">
         <v>1</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F69" s="11">
         <v>1</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2888,19 +2953,19 @@
         <v>28</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="D70" s="11">
         <v>1</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F70" s="11">
         <v>1</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2911,19 +2976,19 @@
         <v>29</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="D71" s="11">
         <v>2</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F71" s="11">
         <v>2</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2934,19 +2999,19 @@
         <v>29</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F72" s="11">
         <v>1</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2957,19 +3022,19 @@
         <v>30</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="D73" s="11">
         <v>1</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F73" s="11">
         <v>1</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2980,19 +3045,19 @@
         <v>31</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="D74" s="11">
         <v>2</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F74" s="11">
         <v>2</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3003,19 +3068,19 @@
         <v>31</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F75" s="11">
         <v>1</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3026,19 +3091,19 @@
         <v>32</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="D76" s="11">
         <v>1</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F76" s="11">
         <v>1</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3049,19 +3114,19 @@
         <v>33</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="D77" s="11">
         <v>1</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F77" s="11">
         <v>1</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3072,19 +3137,19 @@
         <v>34</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="D78" s="11">
         <v>1</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F78" s="11">
         <v>1</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3095,19 +3160,19 @@
         <v>35</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="D79" s="11">
         <v>1</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="F79" s="11">
         <v>1</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3118,19 +3183,19 @@
         <v>35</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="F80" s="11">
         <v>2</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3141,19 +3206,19 @@
         <v>36</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="D81" s="11">
         <v>1</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F81" s="11">
         <v>1</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3164,19 +3229,19 @@
         <v>36</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="D82" s="11">
         <v>1</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F82" s="11">
         <v>1</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3187,19 +3252,19 @@
         <v>37</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="D83" s="11">
         <v>1</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F83" s="11">
         <v>1</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3210,19 +3275,19 @@
         <v>38</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="D84" s="11">
         <v>1</v>
       </c>
       <c r="E84" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F84" s="11">
+        <v>1</v>
+      </c>
+      <c r="G84" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="F84" s="11">
-        <v>1</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3233,19 +3298,19 @@
         <v>38</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="D85" s="11">
         <v>1</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F85" s="11">
         <v>1</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3256,19 +3321,19 @@
         <v>38</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="F86" s="11">
         <v>2</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3279,19 +3344,19 @@
         <v>39</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D87" s="11">
         <v>1</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F87" s="11">
         <v>1</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3302,19 +3367,19 @@
         <v>40</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D88" s="11">
         <v>1</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F88" s="11">
         <v>1</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3325,19 +3390,19 @@
         <v>41</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D89" s="11">
         <v>1</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F89" s="11">
         <v>1</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3348,19 +3413,19 @@
         <v>42</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D90" s="11">
         <v>1</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F90" s="11">
         <v>1</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3371,19 +3436,19 @@
         <v>43</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D91" s="11">
         <v>1</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F91" s="11">
         <v>1</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3394,19 +3459,19 @@
         <v>44</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D92" s="11">
         <v>1</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F92" s="11">
         <v>1</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3417,19 +3482,19 @@
         <v>44</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F93" s="11">
         <v>2</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3440,19 +3505,19 @@
         <v>44</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F94" s="11">
         <v>2</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3463,19 +3528,19 @@
         <v>45</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D95" s="11">
         <v>1</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="F95" s="11">
         <v>1</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3486,19 +3551,19 @@
         <v>46</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D96" s="11">
         <v>1</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F96" s="11">
         <v>1</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3509,19 +3574,19 @@
         <v>46</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F97" s="11">
         <v>2</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3532,19 +3597,19 @@
         <v>47</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F98" s="11">
         <v>1</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3555,19 +3620,19 @@
         <v>47</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="F99" s="11">
         <v>2</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3578,19 +3643,19 @@
         <v>48</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D100" s="15">
         <v>1</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="F100" s="11">
         <v>1</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3601,19 +3666,19 @@
         <v>48</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D101" s="15">
         <v>1</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="F101" s="11">
         <v>1</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3624,19 +3689,19 @@
         <v>49</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="F102" s="11">
         <v>2</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3647,19 +3712,19 @@
         <v>50</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D103" s="15">
         <v>1</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F103" s="11">
         <v>1</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3670,19 +3735,19 @@
         <v>50</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="F104" s="11">
         <v>2</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3693,19 +3758,19 @@
         <v>50</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="F105" s="11">
         <v>2</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="250">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -884,12 +884,128 @@
     <t>Image/GameScene/halfbody/11;Image/GameScene/halfbody/10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>璎珞你怎么知道我生日啊，从哪里弄来的面条。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我用绣品跟大厨房换来的，你入宫的时候报过生辰，我记下了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来这方丝帕送给你。祝你年年有今日，岁岁有哦今朝。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢谢你璎珞。好漂亮的手帕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我说这盗贼怎么都抓不到。原来是你。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴总管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么会这样。这金丝语线真不是我偷的。是玲珑要送我生日礼物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绣活儿好坏，全凭本事。玲珑不如我们进行一场比试。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好，你若要比，我就陪你比。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玲珑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是什么，怎么有跟针在朕的衣服里！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肯定是造办处这帮奴才个顶个的废物。竟然伤了龙体。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查，凡涉事人等，严惩不带。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让你给皇上做常服，尽然领口漏了一根银针。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不知道，一定是璎珞。这件衣服是璎珞做的，我偷她的衣服去交差的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/8;Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4;Image/Head/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/11;Image/Head/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4;Image/Head/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/2;Image/Head/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/11;Image/Head/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -930,6 +1046,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -968,7 +1090,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1007,6 +1129,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1351,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G316"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3773,84 +3904,339 @@
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106"/>
-      <c r="B106"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108"/>
-      <c r="B108"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110"/>
-      <c r="B110"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112"/>
-      <c r="B112"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114"/>
-      <c r="B114"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116"/>
-      <c r="B116"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118"/>
-      <c r="B118"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="12">
+        <v>102</v>
+      </c>
+      <c r="B106" s="14">
+        <v>51</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D106" s="15">
+        <v>1</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F106" s="11">
+        <v>1</v>
+      </c>
+      <c r="G106" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="12">
+        <v>103</v>
+      </c>
+      <c r="B107" s="14">
+        <v>51</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F107" s="11">
+        <v>2</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="12">
+        <v>104</v>
+      </c>
+      <c r="B108" s="14">
+        <v>52</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D108" s="15">
+        <v>1</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F108" s="11">
+        <v>1</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="12">
+        <v>105</v>
+      </c>
+      <c r="B109" s="14">
+        <v>52</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F109" s="11">
+        <v>2</v>
+      </c>
+      <c r="G109" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="12">
+        <v>106</v>
+      </c>
+      <c r="B110" s="14">
+        <v>53</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D110" s="15">
+        <v>1</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F110" s="11">
+        <v>1</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="12">
+        <v>107</v>
+      </c>
+      <c r="B111" s="14">
+        <v>53</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F111" s="11">
+        <v>2</v>
+      </c>
+      <c r="G111" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="12">
+        <v>108</v>
+      </c>
+      <c r="B112" s="14">
+        <v>54</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D112" s="15">
+        <v>1</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F112" s="11">
+        <v>1</v>
+      </c>
+      <c r="G112" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="12">
+        <v>109</v>
+      </c>
+      <c r="B113" s="14">
+        <v>54</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F113" s="11">
+        <v>2</v>
+      </c>
+      <c r="G113" s="17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="12">
+        <v>110</v>
+      </c>
+      <c r="B114" s="14">
+        <v>55</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D114" s="15">
+        <v>1</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F114" s="11">
+        <v>1</v>
+      </c>
+      <c r="G114" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="12">
+        <v>111</v>
+      </c>
+      <c r="B115" s="14">
+        <v>55</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="F115" s="11">
+        <v>2</v>
+      </c>
+      <c r="G115" s="17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="12">
+        <v>112</v>
+      </c>
+      <c r="B116" s="14">
+        <v>55</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F116" s="11">
+        <v>2</v>
+      </c>
+      <c r="G116" s="17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="12">
+        <v>113</v>
+      </c>
+      <c r="B117" s="14">
+        <v>56</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D117" s="15">
+        <v>1</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F117" s="11">
+        <v>1</v>
+      </c>
+      <c r="G117" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="12">
+        <v>114</v>
+      </c>
+      <c r="B118" s="14">
+        <v>56</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" s="11">
+        <v>2</v>
+      </c>
+      <c r="G118" s="17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G119" s="18"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G120" s="18"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
     </row>

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="281">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -997,7 +997,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>旁白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近秀坊的绣女们到处议论说璎珞跟侍卫有染。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦绣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞这肚子呀，可大着呢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你和侍卫勾搭成奸，珠胎暗结。锦绣就是人证，物证就是你的肚子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方姑姑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若证明我无罪。告状的人如何处置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空口白牙诬陷他人，一通乱棍，逐出紫禁城。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴总管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏姑娘的确肚子大了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严嬷嬷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么这样啊，干出这样丑事，人品不端正，绣工再好也没用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>众绣女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别吵了，魏璎珞还是清白之身。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如今真相大白。证明我是清白的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫女锦绣，嫉妒同僚，挑拨离间，仗二十罚入辛者库。宫女方妮子，诬陷他人，犯了口业，仗四十，逐出宫去。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴总管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张嬷嬷，这是我从方姑姑哪里得到的玉佩，你看下上面写的什么。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富察哈喇，这是皇上得妻弟富察傅恒的玉佩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张嬷嬷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Image/Head/11;Image/Head/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/0;Image/Head/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4;Image/Head/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4;Image/Head/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/15;Image/Head/9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1090,7 +1214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1134,11 +1258,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1480,10 +1616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G316"/>
+  <dimension ref="A1:H316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3923,7 +4059,7 @@
       <c r="F106" s="11">
         <v>1</v>
       </c>
-      <c r="G106" s="17" t="s">
+      <c r="G106" s="13" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3946,7 +4082,7 @@
       <c r="F107" s="11">
         <v>2</v>
       </c>
-      <c r="G107" s="17" t="s">
+      <c r="G107" s="13" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3969,7 +4105,7 @@
       <c r="F108" s="11">
         <v>1</v>
       </c>
-      <c r="G108" s="17" t="s">
+      <c r="G108" s="13" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3992,7 +4128,7 @@
       <c r="F109" s="11">
         <v>2</v>
       </c>
-      <c r="G109" s="17" t="s">
+      <c r="G109" s="13" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4015,7 +4151,7 @@
       <c r="F110" s="11">
         <v>1</v>
       </c>
-      <c r="G110" s="17" t="s">
+      <c r="G110" s="13" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4038,7 +4174,7 @@
       <c r="F111" s="11">
         <v>2</v>
       </c>
-      <c r="G111" s="17" t="s">
+      <c r="G111" s="13" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4061,7 +4197,7 @@
       <c r="F112" s="11">
         <v>1</v>
       </c>
-      <c r="G112" s="17" t="s">
+      <c r="G112" s="13" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4084,7 +4220,7 @@
       <c r="F113" s="11">
         <v>2</v>
       </c>
-      <c r="G113" s="17" t="s">
+      <c r="G113" s="13" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4107,7 +4243,7 @@
       <c r="F114" s="11">
         <v>1</v>
       </c>
-      <c r="G114" s="17" t="s">
+      <c r="G114" s="13" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4130,7 +4266,7 @@
       <c r="F115" s="11">
         <v>2</v>
       </c>
-      <c r="G115" s="17" t="s">
+      <c r="G115" s="13" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4153,7 +4289,7 @@
       <c r="F116" s="11">
         <v>2</v>
       </c>
-      <c r="G116" s="17" t="s">
+      <c r="G116" s="13" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4165,7 +4301,7 @@
         <v>56</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="D117" s="15">
         <v>1</v>
@@ -4176,7 +4312,7 @@
       <c r="F117" s="11">
         <v>1</v>
       </c>
-      <c r="G117" s="17" t="s">
+      <c r="G117" s="13" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4188,7 +4324,7 @@
         <v>56</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="D118" s="15" t="s">
         <v>190</v>
@@ -4199,156 +4335,443 @@
       <c r="F118" s="11">
         <v>2</v>
       </c>
-      <c r="G118" s="17" t="s">
+      <c r="G118" s="13" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119"/>
-      <c r="G119" s="18"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120"/>
-      <c r="B120"/>
-      <c r="G120" s="18"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122"/>
-      <c r="B122"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124"/>
-      <c r="B124"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126"/>
-      <c r="B126"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128"/>
-      <c r="B128"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130"/>
-      <c r="B130"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="12">
+        <v>115</v>
+      </c>
+      <c r="B119" s="14">
+        <v>57</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F119" s="11">
+        <v>1</v>
+      </c>
+      <c r="G119" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="12">
+        <v>116</v>
+      </c>
+      <c r="B120" s="14">
+        <v>57</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F120" s="11">
+        <v>2</v>
+      </c>
+      <c r="G120" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="12">
+        <v>117</v>
+      </c>
+      <c r="B121" s="14">
+        <v>58</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="F121" s="11">
+        <v>1</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A122" s="12">
+        <v>118</v>
+      </c>
+      <c r="B122" s="14">
+        <v>59</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="F122" s="11">
+        <v>1</v>
+      </c>
+      <c r="G122" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="12">
+        <v>119</v>
+      </c>
+      <c r="B123" s="14">
+        <v>59</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D123" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F123" s="11">
+        <v>2</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A124" s="12">
+        <v>120</v>
+      </c>
+      <c r="B124" s="14">
+        <v>59</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="F124" s="11">
+        <v>2</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="12">
+        <v>121</v>
+      </c>
+      <c r="B125" s="14">
+        <v>60</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F125" s="11">
+        <v>1</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="12">
+        <v>122</v>
+      </c>
+      <c r="B126" s="14">
+        <v>60</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="F126" s="11">
+        <v>2</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A127" s="12">
+        <v>123</v>
+      </c>
+      <c r="B127" s="14">
+        <v>61</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F127" s="11">
+        <v>1</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A128" s="12">
+        <v>124</v>
+      </c>
+      <c r="B128" s="14">
+        <v>61</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F128" s="11">
+        <v>2</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="12">
+        <v>125</v>
+      </c>
+      <c r="B129" s="14">
+        <v>62</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F129" s="11">
+        <v>1</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="12">
+        <v>126</v>
+      </c>
+      <c r="B130" s="14">
+        <v>62</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F130" s="11">
+        <v>2</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G131" s="20"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G132" s="20"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G133" s="20"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G134" s="20"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G135" s="20"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G136" s="20"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G137" s="20"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="17"/>
+    </row>
+    <row r="139" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A139"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="22"/>
+      <c r="H139" s="18"/>
+    </row>
+    <row r="140" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="22"/>
+      <c r="H140" s="18"/>
+    </row>
+    <row r="141" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A141"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="22"/>
+      <c r="H141" s="18"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="17"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="17"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="17"/>
+      <c r="H144" s="17"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="17"/>
+      <c r="H145" s="17"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
     </row>

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="332">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -1122,6 +1122,210 @@
   </si>
   <si>
     <t>Image/Head/15;Image/Head/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘太医！还不快给愉贵人喂药？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高贵妃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘太医，你给愉贵人喝的是什么。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回禀皇后娘娘，臣给愉贵人诊治，发现是咳疾，喝的枇杷膏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘太医</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你胡说，愉贵人分明是身怀有孕哪里是咳疾。嫔妾猜测，这枇杷膏就是贵妃毒杀皇嗣的证据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怡嫔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大胆怡嫔，竟敢以下犯上，诬陷本宫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有毒没毒一验便知，张院判。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臣领旨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张院判</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回禀皇后娘娘，这药的确是枇杷膏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后娘娘，一切都是我的错。是我跟怡嫔姐姐商量，现在月份小还不敢确定。等确定了再前来禀报。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉贵人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后娘娘，您都听到了，愉贵人自己都说月份太小，太医诊断是常事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至于怡嫔，诬陷嫔妾，需交由臣妾处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们是秀坊的宫女，张嬷嬷让我把春装送过来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玲珑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这丫头挺机灵的，过来说两句话。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我这不算什么，我们秀坊有个叫璎珞的姑娘，不但绣法巧夺天工，还知道新叶枇杷膏有毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你说什么？枇杷膏？她的名字叫魏璎珞。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奴才给二位娘娘请安。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么说话声音这么大声。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉嫔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奴才从小嗓门就大，嬷嬷打了我好多回。不行，改不了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是你说枇杷新叶有毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对，我小时太贪吃，有一回不小心吃多了。上吐下泻。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上回永和宫那位娘娘也要吃枇杷，被我给劝阻了。（手舞足蹈的说）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么乱七八糟的，颠三倒四，不知所云。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奴才从来没吃过藕粉丸子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你过来，本宫这碗赏你了。还有这些碗，吃完了再走。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵妃娘娘人太好了，都不嫌弃奴才吃的多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赶紧让她滚，本宫看着就心烦。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之后问问内务府，这都招进来什么人，这不就半个傻子，我累了，都退下吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1;Image/Head/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/1Image/Head/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/15;Image/Head/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/16;Image/Head/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/7;Image/Head/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4;Image/Head/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/12;Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/4;Image/Head/12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1214,7 +1418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1267,14 +1471,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1616,10 +1830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H316"/>
+  <dimension ref="A1:I317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4454,7 +4668,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="12">
         <v>120</v>
       </c>
@@ -4569,7 +4783,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="12">
         <v>125</v>
       </c>
@@ -4592,7 +4806,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="12">
         <v>126</v>
       </c>
@@ -4615,711 +4829,1261 @@
         <v>269</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131"/>
-      <c r="G131" s="20"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132"/>
-      <c r="B132"/>
-      <c r="G132" s="20"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133"/>
-      <c r="G133" s="20"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134"/>
-      <c r="B134"/>
-      <c r="G134" s="20"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135"/>
-      <c r="G135" s="20"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136"/>
-      <c r="B136"/>
-      <c r="G136" s="20"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137"/>
-      <c r="G137" s="20"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138"/>
-      <c r="B138"/>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="17"/>
-      <c r="G138" s="21"/>
-      <c r="H138" s="17"/>
-    </row>
-    <row r="139" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A139"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="22"/>
+    <row r="131" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="12">
+        <v>127</v>
+      </c>
+      <c r="B131" s="14">
+        <v>63</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F131" s="11">
+        <v>1</v>
+      </c>
+      <c r="G131" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="12">
+        <v>128</v>
+      </c>
+      <c r="B132" s="14">
+        <v>64</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="F132" s="11">
+        <v>1</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="12">
+        <v>129</v>
+      </c>
+      <c r="B133" s="14">
+        <v>64</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D133" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="F133" s="11">
+        <v>2</v>
+      </c>
+      <c r="G133" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="12">
+        <v>130</v>
+      </c>
+      <c r="B134" s="26">
+        <v>65</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D134" s="25">
+        <v>1</v>
+      </c>
+      <c r="E134" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="F134" s="24">
+        <v>1</v>
+      </c>
+      <c r="G134" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="H134" s="17"/>
+      <c r="I134" s="17"/>
+    </row>
+    <row r="135" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="12">
+        <v>131</v>
+      </c>
+      <c r="B135" s="26">
+        <v>65</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E135" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="F135" s="24">
+        <v>2</v>
+      </c>
+      <c r="G135" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="H135" s="17"/>
+      <c r="I135" s="17"/>
+    </row>
+    <row r="136" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="12">
+        <v>132</v>
+      </c>
+      <c r="B136" s="26">
+        <v>66</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D136" s="25">
+        <v>1</v>
+      </c>
+      <c r="E136" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="F136" s="24">
+        <v>1</v>
+      </c>
+      <c r="G136" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="H136" s="17"/>
+      <c r="I136" s="17"/>
+    </row>
+    <row r="137" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="12">
+        <v>133</v>
+      </c>
+      <c r="B137" s="26">
+        <v>66</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E137" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="F137" s="18">
+        <v>2</v>
+      </c>
+      <c r="G137" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="H137" s="18"/>
+      <c r="I137" s="17"/>
+    </row>
+    <row r="138" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="12">
+        <v>134</v>
+      </c>
+      <c r="B138" s="26">
+        <v>67</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D138" s="18">
+        <v>1</v>
+      </c>
+      <c r="E138" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="F138" s="18">
+        <v>1</v>
+      </c>
+      <c r="G138" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="H138" s="18"/>
+      <c r="I138" s="17"/>
+    </row>
+    <row r="139" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="12">
+        <v>135</v>
+      </c>
+      <c r="B139" s="26">
+        <v>68</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="D139" s="18">
+        <v>1</v>
+      </c>
+      <c r="E139" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="F139" s="18">
+        <v>1</v>
+      </c>
+      <c r="G139" s="20" t="s">
+        <v>294</v>
+      </c>
       <c r="H139" s="18"/>
-    </row>
-    <row r="140" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A140"/>
-      <c r="B140"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="22"/>
+      <c r="I139" s="17"/>
+    </row>
+    <row r="140" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="12">
+        <v>136</v>
+      </c>
+      <c r="B140" s="26">
+        <v>68</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D140" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E140" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F140" s="18">
+        <v>2</v>
+      </c>
+      <c r="G140" s="20" t="s">
+        <v>296</v>
+      </c>
       <c r="H140" s="18"/>
-    </row>
-    <row r="141" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A141"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="22"/>
+      <c r="I140" s="17"/>
+    </row>
+    <row r="141" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="12">
+        <v>137</v>
+      </c>
+      <c r="B141" s="26">
+        <v>68</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D141" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E141" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F141" s="18">
+        <v>2</v>
+      </c>
+      <c r="G141" s="20" t="s">
+        <v>297</v>
+      </c>
       <c r="H141" s="18"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142"/>
-      <c r="B142"/>
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="17"/>
-      <c r="G142" s="21"/>
+      <c r="I141" s="17"/>
+    </row>
+    <row r="142" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="12">
+        <v>138</v>
+      </c>
+      <c r="B142" s="26">
+        <v>69</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="D142" s="15">
+        <v>1</v>
+      </c>
+      <c r="E142" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F142" s="18">
+        <v>1</v>
+      </c>
+      <c r="G142" s="24" t="s">
+        <v>298</v>
+      </c>
       <c r="H142" s="17"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
+      <c r="I142" s="17"/>
+    </row>
+    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A143" s="12">
+        <v>139</v>
+      </c>
+      <c r="B143" s="26">
+        <v>69</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D143" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E143" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="F143" s="18">
+        <v>2</v>
+      </c>
+      <c r="G143" s="24" t="s">
+        <v>300</v>
+      </c>
       <c r="H143" s="17"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144"/>
-      <c r="B144"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="17"/>
-      <c r="G144" s="17"/>
+      <c r="I143" s="17"/>
+    </row>
+    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A144" s="12">
+        <v>140</v>
+      </c>
+      <c r="B144" s="26">
+        <v>70</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="D144" s="17">
+        <v>1</v>
+      </c>
+      <c r="E144" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F144" s="18">
+        <v>1</v>
+      </c>
+      <c r="G144" s="24" t="s">
+        <v>302</v>
+      </c>
       <c r="H144" s="17"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145"/>
-      <c r="C145" s="17"/>
-      <c r="D145" s="17"/>
-      <c r="E145" s="17"/>
-      <c r="F145" s="17"/>
-      <c r="G145" s="17"/>
+      <c r="I144" s="17"/>
+    </row>
+    <row r="145" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A145" s="12">
+        <v>141</v>
+      </c>
+      <c r="B145" s="26">
+        <v>70</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E145" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="F145" s="18">
+        <v>2</v>
+      </c>
+      <c r="G145" s="24" t="s">
+        <v>303</v>
+      </c>
       <c r="H145" s="17"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146"/>
-      <c r="B146"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148"/>
-      <c r="B148"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150"/>
-      <c r="B150"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152"/>
-      <c r="B152"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154"/>
-      <c r="B154"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156"/>
-      <c r="B156"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157"/>
+    <row r="146" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="12">
+        <v>142</v>
+      </c>
+      <c r="B146" s="26">
+        <v>71</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F146" s="18">
+        <v>1</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A147" s="12">
+        <v>143</v>
+      </c>
+      <c r="B147" s="26">
+        <v>71</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D147" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="F147" s="18">
+        <v>2</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A148" s="12">
+        <v>144</v>
+      </c>
+      <c r="B148" s="26">
+        <v>71</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D148" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F148" s="18">
+        <v>2</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A149" s="12">
+        <v>145</v>
+      </c>
+      <c r="B149" s="26">
+        <v>72</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F149" s="18">
+        <v>1</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="12">
+        <v>146</v>
+      </c>
+      <c r="B150" s="26">
+        <v>72</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F150" s="18">
+        <v>2</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A151" s="12">
+        <v>147</v>
+      </c>
+      <c r="B151" s="26">
+        <v>72</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="D151" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F151" s="18">
+        <v>2</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A152" s="12">
+        <v>148</v>
+      </c>
+      <c r="B152" s="26">
+        <v>72</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D152" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F152" s="18">
+        <v>2</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A153" s="12">
+        <v>149</v>
+      </c>
+      <c r="B153" s="26">
+        <v>73</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F153" s="18">
+        <v>1</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A154" s="12">
+        <v>150</v>
+      </c>
+      <c r="B154" s="26">
+        <v>73</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E154" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F154" s="18">
+        <v>2</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A155" s="12">
+        <v>151</v>
+      </c>
+      <c r="B155" s="26">
+        <v>73</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D155" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E155" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F155" s="18">
+        <v>2</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A156" s="12">
+        <v>152</v>
+      </c>
+      <c r="B156" s="26">
+        <v>74</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D156" s="15">
+        <v>1</v>
+      </c>
+      <c r="E156" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F156" s="18">
+        <v>1</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A157" s="12">
+        <v>153</v>
+      </c>
+      <c r="B157" s="26">
+        <v>74</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D157" s="15">
+        <v>1</v>
+      </c>
+      <c r="E157" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F157" s="18">
+        <v>2</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158"/>
-      <c r="B158"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159"/>
+      <c r="B159"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160"/>
-      <c r="B160"/>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B160" s="22"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="17"/>
+    </row>
+    <row r="161" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161"/>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B161" s="17"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="18"/>
+      <c r="E161" s="18"/>
+      <c r="F161" s="18"/>
+      <c r="G161" s="18"/>
+      <c r="H161" s="18"/>
+    </row>
+    <row r="162" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162"/>
-      <c r="B162"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B162" s="22"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="18"/>
+      <c r="E162" s="18"/>
+      <c r="F162" s="18"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="18"/>
+    </row>
+    <row r="163" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163"/>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B163" s="17"/>
+      <c r="C163" s="18"/>
+      <c r="D163" s="18"/>
+      <c r="E163" s="18"/>
+      <c r="F163" s="18"/>
+      <c r="G163" s="18"/>
+      <c r="H163" s="18"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164"/>
-      <c r="B164"/>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B164" s="22"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165"/>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B165" s="17"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166"/>
-      <c r="B166"/>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B166" s="22"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="17"/>
+      <c r="H166" s="17"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167"/>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B167" s="17"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="17"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="17"/>
+      <c r="H167" s="17"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168"/>
-      <c r="B168"/>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169"/>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B169"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170"/>
-      <c r="B170"/>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B171"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172"/>
-      <c r="B172"/>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173"/>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B173"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174"/>
-      <c r="B174"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175"/>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B175"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176"/>
-      <c r="B176"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177"/>
+      <c r="B177"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178"/>
-      <c r="B178"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179"/>
+      <c r="B179"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180"/>
-      <c r="B180"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181"/>
+      <c r="B181"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182"/>
-      <c r="B182"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183"/>
+      <c r="B183"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184"/>
-      <c r="B184"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185"/>
+      <c r="B185"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186"/>
-      <c r="B186"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187"/>
+      <c r="B187"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188"/>
-      <c r="B188"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189"/>
+      <c r="B189"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190"/>
-      <c r="B190"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191"/>
+      <c r="B191"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192"/>
-      <c r="B192"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193"/>
+      <c r="B193"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194"/>
-      <c r="B194"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195"/>
+      <c r="B195"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196"/>
-      <c r="B196"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197"/>
+      <c r="B197"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198"/>
-      <c r="B198"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199"/>
+      <c r="B199"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200"/>
-      <c r="B200"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201"/>
+      <c r="B201"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202"/>
-      <c r="B202"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203"/>
+      <c r="B203"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204"/>
-      <c r="B204"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205"/>
+      <c r="B205"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206"/>
-      <c r="B206"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207"/>
+      <c r="B207"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208"/>
-      <c r="B208"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209"/>
+      <c r="B209"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210"/>
-      <c r="B210"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211"/>
+      <c r="B211"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212"/>
-      <c r="B212"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213"/>
+      <c r="B213"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214"/>
-      <c r="B214"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215"/>
+      <c r="B215"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216"/>
-      <c r="B216"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217"/>
+      <c r="B217"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218"/>
-      <c r="B218"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219"/>
+      <c r="B219"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220"/>
-      <c r="B220"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221"/>
+      <c r="B221"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222"/>
-      <c r="B222"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223"/>
+      <c r="B223"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224"/>
-      <c r="B224"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225"/>
+      <c r="B225"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226"/>
-      <c r="B226"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227"/>
+      <c r="B227"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228"/>
-      <c r="B228"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229"/>
+      <c r="B229"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230"/>
-      <c r="B230"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231"/>
+      <c r="B231"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232"/>
-      <c r="B232"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233"/>
+      <c r="B233"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234"/>
-      <c r="B234"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235"/>
+      <c r="B235"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236"/>
-      <c r="B236"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237"/>
+      <c r="B237"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238"/>
-      <c r="B238"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239"/>
+      <c r="B239"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240"/>
-      <c r="B240"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241"/>
+      <c r="B241"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242"/>
-      <c r="B242"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243"/>
+      <c r="B243"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244"/>
-      <c r="B244"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245"/>
+      <c r="B245"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246"/>
-      <c r="B246"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247"/>
+      <c r="B247"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248"/>
-      <c r="B248"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249"/>
+      <c r="B249"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250"/>
-      <c r="B250"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251"/>
+      <c r="B251"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252"/>
-      <c r="B252"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253"/>
+      <c r="B253"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254"/>
-      <c r="B254"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255"/>
+      <c r="B255"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256"/>
-      <c r="B256"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257"/>
+      <c r="B257"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258"/>
-      <c r="B258"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259"/>
+      <c r="B259"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260"/>
-      <c r="B260"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261"/>
+      <c r="B261"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262"/>
-      <c r="B262"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263"/>
+      <c r="B263"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264"/>
-      <c r="B264"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265"/>
+      <c r="B265"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266"/>
-      <c r="B266"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267"/>
+      <c r="B267"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268"/>
-      <c r="B268"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269"/>
+      <c r="B269"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270"/>
-      <c r="B270"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271"/>
+      <c r="B271"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272"/>
-      <c r="B272"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273"/>
+      <c r="B273"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274"/>
-      <c r="B274"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275"/>
+      <c r="B275"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276"/>
-      <c r="B276"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277"/>
+      <c r="B277"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278"/>
-      <c r="B278"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279"/>
+      <c r="B279"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280"/>
-      <c r="B280"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281"/>
+      <c r="B281"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282"/>
-      <c r="B282"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283"/>
+      <c r="B283"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284"/>
-      <c r="B284"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285"/>
+      <c r="B285"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286"/>
-      <c r="B286"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287"/>
+      <c r="B287"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288"/>
-      <c r="B288"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289"/>
+      <c r="B289"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290"/>
-      <c r="B290"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291"/>
+      <c r="B291"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292"/>
-      <c r="B292"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293"/>
+      <c r="B293"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294"/>
-      <c r="B294"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295"/>
+      <c r="B295"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296"/>
-      <c r="B296"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297"/>
+      <c r="B297"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298"/>
-      <c r="B298"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299"/>
+      <c r="B299"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300"/>
-      <c r="B300"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301"/>
+      <c r="B301"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302"/>
-      <c r="B302"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303"/>
+      <c r="B303"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304"/>
-      <c r="B304"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305"/>
+      <c r="B305"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306"/>
-      <c r="B306"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307"/>
+      <c r="B307"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308"/>
-      <c r="B308"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309"/>
+      <c r="B309"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310"/>
-      <c r="B310"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311"/>
+      <c r="B311"/>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312"/>
-      <c r="B312"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313"/>
+      <c r="B313"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314"/>
-      <c r="B314"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315"/>
+      <c r="B315"/>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316"/>
-      <c r="B316"/>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317"/>
+      <c r="B317"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="362">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -1328,12 +1328,132 @@
     <t>Image/Head/4;Image/Head/12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>怡嫔，奴才替贵妃娘娘问话。为何要掌你的嘴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫔妾污蔑贵妃，以下犯上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵妃娘娘再问，记住今后慎言了吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫔妾铭记于心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要打了，姐姐因为我犯错。贵妃娘娘要罚就罚我。要打就打我吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵人，快回去吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枇杷膏里有毒的，为什么验不出来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枇杷新叶有毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞你在胡说什么。不知道的事情不要乱说。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奴才幼时很爱吃枇杷，误吃了果核，呼吸困难。后来游医告诉我，枇杷的老叶无毒，新叶跟果核有毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来是这样，你随我去见皇后。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵人万万不可，难道一个小小宫女的话比张院判还准。璎珞你什么话都敢说，不想要命了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张嬷嬷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉贵人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉贵人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怡嫔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怡嫔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/9;Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/13;Image/Head/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/16;Image/Head/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/16;Image/Head/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/15;Image/Head/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/Head/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -1374,12 +1494,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1418,7 +1532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1459,9 +1573,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1473,9 +1584,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1489,6 +1597,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1832,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4267,7 +4390,7 @@
       <c r="D106" s="15">
         <v>1</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="11" t="s">
         <v>222</v>
       </c>
       <c r="F106" s="11">
@@ -4290,7 +4413,7 @@
       <c r="D107" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="11" t="s">
         <v>224</v>
       </c>
       <c r="F107" s="11">
@@ -4313,7 +4436,7 @@
       <c r="D108" s="15">
         <v>1</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="11" t="s">
         <v>224</v>
       </c>
       <c r="F108" s="11">
@@ -4336,7 +4459,7 @@
       <c r="D109" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="11" t="s">
         <v>222</v>
       </c>
       <c r="F109" s="11">
@@ -4359,7 +4482,7 @@
       <c r="D110" s="15">
         <v>1</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="11" t="s">
         <v>228</v>
       </c>
       <c r="F110" s="11">
@@ -4382,7 +4505,7 @@
       <c r="D111" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="11" t="s">
         <v>222</v>
       </c>
       <c r="F111" s="11">
@@ -4405,7 +4528,7 @@
       <c r="D112" s="15">
         <v>1</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="11" t="s">
         <v>224</v>
       </c>
       <c r="F112" s="11">
@@ -4428,7 +4551,7 @@
       <c r="D113" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="11" t="s">
         <v>232</v>
       </c>
       <c r="F113" s="11">
@@ -4451,7 +4574,7 @@
       <c r="D114" s="15">
         <v>1</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="11" t="s">
         <v>234</v>
       </c>
       <c r="F114" s="11">
@@ -4474,7 +4597,7 @@
       <c r="D115" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="11" t="s">
         <v>236</v>
       </c>
       <c r="F115" s="11">
@@ -4497,7 +4620,7 @@
       <c r="D116" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="11" t="s">
         <v>234</v>
       </c>
       <c r="F116" s="11">
@@ -4520,7 +4643,7 @@
       <c r="D117" s="15">
         <v>1</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="11" t="s">
         <v>228</v>
       </c>
       <c r="F117" s="11">
@@ -4543,7 +4666,7 @@
       <c r="D118" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="11" t="s">
         <v>232</v>
       </c>
       <c r="F118" s="11">
@@ -4566,13 +4689,13 @@
       <c r="D119">
         <v>1</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="11" t="s">
         <v>249</v>
       </c>
       <c r="F119" s="11">
         <v>1</v>
       </c>
-      <c r="G119" s="19" t="s">
+      <c r="G119" s="18" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4589,13 +4712,13 @@
       <c r="D120" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="11" t="s">
         <v>251</v>
       </c>
       <c r="F120" s="11">
         <v>2</v>
       </c>
-      <c r="G120" s="19" t="s">
+      <c r="G120" s="18" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4612,7 +4735,7 @@
       <c r="D121">
         <v>1</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="11" t="s">
         <v>254</v>
       </c>
       <c r="F121" s="11">
@@ -4635,7 +4758,7 @@
       <c r="D122">
         <v>1</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="11" t="s">
         <v>256</v>
       </c>
       <c r="F122" s="11">
@@ -4658,7 +4781,7 @@
       <c r="D123" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E123" s="16" t="s">
+      <c r="E123" s="11" t="s">
         <v>258</v>
       </c>
       <c r="F123" s="11">
@@ -4681,7 +4804,7 @@
       <c r="D124" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="11" t="s">
         <v>260</v>
       </c>
       <c r="F124" s="11">
@@ -4704,7 +4827,7 @@
       <c r="D125">
         <v>1</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="11" t="s">
         <v>262</v>
       </c>
       <c r="F125" s="11">
@@ -4727,7 +4850,7 @@
       <c r="D126" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="E126" s="11" t="s">
         <v>260</v>
       </c>
       <c r="F126" s="11">
@@ -4750,7 +4873,7 @@
       <c r="D127">
         <v>1</v>
       </c>
-      <c r="E127" s="16" t="s">
+      <c r="E127" s="11" t="s">
         <v>265</v>
       </c>
       <c r="F127" s="11">
@@ -4773,7 +4896,7 @@
       <c r="D128" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E128" s="11" t="s">
         <v>267</v>
       </c>
       <c r="F128" s="11">
@@ -4796,7 +4919,7 @@
       <c r="D129">
         <v>1</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="E129" s="11" t="s">
         <v>265</v>
       </c>
       <c r="F129" s="11">
@@ -4819,7 +4942,7 @@
       <c r="D130" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E130" s="16" t="s">
+      <c r="E130" s="11" t="s">
         <v>270</v>
       </c>
       <c r="F130" s="11">
@@ -4842,7 +4965,7 @@
       <c r="D131">
         <v>1</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="E131" s="11" t="s">
         <v>282</v>
       </c>
       <c r="F131" s="11">
@@ -4865,7 +4988,7 @@
       <c r="D132">
         <v>1</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="E132" s="11" t="s">
         <v>284</v>
       </c>
       <c r="F132" s="11">
@@ -4888,7 +5011,7 @@
       <c r="D133" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="E133" s="11" t="s">
         <v>286</v>
       </c>
       <c r="F133" s="11">
@@ -4902,32 +5025,32 @@
       <c r="A134" s="12">
         <v>130</v>
       </c>
-      <c r="B134" s="26">
+      <c r="B134" s="24">
         <v>65</v>
       </c>
       <c r="C134" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="D134" s="25">
-        <v>1</v>
-      </c>
-      <c r="E134" s="21" t="s">
+      <c r="D134" s="23">
+        <v>1</v>
+      </c>
+      <c r="E134" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="F134" s="24">
-        <v>1</v>
-      </c>
-      <c r="G134" s="23" t="s">
+      <c r="F134" s="22">
+        <v>1</v>
+      </c>
+      <c r="G134" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="H134" s="17"/>
-      <c r="I134" s="17"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="16"/>
     </row>
     <row r="135" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="12">
         <v>131</v>
       </c>
-      <c r="B135" s="26">
+      <c r="B135" s="24">
         <v>65</v>
       </c>
       <c r="C135" s="12" t="s">
@@ -4936,48 +5059,48 @@
       <c r="D135" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E135" s="21" t="s">
+      <c r="E135" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="F135" s="24">
-        <v>2</v>
-      </c>
-      <c r="G135" s="23" t="s">
+      <c r="F135" s="22">
+        <v>2</v>
+      </c>
+      <c r="G135" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="H135" s="17"/>
-      <c r="I135" s="17"/>
+      <c r="H135" s="16"/>
+      <c r="I135" s="16"/>
     </row>
     <row r="136" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="12">
         <v>132</v>
       </c>
-      <c r="B136" s="26">
+      <c r="B136" s="24">
         <v>66</v>
       </c>
       <c r="C136" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="D136" s="25">
-        <v>1</v>
-      </c>
-      <c r="E136" s="21" t="s">
+      <c r="D136" s="23">
+        <v>1</v>
+      </c>
+      <c r="E136" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="F136" s="24">
-        <v>1</v>
-      </c>
-      <c r="G136" s="23" t="s">
+      <c r="F136" s="22">
+        <v>1</v>
+      </c>
+      <c r="G136" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="H136" s="17"/>
-      <c r="I136" s="17"/>
+      <c r="H136" s="16"/>
+      <c r="I136" s="16"/>
     </row>
     <row r="137" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="12">
         <v>133</v>
       </c>
-      <c r="B137" s="26">
+      <c r="B137" s="24">
         <v>66</v>
       </c>
       <c r="C137" s="12" t="s">
@@ -4986,73 +5109,73 @@
       <c r="D137" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E137" s="18" t="s">
+      <c r="E137" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="F137" s="18">
-        <v>2</v>
-      </c>
-      <c r="G137" s="20" t="s">
+      <c r="F137" s="17">
+        <v>2</v>
+      </c>
+      <c r="G137" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="H137" s="18"/>
-      <c r="I137" s="17"/>
+      <c r="H137" s="17"/>
+      <c r="I137" s="16"/>
     </row>
     <row r="138" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="12">
         <v>134</v>
       </c>
-      <c r="B138" s="26">
+      <c r="B138" s="24">
         <v>67</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="D138" s="18">
-        <v>1</v>
-      </c>
-      <c r="E138" s="18" t="s">
+      <c r="D138" s="17">
+        <v>1</v>
+      </c>
+      <c r="E138" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="F138" s="18">
-        <v>1</v>
-      </c>
-      <c r="G138" s="20" t="s">
+      <c r="F138" s="17">
+        <v>1</v>
+      </c>
+      <c r="G138" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="H138" s="18"/>
-      <c r="I138" s="17"/>
+      <c r="H138" s="17"/>
+      <c r="I138" s="16"/>
     </row>
     <row r="139" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="12">
         <v>135</v>
       </c>
-      <c r="B139" s="26">
+      <c r="B139" s="24">
         <v>68</v>
       </c>
       <c r="C139" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="D139" s="18">
-        <v>1</v>
-      </c>
-      <c r="E139" s="18" t="s">
+      <c r="D139" s="17">
+        <v>1</v>
+      </c>
+      <c r="E139" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="F139" s="18">
-        <v>1</v>
-      </c>
-      <c r="G139" s="20" t="s">
+      <c r="F139" s="17">
+        <v>1</v>
+      </c>
+      <c r="G139" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="H139" s="18"/>
-      <c r="I139" s="17"/>
+      <c r="H139" s="17"/>
+      <c r="I139" s="16"/>
     </row>
     <row r="140" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="12">
         <v>136</v>
       </c>
-      <c r="B140" s="26">
+      <c r="B140" s="24">
         <v>68</v>
       </c>
       <c r="C140" s="12" t="s">
@@ -5061,23 +5184,23 @@
       <c r="D140" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E140" s="18" t="s">
+      <c r="E140" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="F140" s="18">
-        <v>2</v>
-      </c>
-      <c r="G140" s="20" t="s">
+      <c r="F140" s="17">
+        <v>2</v>
+      </c>
+      <c r="G140" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="H140" s="18"/>
-      <c r="I140" s="17"/>
+      <c r="H140" s="17"/>
+      <c r="I140" s="16"/>
     </row>
     <row r="141" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="12">
         <v>137</v>
       </c>
-      <c r="B141" s="26">
+      <c r="B141" s="24">
         <v>68</v>
       </c>
       <c r="C141" s="12" t="s">
@@ -5086,23 +5209,23 @@
       <c r="D141" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E141" s="18" t="s">
+      <c r="E141" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="F141" s="18">
-        <v>2</v>
-      </c>
-      <c r="G141" s="20" t="s">
+      <c r="F141" s="17">
+        <v>2</v>
+      </c>
+      <c r="G141" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="H141" s="18"/>
-      <c r="I141" s="17"/>
+      <c r="H141" s="17"/>
+      <c r="I141" s="16"/>
     </row>
     <row r="142" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="12">
         <v>138</v>
       </c>
-      <c r="B142" s="26">
+      <c r="B142" s="24">
         <v>69</v>
       </c>
       <c r="C142" s="12" t="s">
@@ -5111,23 +5234,23 @@
       <c r="D142" s="15">
         <v>1</v>
       </c>
-      <c r="E142" s="21" t="s">
+      <c r="E142" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="F142" s="18">
-        <v>1</v>
-      </c>
-      <c r="G142" s="24" t="s">
+      <c r="F142" s="17">
+        <v>1</v>
+      </c>
+      <c r="G142" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="H142" s="17"/>
-      <c r="I142" s="17"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="16"/>
     </row>
     <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A143" s="12">
         <v>139</v>
       </c>
-      <c r="B143" s="26">
+      <c r="B143" s="24">
         <v>69</v>
       </c>
       <c r="C143" s="12" t="s">
@@ -5136,48 +5259,48 @@
       <c r="D143" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E143" s="21" t="s">
+      <c r="E143" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="F143" s="18">
-        <v>2</v>
-      </c>
-      <c r="G143" s="24" t="s">
+      <c r="F143" s="17">
+        <v>2</v>
+      </c>
+      <c r="G143" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="H143" s="17"/>
-      <c r="I143" s="17"/>
+      <c r="H143" s="16"/>
+      <c r="I143" s="16"/>
     </row>
     <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A144" s="12">
         <v>140</v>
       </c>
-      <c r="B144" s="26">
+      <c r="B144" s="24">
         <v>70</v>
       </c>
       <c r="C144" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="D144" s="17">
-        <v>1</v>
-      </c>
-      <c r="E144" s="21" t="s">
+      <c r="D144" s="16">
+        <v>1</v>
+      </c>
+      <c r="E144" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="F144" s="18">
-        <v>1</v>
-      </c>
-      <c r="G144" s="24" t="s">
+      <c r="F144" s="17">
+        <v>1</v>
+      </c>
+      <c r="G144" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="H144" s="17"/>
-      <c r="I144" s="17"/>
+      <c r="H144" s="16"/>
+      <c r="I144" s="16"/>
     </row>
     <row r="145" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A145" s="12">
         <v>141</v>
       </c>
-      <c r="B145" s="26">
+      <c r="B145" s="24">
         <v>70</v>
       </c>
       <c r="C145" s="12" t="s">
@@ -5186,22 +5309,22 @@
       <c r="D145" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E145" s="21" t="s">
+      <c r="E145" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="F145" s="18">
-        <v>2</v>
-      </c>
-      <c r="G145" s="24" t="s">
+      <c r="F145" s="17">
+        <v>2</v>
+      </c>
+      <c r="G145" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="H145" s="17"/>
+      <c r="H145" s="16"/>
     </row>
     <row r="146" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="12">
         <v>142</v>
       </c>
-      <c r="B146" s="26">
+      <c r="B146" s="24">
         <v>71</v>
       </c>
       <c r="C146" s="12" t="s">
@@ -5210,10 +5333,10 @@
       <c r="D146">
         <v>1</v>
       </c>
-      <c r="E146" s="16" t="s">
+      <c r="E146" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="F146" s="18">
+      <c r="F146" s="17">
         <v>1</v>
       </c>
       <c r="G146" s="11" t="s">
@@ -5224,7 +5347,7 @@
       <c r="A147" s="12">
         <v>143</v>
       </c>
-      <c r="B147" s="26">
+      <c r="B147" s="24">
         <v>71</v>
       </c>
       <c r="C147" s="12" t="s">
@@ -5233,10 +5356,10 @@
       <c r="D147" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E147" s="16" t="s">
+      <c r="E147" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="F147" s="18">
+      <c r="F147" s="17">
         <v>2</v>
       </c>
       <c r="G147" s="11" t="s">
@@ -5247,7 +5370,7 @@
       <c r="A148" s="12">
         <v>144</v>
       </c>
-      <c r="B148" s="26">
+      <c r="B148" s="24">
         <v>71</v>
       </c>
       <c r="C148" s="12" t="s">
@@ -5256,10 +5379,10 @@
       <c r="D148" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E148" s="16" t="s">
+      <c r="E148" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="F148" s="18">
+      <c r="F148" s="17">
         <v>2</v>
       </c>
       <c r="G148" s="11" t="s">
@@ -5270,7 +5393,7 @@
       <c r="A149" s="12">
         <v>145</v>
       </c>
-      <c r="B149" s="26">
+      <c r="B149" s="24">
         <v>72</v>
       </c>
       <c r="C149" s="12" t="s">
@@ -5279,10 +5402,10 @@
       <c r="D149">
         <v>1</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="E149" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="F149" s="18">
+      <c r="F149" s="17">
         <v>1</v>
       </c>
       <c r="G149" s="11" t="s">
@@ -5293,7 +5416,7 @@
       <c r="A150" s="12">
         <v>146</v>
       </c>
-      <c r="B150" s="26">
+      <c r="B150" s="24">
         <v>72</v>
       </c>
       <c r="C150" s="12" t="s">
@@ -5302,10 +5425,10 @@
       <c r="D150" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E150" s="16" t="s">
+      <c r="E150" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="F150" s="18">
+      <c r="F150" s="17">
         <v>2</v>
       </c>
       <c r="G150" s="11" t="s">
@@ -5316,7 +5439,7 @@
       <c r="A151" s="12">
         <v>147</v>
       </c>
-      <c r="B151" s="26">
+      <c r="B151" s="24">
         <v>72</v>
       </c>
       <c r="C151" s="12" t="s">
@@ -5325,10 +5448,10 @@
       <c r="D151" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E151" s="16" t="s">
+      <c r="E151" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="F151" s="18">
+      <c r="F151" s="17">
         <v>2</v>
       </c>
       <c r="G151" s="11" t="s">
@@ -5339,7 +5462,7 @@
       <c r="A152" s="12">
         <v>148</v>
       </c>
-      <c r="B152" s="26">
+      <c r="B152" s="24">
         <v>72</v>
       </c>
       <c r="C152" s="12" t="s">
@@ -5348,10 +5471,10 @@
       <c r="D152" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E152" s="16" t="s">
+      <c r="E152" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="F152" s="18">
+      <c r="F152" s="17">
         <v>2</v>
       </c>
       <c r="G152" s="11" t="s">
@@ -5362,7 +5485,7 @@
       <c r="A153" s="12">
         <v>149</v>
       </c>
-      <c r="B153" s="26">
+      <c r="B153" s="24">
         <v>73</v>
       </c>
       <c r="C153" s="12" t="s">
@@ -5371,10 +5494,10 @@
       <c r="D153">
         <v>1</v>
       </c>
-      <c r="E153" s="16" t="s">
+      <c r="E153" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="F153" s="18">
+      <c r="F153" s="17">
         <v>1</v>
       </c>
       <c r="G153" s="11" t="s">
@@ -5385,7 +5508,7 @@
       <c r="A154" s="12">
         <v>150</v>
       </c>
-      <c r="B154" s="26">
+      <c r="B154" s="24">
         <v>73</v>
       </c>
       <c r="C154" s="12" t="s">
@@ -5394,10 +5517,10 @@
       <c r="D154" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E154" s="16" t="s">
+      <c r="E154" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="F154" s="18">
+      <c r="F154" s="17">
         <v>2</v>
       </c>
       <c r="G154" s="11" t="s">
@@ -5408,7 +5531,7 @@
       <c r="A155" s="12">
         <v>151</v>
       </c>
-      <c r="B155" s="26">
+      <c r="B155" s="24">
         <v>73</v>
       </c>
       <c r="C155" s="12" t="s">
@@ -5417,10 +5540,10 @@
       <c r="D155" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E155" s="16" t="s">
+      <c r="E155" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="F155" s="18">
+      <c r="F155" s="17">
         <v>2</v>
       </c>
       <c r="G155" s="11" t="s">
@@ -5431,7 +5554,7 @@
       <c r="A156" s="12">
         <v>152</v>
       </c>
-      <c r="B156" s="26">
+      <c r="B156" s="24">
         <v>74</v>
       </c>
       <c r="C156" s="12" t="s">
@@ -5440,10 +5563,10 @@
       <c r="D156" s="15">
         <v>1</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="E156" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="F156" s="18">
+      <c r="F156" s="17">
         <v>1</v>
       </c>
       <c r="G156" s="11" t="s">
@@ -5454,7 +5577,7 @@
       <c r="A157" s="12">
         <v>153</v>
       </c>
-      <c r="B157" s="26">
+      <c r="B157" s="24">
         <v>74</v>
       </c>
       <c r="C157" s="12" t="s">
@@ -5463,188 +5586,476 @@
       <c r="D157" s="15">
         <v>1</v>
       </c>
-      <c r="E157" s="16" t="s">
+      <c r="E157" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="F157" s="18">
+      <c r="F157" s="17">
         <v>2</v>
       </c>
       <c r="G157" s="11" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159"/>
-      <c r="B159"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160"/>
-      <c r="B160" s="22"/>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="17"/>
-      <c r="G160" s="17"/>
-      <c r="H160" s="17"/>
-    </row>
-    <row r="161" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A161"/>
-      <c r="B161" s="17"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="18"/>
-      <c r="E161" s="18"/>
-      <c r="F161" s="18"/>
-      <c r="G161" s="18"/>
-      <c r="H161" s="18"/>
-    </row>
-    <row r="162" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162"/>
-      <c r="B162" s="22"/>
-      <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="18"/>
-      <c r="F162" s="18"/>
-      <c r="G162" s="18"/>
-      <c r="H162" s="18"/>
-    </row>
-    <row r="163" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A163"/>
-      <c r="B163" s="17"/>
-      <c r="C163" s="18"/>
-      <c r="D163" s="18"/>
-      <c r="E163" s="18"/>
-      <c r="F163" s="18"/>
-      <c r="G163" s="18"/>
-      <c r="H163" s="18"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164"/>
-      <c r="B164" s="22"/>
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="17"/>
-      <c r="G164" s="17"/>
-      <c r="H164" s="17"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165"/>
-      <c r="B165" s="17"/>
-      <c r="C165" s="17"/>
-      <c r="D165" s="17"/>
-      <c r="E165" s="17"/>
-      <c r="F165" s="17"/>
-      <c r="G165" s="17"/>
-      <c r="H165" s="17"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166"/>
-      <c r="B166" s="22"/>
-      <c r="C166" s="17"/>
-      <c r="D166" s="17"/>
-      <c r="E166" s="17"/>
-      <c r="F166" s="17"/>
-      <c r="G166" s="17"/>
-      <c r="H166" s="17"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167"/>
-      <c r="B167" s="17"/>
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="17"/>
-      <c r="F167" s="17"/>
-      <c r="G167" s="17"/>
-      <c r="H167" s="17"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169"/>
-      <c r="B169"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A158" s="12">
+        <v>154</v>
+      </c>
+      <c r="B158" s="25">
+        <v>75</v>
+      </c>
+      <c r="C158" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="D158" s="27">
+        <v>1</v>
+      </c>
+      <c r="E158" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F158" s="19">
+        <v>1</v>
+      </c>
+      <c r="G158" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A159" s="12">
+        <v>155</v>
+      </c>
+      <c r="B159" s="25">
+        <v>76</v>
+      </c>
+      <c r="C159" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="D159" s="27">
+        <v>1</v>
+      </c>
+      <c r="E159" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="F159" s="19">
+        <v>1</v>
+      </c>
+      <c r="G159" s="13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A160" s="12">
+        <v>156</v>
+      </c>
+      <c r="B160" s="25">
+        <v>76</v>
+      </c>
+      <c r="C160" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="D160" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E160" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="F160" s="19">
+        <v>2</v>
+      </c>
+      <c r="G160" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="H160" s="16"/>
+    </row>
+    <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A161" s="12">
+        <v>157</v>
+      </c>
+      <c r="B161" s="25">
+        <v>76</v>
+      </c>
+      <c r="C161" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="D161" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E161" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="F161" s="19">
+        <v>2</v>
+      </c>
+      <c r="G161" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="H161" s="17"/>
+    </row>
+    <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A162" s="12">
+        <v>158</v>
+      </c>
+      <c r="B162" s="25">
+        <v>77</v>
+      </c>
+      <c r="C162" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="D162" s="19">
+        <v>1</v>
+      </c>
+      <c r="E162" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="F162" s="19">
+        <v>1</v>
+      </c>
+      <c r="G162" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="H162" s="17"/>
+    </row>
+    <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A163" s="12">
+        <v>159</v>
+      </c>
+      <c r="B163" s="25">
+        <v>77</v>
+      </c>
+      <c r="C163" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="D163" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E163" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="F163" s="19">
+        <v>2</v>
+      </c>
+      <c r="G163" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="H163" s="17"/>
+    </row>
+    <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A164" s="12">
+        <v>160</v>
+      </c>
+      <c r="B164" s="25">
+        <v>78</v>
+      </c>
+      <c r="C164" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="D164" s="28">
+        <v>1</v>
+      </c>
+      <c r="E164" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="F164" s="19">
+        <v>1</v>
+      </c>
+      <c r="G164" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="H164" s="16"/>
+    </row>
+    <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A165" s="12">
+        <v>161</v>
+      </c>
+      <c r="B165" s="25">
+        <v>78</v>
+      </c>
+      <c r="C165" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="D165" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E165" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="F165" s="19">
+        <v>2</v>
+      </c>
+      <c r="G165" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="H165" s="16"/>
+    </row>
+    <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A166" s="12">
+        <v>162</v>
+      </c>
+      <c r="B166" s="25">
+        <v>79</v>
+      </c>
+      <c r="C166" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="D166" s="28">
+        <v>1</v>
+      </c>
+      <c r="E166" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="F166" s="19">
+        <v>1</v>
+      </c>
+      <c r="G166" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="H166" s="16"/>
+    </row>
+    <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A167" s="12">
+        <v>163</v>
+      </c>
+      <c r="B167" s="25">
+        <v>79</v>
+      </c>
+      <c r="C167" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="D167" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E167" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="F167" s="19">
+        <v>2</v>
+      </c>
+      <c r="G167" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="H167" s="16"/>
+    </row>
+    <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A168" s="12">
+        <v>164</v>
+      </c>
+      <c r="B168" s="25">
+        <v>80</v>
+      </c>
+      <c r="C168" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="D168" s="29">
+        <v>1</v>
+      </c>
+      <c r="E168" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F168" s="19">
+        <v>1</v>
+      </c>
+      <c r="G168" s="13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A169" s="12">
+        <v>165</v>
+      </c>
+      <c r="B169" s="25">
+        <v>80</v>
+      </c>
+      <c r="C169" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="D169" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E169" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F169" s="19">
+        <v>2</v>
+      </c>
+      <c r="G169" s="13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171"/>
       <c r="B171"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173"/>
       <c r="B173"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175"/>
       <c r="B175"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176"/>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B176" s="20"/>
+      <c r="C176" s="16"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="16"/>
+      <c r="F176" s="16"/>
+      <c r="G176" s="16"/>
+      <c r="H176" s="16"/>
+      <c r="I176" s="16"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177"/>
-      <c r="B177"/>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B177" s="16"/>
+      <c r="C177" s="16"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="16"/>
+      <c r="F177" s="16"/>
+      <c r="G177" s="16"/>
+      <c r="H177" s="16"/>
+      <c r="I177" s="16"/>
+    </row>
+    <row r="178" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178"/>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B178" s="20"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="17"/>
+      <c r="I178" s="16"/>
+    </row>
+    <row r="179" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179"/>
-      <c r="B179"/>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B179" s="16"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="17"/>
+      <c r="H179" s="17"/>
+      <c r="I179" s="16"/>
+    </row>
+    <row r="180" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A180"/>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B180" s="20"/>
+      <c r="C180" s="17"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="17"/>
+      <c r="G180" s="17"/>
+      <c r="H180" s="17"/>
+      <c r="I180" s="16"/>
+    </row>
+    <row r="181" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A181"/>
-      <c r="B181"/>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B181" s="16"/>
+      <c r="C181" s="17"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="17"/>
+      <c r="H181" s="17"/>
+      <c r="I181" s="16"/>
+    </row>
+    <row r="182" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A182"/>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B182" s="20"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="17"/>
+      <c r="G182" s="17"/>
+      <c r="H182" s="17"/>
+      <c r="I182" s="16"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183"/>
-      <c r="B183"/>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B183" s="16"/>
+      <c r="C183" s="16"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="16"/>
+      <c r="F183" s="16"/>
+      <c r="G183" s="16"/>
+      <c r="H183" s="16"/>
+      <c r="I183" s="16"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184"/>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B184" s="20"/>
+      <c r="C184" s="16"/>
+      <c r="D184" s="16"/>
+      <c r="E184" s="16"/>
+      <c r="F184" s="16"/>
+      <c r="G184" s="16"/>
+      <c r="H184" s="16"/>
+      <c r="I184" s="16"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185"/>
-      <c r="B185"/>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B185" s="16"/>
+      <c r="C185" s="16"/>
+      <c r="D185" s="16"/>
+      <c r="E185" s="16"/>
+      <c r="F185" s="16"/>
+      <c r="G185" s="16"/>
+      <c r="H185" s="16"/>
+      <c r="I185" s="16"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186"/>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B186" s="20"/>
+      <c r="C186" s="16"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="16"/>
+      <c r="F186" s="16"/>
+      <c r="G186" s="16"/>
+      <c r="H186" s="16"/>
+      <c r="I186" s="16"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187"/>
-      <c r="B187"/>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B187" s="16"/>
+      <c r="C187" s="16"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="16"/>
+      <c r="F187" s="16"/>
+      <c r="G187" s="16"/>
+      <c r="H187" s="16"/>
+      <c r="I187" s="16"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188"/>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B188" s="20"/>
+      <c r="C188" s="16"/>
+      <c r="D188" s="16"/>
+      <c r="E188" s="16"/>
+      <c r="F188" s="16"/>
+      <c r="G188" s="16"/>
+      <c r="H188" s="16"/>
+      <c r="I188" s="16"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189"/>
       <c r="B189"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191"/>
       <c r="B191"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="353">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Image/Head/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>来人，叉出去。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -194,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/Head/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>娴妃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,10 +254,6 @@
   </si>
   <si>
     <t>臣妾准备了一双玉如意，恭祝娘娘福泽绵长 万事如意。</t>
-  </si>
-  <si>
-    <t>Image/Head/1;Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image/Head/1;Image/Head/4</t>
@@ -495,10 +483,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/Head/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>皇上说你太瘦，赐花。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -624,10 +608,6 @@
   </si>
   <si>
     <t>拉下去，除名。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -765,10 +745,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Image/GameScene/halfbody/2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -961,42 +937,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/Head/8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/8;Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/4;Image/Head/8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/11;Image/Head/8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/4;Image/Head/7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/2;Image/Head/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>旁白</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1085,46 +1025,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/Head/11;Image/Head/7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/0;Image/Head/7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/4;Image/Head/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/4;Image/Head/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/15;Image/Head/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刘太医！还不快给愉贵人喂药？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1273,62 +1173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/Head/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/1;Image/Head/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/1Image/Head/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/15;Image/Head/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/16;Image/Head/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/7;Image/Head/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/4;Image/Head/14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/12;Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/4;Image/Head/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>怡嫔，奴才替贵妃娘娘问话。为何要掌你的嘴。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1409,43 +1253,162 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/Head/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/9;Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/13;Image/Head/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/16;Image/Head/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/16;Image/Head/8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/15;Image/Head/7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/Head/7</t>
+    <t>Image/GameScene/halfbody/1;Image/GameScene/halfbody/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/5</t>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/1;Image/GameScene/halfbody/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/8;Image/GameScene/halfbody/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/4;Image/GameScene/halfbody/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/11;Image/GameScene/halfbody/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/4;Image/GameScene/halfbody/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/2;Image/GameScene/halfbody/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/11;Image/GameScene/halfbody/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/0;Image/GameScene/halfbody/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/4;Image/GameScene/halfbody/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/4;Image/GameScene/halfbody/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/15;Image/GameScene/halfbody/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/1;Image/GameScene/halfbody/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/15;Image/GameScene/halfbody/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/16;Image/GameScene/halfbody/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/7;Image/GameScene/halfbody/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/4;Image/GameScene/halfbody/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/12;Image/GameScene/halfbody/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/4;Image/GameScene/halfbody/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/15;Image/GameScene/halfbody/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/16;Image/GameScene/halfbody/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/16;Image/GameScene/halfbody/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/9;Image/GameScene/halfbody/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/13;Image/GameScene/halfbody/9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1532,7 +1495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1600,9 +1563,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1955,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2033,7 +1993,7 @@
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>20</v>
@@ -2042,7 +2002,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>30</v>
@@ -2062,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D5" s="12">
         <v>1</v>
@@ -2074,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2085,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>37</v>
@@ -2097,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2108,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D7" s="12">
         <v>1</v>
@@ -2120,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2131,7 +2091,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>37</v>
@@ -2143,7 +2103,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2154,7 +2114,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D9" s="12">
         <v>1</v>
@@ -2166,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2177,7 +2137,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>37</v>
@@ -2189,7 +2149,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2200,13 +2160,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D11" s="12">
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F11" s="6">
         <v>2</v>
@@ -2223,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>37</v>
@@ -2235,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2246,19 +2206,19 @@
         <v>4</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F13" s="6">
         <v>2</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.2">
@@ -2269,7 +2229,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
@@ -2281,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2292,7 +2252,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>37</v>
@@ -2304,7 +2264,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2315,7 +2275,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>37</v>
@@ -2327,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2338,7 +2298,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D17" s="12">
         <v>1</v>
@@ -2350,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2361,19 +2321,19 @@
         <v>6</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F18" s="6">
         <v>2</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2384,7 +2344,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>37</v>
@@ -2396,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2407,19 +2367,19 @@
         <v>6</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F20" s="6">
         <v>2</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2430,7 +2390,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>37</v>
@@ -2453,7 +2413,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>37</v>
@@ -2465,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2476,7 +2436,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>37</v>
@@ -2488,7 +2448,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2499,19 +2459,19 @@
         <v>7</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D24" s="12">
         <v>2</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F24" s="6">
         <v>2</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2522,19 +2482,19 @@
         <v>7</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F25" s="6">
         <v>1</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2545,19 +2505,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D26" s="11">
         <v>2</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" s="6">
         <v>2</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2568,19 +2528,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F27" s="6">
         <v>1</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2591,19 +2551,19 @@
         <v>9</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D28" s="11">
         <v>2</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F28" s="6">
         <v>2</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2614,19 +2574,19 @@
         <v>9</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F29" s="6">
         <v>1</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2637,19 +2597,19 @@
         <v>10</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D30" s="11">
         <v>2</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F30" s="6">
         <v>2</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2660,19 +2620,19 @@
         <v>10</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F31" s="6">
         <v>1</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2683,19 +2643,19 @@
         <v>11</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D32" s="11">
         <v>2</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F32" s="6">
         <v>2</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2706,7 +2666,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>37</v>
@@ -2718,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2729,19 +2689,19 @@
         <v>12</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D34" s="11">
         <v>2</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F34" s="6">
         <v>2</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2752,19 +2712,19 @@
         <v>12</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="F35" s="6">
-        <v>1</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2775,19 +2735,19 @@
         <v>12</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F36" s="6">
         <v>2</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2798,10 +2758,10 @@
         <v>12</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>209</v>
+        <v>313</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>43</v>
@@ -2810,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2821,19 +2781,19 @@
         <v>13</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>49</v>
+        <v>314</v>
       </c>
       <c r="D38" s="11">
         <v>1</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F38" s="6">
         <v>1</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2844,19 +2804,19 @@
         <v>14</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="D39" s="11">
         <v>1</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F39" s="6">
         <v>1</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2867,19 +2827,19 @@
         <v>15</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="D40" s="11">
         <v>2</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F40" s="6">
         <v>2</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2890,19 +2850,19 @@
         <v>15</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="D41" s="11">
         <v>1</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F41" s="6">
         <v>1</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2913,19 +2873,19 @@
         <v>15</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="D42" s="11">
         <v>1</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F42" s="6">
         <v>1</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2936,19 +2896,19 @@
         <v>16</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="D43" s="11">
         <v>1</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F43" s="6">
         <v>1</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2959,19 +2919,19 @@
         <v>16</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>69</v>
+        <v>316</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F44" s="6">
         <v>2</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2982,19 +2942,19 @@
         <v>16</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D45" s="12">
         <v>1</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F45" s="6">
         <v>1</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3005,19 +2965,19 @@
         <v>17</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D46" s="12">
         <v>1</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F46" s="6">
         <v>1</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3028,19 +2988,19 @@
         <v>17</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D47" s="12">
         <v>1</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F47" s="6">
         <v>1</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3051,19 +3011,19 @@
         <v>18</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D48" s="12">
         <v>2</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F48" s="6">
         <v>2</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3074,19 +3034,19 @@
         <v>18</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>69</v>
+        <v>316</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F49" s="6">
         <v>1</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3097,19 +3057,19 @@
         <v>19</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D50" s="12">
         <v>1</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F50" s="11">
         <v>1</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3120,19 +3080,19 @@
         <v>19</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>69</v>
+        <v>316</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F51" s="11">
         <v>2</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3143,19 +3103,19 @@
         <v>20</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D52" s="11">
         <v>1</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F52" s="11">
         <v>1</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3166,19 +3126,19 @@
         <v>20</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>69</v>
+        <v>316</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F53" s="11">
         <v>2</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3189,19 +3149,19 @@
         <v>20</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>69</v>
+        <v>316</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F54" s="11">
         <v>1</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3212,19 +3172,19 @@
         <v>21</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D55" s="12">
         <v>1</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F55" s="11">
         <v>1</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3235,19 +3195,19 @@
         <v>21</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>69</v>
+        <v>316</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F56" s="11">
         <v>2</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3258,19 +3218,19 @@
         <v>21</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>69</v>
+        <v>316</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F57" s="11">
         <v>1</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3281,19 +3241,19 @@
         <v>21</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>69</v>
+        <v>316</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F58" s="11">
         <v>2</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3304,19 +3264,19 @@
         <v>22</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D59" s="11">
         <v>1</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F59" s="11">
         <v>1</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3327,19 +3287,19 @@
         <v>22</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>69</v>
+        <v>316</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F60" s="11">
         <v>2</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3350,19 +3310,19 @@
         <v>22</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>69</v>
+        <v>316</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F61" s="11">
         <v>1</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3373,19 +3333,19 @@
         <v>23</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D62" s="11">
         <v>2</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F62" s="11">
         <v>2</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3396,19 +3356,19 @@
         <v>23</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>69</v>
+        <v>316</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F63" s="11">
         <v>1</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3419,19 +3379,19 @@
         <v>23</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>69</v>
+        <v>316</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F64" s="11">
         <v>2</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3442,19 +3402,19 @@
         <v>24</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="D65" s="11">
         <v>1</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F65" s="11">
         <v>1</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3465,19 +3425,19 @@
         <v>24</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F66" s="11">
         <v>2</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3488,19 +3448,19 @@
         <v>25</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D67" s="9">
         <v>1</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F67" s="11">
         <v>1</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3511,19 +3471,19 @@
         <v>26</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D68" s="9">
         <v>1</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F68" s="11">
         <v>1</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3534,19 +3494,19 @@
         <v>27</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D69" s="11">
         <v>1</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F69" s="11">
         <v>1</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3557,19 +3517,19 @@
         <v>28</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D70" s="11">
         <v>1</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F70" s="11">
         <v>1</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3580,19 +3540,19 @@
         <v>29</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D71" s="11">
         <v>2</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F71" s="11">
         <v>2</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3603,19 +3563,19 @@
         <v>29</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F72" s="11">
         <v>1</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3626,19 +3586,19 @@
         <v>30</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D73" s="11">
         <v>1</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F73" s="11">
         <v>1</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3649,19 +3609,19 @@
         <v>31</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D74" s="11">
         <v>2</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F74" s="11">
         <v>2</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3672,19 +3632,19 @@
         <v>31</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F75" s="11">
         <v>1</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3695,19 +3655,19 @@
         <v>32</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D76" s="11">
         <v>1</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F76" s="11">
         <v>1</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3718,19 +3678,19 @@
         <v>33</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D77" s="11">
         <v>1</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F77" s="11">
         <v>1</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3741,19 +3701,19 @@
         <v>34</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D78" s="11">
         <v>1</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F78" s="11">
         <v>1</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3764,19 +3724,19 @@
         <v>35</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D79" s="11">
         <v>1</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F79" s="11">
         <v>1</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3787,19 +3747,19 @@
         <v>35</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F80" s="11">
         <v>2</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3810,19 +3770,19 @@
         <v>36</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D81" s="11">
         <v>1</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F81" s="11">
         <v>1</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3833,19 +3793,19 @@
         <v>36</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D82" s="11">
         <v>1</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F82" s="11">
         <v>1</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3856,19 +3816,19 @@
         <v>37</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D83" s="11">
         <v>1</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F83" s="11">
         <v>1</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3879,19 +3839,19 @@
         <v>38</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D84" s="11">
         <v>1</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F84" s="11">
         <v>1</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3902,19 +3862,19 @@
         <v>38</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>216</v>
+        <v>319</v>
       </c>
       <c r="D85" s="11">
         <v>1</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F85" s="11">
         <v>1</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3925,19 +3885,19 @@
         <v>38</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F86" s="11">
         <v>2</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3948,19 +3908,19 @@
         <v>39</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>126</v>
+        <v>317</v>
       </c>
       <c r="D87" s="11">
         <v>1</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F87" s="11">
         <v>1</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3971,19 +3931,19 @@
         <v>40</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>126</v>
+        <v>317</v>
       </c>
       <c r="D88" s="11">
         <v>1</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F88" s="11">
         <v>1</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -3994,19 +3954,19 @@
         <v>41</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>126</v>
+        <v>317</v>
       </c>
       <c r="D89" s="11">
         <v>1</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F89" s="11">
         <v>1</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4017,19 +3977,19 @@
         <v>42</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>126</v>
+        <v>317</v>
       </c>
       <c r="D90" s="11">
         <v>1</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F90" s="11">
         <v>1</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4040,19 +4000,19 @@
         <v>43</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>191</v>
+        <v>320</v>
       </c>
       <c r="D91" s="11">
         <v>1</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F91" s="11">
         <v>1</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4063,19 +4023,19 @@
         <v>44</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>126</v>
+        <v>317</v>
       </c>
       <c r="D92" s="11">
         <v>1</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F92" s="11">
         <v>1</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4086,19 +4046,19 @@
         <v>44</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>68</v>
+        <v>316</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F93" s="11">
         <v>2</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4109,19 +4069,19 @@
         <v>44</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>68</v>
+        <v>316</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F94" s="11">
         <v>2</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4132,19 +4092,19 @@
         <v>45</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>126</v>
+        <v>317</v>
       </c>
       <c r="D95" s="11">
         <v>1</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F95" s="11">
         <v>1</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4155,19 +4115,19 @@
         <v>46</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>126</v>
+        <v>317</v>
       </c>
       <c r="D96" s="11">
         <v>1</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F96" s="11">
         <v>1</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4178,19 +4138,19 @@
         <v>46</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>68</v>
+        <v>316</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F97" s="11">
         <v>2</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4201,19 +4161,19 @@
         <v>47</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>126</v>
+        <v>317</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F98" s="11">
         <v>1</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4224,19 +4184,19 @@
         <v>47</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>68</v>
+        <v>316</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F99" s="11">
         <v>2</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4247,19 +4207,19 @@
         <v>48</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>126</v>
+        <v>317</v>
       </c>
       <c r="D100" s="15">
         <v>1</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F100" s="11">
         <v>1</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4270,19 +4230,19 @@
         <v>48</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>126</v>
+        <v>317</v>
       </c>
       <c r="D101" s="15">
         <v>1</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F101" s="11">
         <v>1</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4293,19 +4253,19 @@
         <v>49</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>68</v>
+        <v>316</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F102" s="11">
         <v>2</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4316,19 +4276,19 @@
         <v>50</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>126</v>
+        <v>317</v>
       </c>
       <c r="D103" s="15">
         <v>1</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F103" s="11">
         <v>1</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4339,19 +4299,19 @@
         <v>50</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>68</v>
+        <v>316</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F104" s="11">
         <v>2</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4362,19 +4322,19 @@
         <v>50</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>68</v>
+        <v>316</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F105" s="11">
         <v>2</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4385,19 +4345,19 @@
         <v>51</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>240</v>
+        <v>321</v>
       </c>
       <c r="D106" s="15">
         <v>1</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F106" s="11">
         <v>1</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4408,19 +4368,19 @@
         <v>51</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>241</v>
+        <v>322</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F107" s="11">
         <v>2</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4431,19 +4391,19 @@
         <v>52</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>242</v>
+        <v>320</v>
       </c>
       <c r="D108" s="15">
         <v>1</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F108" s="11">
         <v>1</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4454,19 +4414,19 @@
         <v>52</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>243</v>
+        <v>323</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F109" s="11">
         <v>2</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4477,19 +4437,19 @@
         <v>53</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="D110" s="15">
         <v>1</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F110" s="11">
         <v>1</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4500,19 +4460,19 @@
         <v>53</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>245</v>
+        <v>324</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F111" s="11">
         <v>2</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4523,19 +4483,19 @@
         <v>54</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>242</v>
+        <v>320</v>
       </c>
       <c r="D112" s="15">
         <v>1</v>
       </c>
       <c r="E112" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" s="11">
+        <v>1</v>
+      </c>
+      <c r="G112" s="13" t="s">
         <v>224</v>
-      </c>
-      <c r="F112" s="11">
-        <v>1</v>
-      </c>
-      <c r="G112" s="13" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4546,19 +4506,19 @@
         <v>54</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>246</v>
+        <v>325</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F113" s="11">
         <v>2</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4569,19 +4529,19 @@
         <v>55</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>247</v>
+        <v>326</v>
       </c>
       <c r="D114" s="15">
         <v>1</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F114" s="11">
         <v>1</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4592,19 +4552,19 @@
         <v>55</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F115" s="11">
         <v>2</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4615,19 +4575,19 @@
         <v>55</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F116" s="11">
         <v>2</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4638,19 +4598,19 @@
         <v>56</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="D117" s="15">
         <v>1</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F117" s="11">
         <v>1</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4661,19 +4621,19 @@
         <v>56</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F118" s="11">
         <v>2</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4684,19 +4644,19 @@
         <v>57</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="F119" s="11">
         <v>1</v>
       </c>
       <c r="G119" s="18" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4707,19 +4667,19 @@
         <v>57</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="F120" s="11">
         <v>2</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4730,19 +4690,19 @@
         <v>58</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>276</v>
+        <v>331</v>
       </c>
       <c r="D121">
         <v>1</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F121" s="11">
         <v>1</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4753,19 +4713,19 @@
         <v>59</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F122" s="11">
         <v>1</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4776,19 +4736,19 @@
         <v>59</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="F123" s="11">
         <v>2</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4799,19 +4759,19 @@
         <v>59</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="F124" s="11">
         <v>2</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4822,19 +4782,19 @@
         <v>60</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F125" s="11">
         <v>1</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4845,19 +4805,19 @@
         <v>60</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>280</v>
+        <v>335</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="F126" s="11">
         <v>2</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4868,19 +4828,19 @@
         <v>61</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="F127" s="11">
         <v>1</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4891,19 +4851,19 @@
         <v>61</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>277</v>
+        <v>336</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="F128" s="11">
         <v>2</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4914,19 +4874,19 @@
         <v>62</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="D129">
         <v>1</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="F129" s="11">
         <v>1</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4937,19 +4897,19 @@
         <v>62</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="F130" s="11">
         <v>2</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4960,19 +4920,19 @@
         <v>63</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="F131" s="11">
         <v>1</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4983,19 +4943,19 @@
         <v>64</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D132">
         <v>1</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="F132" s="11">
         <v>1</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5006,19 +4966,19 @@
         <v>64</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="F133" s="11">
         <v>2</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5029,19 +4989,19 @@
         <v>65</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="D134" s="23">
         <v>1</v>
       </c>
       <c r="E134" s="22" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="F134" s="22">
         <v>1</v>
       </c>
       <c r="G134" s="21" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="H134" s="16"/>
       <c r="I134" s="16"/>
@@ -5054,19 +5014,19 @@
         <v>65</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E135" s="22" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="F135" s="22">
         <v>2</v>
       </c>
       <c r="G135" s="21" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="H135" s="16"/>
       <c r="I135" s="16"/>
@@ -5079,19 +5039,19 @@
         <v>66</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D136" s="23">
         <v>1</v>
       </c>
       <c r="E136" s="22" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="F136" s="22">
         <v>1</v>
       </c>
       <c r="G136" s="21" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="H136" s="16"/>
       <c r="I136" s="16"/>
@@ -5104,19 +5064,19 @@
         <v>66</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E137" s="17" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="F137" s="17">
         <v>2</v>
       </c>
       <c r="G137" s="19" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="H137" s="17"/>
       <c r="I137" s="16"/>
@@ -5129,19 +5089,19 @@
         <v>67</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="D138" s="17">
         <v>1</v>
       </c>
       <c r="E138" s="17" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="F138" s="17">
         <v>1</v>
       </c>
       <c r="G138" s="19" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="H138" s="17"/>
       <c r="I138" s="16"/>
@@ -5154,19 +5114,19 @@
         <v>68</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="D139" s="17">
         <v>1</v>
       </c>
       <c r="E139" s="17" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="F139" s="17">
         <v>1</v>
       </c>
       <c r="G139" s="19" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="H139" s="17"/>
       <c r="I139" s="16"/>
@@ -5179,19 +5139,19 @@
         <v>68</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E140" s="17" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="F140" s="17">
         <v>2</v>
       </c>
       <c r="G140" s="19" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="H140" s="17"/>
       <c r="I140" s="16"/>
@@ -5204,19 +5164,19 @@
         <v>68</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E141" s="17" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="F141" s="17">
         <v>2</v>
       </c>
       <c r="G141" s="19" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="H141" s="17"/>
       <c r="I141" s="16"/>
@@ -5229,19 +5189,19 @@
         <v>69</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="D142" s="15">
         <v>1</v>
       </c>
       <c r="E142" s="22" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="F142" s="17">
         <v>1</v>
       </c>
       <c r="G142" s="22" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="H142" s="16"/>
       <c r="I142" s="16"/>
@@ -5254,19 +5214,19 @@
         <v>69</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E143" s="22" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="F143" s="17">
         <v>2</v>
       </c>
       <c r="G143" s="22" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="H143" s="16"/>
       <c r="I143" s="16"/>
@@ -5279,19 +5239,19 @@
         <v>70</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="D144" s="16">
         <v>1</v>
       </c>
       <c r="E144" s="22" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="F144" s="17">
         <v>1</v>
       </c>
       <c r="G144" s="22" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="H144" s="16"/>
       <c r="I144" s="16"/>
@@ -5304,19 +5264,19 @@
         <v>70</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E145" s="22" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="F145" s="17">
         <v>2</v>
       </c>
       <c r="G145" s="22" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="H145" s="16"/>
     </row>
@@ -5328,19 +5288,19 @@
         <v>71</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="D146">
         <v>1</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="F146" s="17">
         <v>1</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -5351,19 +5311,19 @@
         <v>71</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="F147" s="17">
         <v>2</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -5374,19 +5334,19 @@
         <v>71</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="F148" s="17">
         <v>2</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -5397,19 +5357,19 @@
         <v>72</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="D149">
         <v>1</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="F149" s="17">
         <v>1</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -5420,19 +5380,19 @@
         <v>72</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="F150" s="17">
         <v>2</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -5443,19 +5403,19 @@
         <v>72</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="F151" s="17">
         <v>2</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -5466,19 +5426,19 @@
         <v>72</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="F152" s="17">
         <v>2</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -5489,19 +5449,19 @@
         <v>73</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="D153">
         <v>1</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="F153" s="17">
         <v>1</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -5512,19 +5472,19 @@
         <v>73</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E154" s="11" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="F154" s="17">
         <v>2</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -5535,19 +5495,19 @@
         <v>73</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="F155" s="17">
         <v>2</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -5558,19 +5518,19 @@
         <v>74</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="D156" s="15">
         <v>1</v>
       </c>
       <c r="E156" s="11" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="F156" s="17">
         <v>1</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -5581,19 +5541,19 @@
         <v>74</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="D157" s="15">
         <v>1</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="F157" s="17">
         <v>2</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -5603,20 +5563,20 @@
       <c r="B158" s="25">
         <v>75</v>
       </c>
-      <c r="C158" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="D158" s="27">
+      <c r="C158" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D158" s="26">
         <v>1</v>
       </c>
       <c r="E158" s="13" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="F158" s="19">
         <v>1</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -5626,20 +5586,20 @@
       <c r="B159" s="25">
         <v>76</v>
       </c>
-      <c r="C159" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="D159" s="27">
+      <c r="C159" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D159" s="26">
         <v>1</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="F159" s="19">
         <v>1</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -5649,20 +5609,20 @@
       <c r="B160" s="25">
         <v>76</v>
       </c>
-      <c r="C160" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="D160" s="27" t="s">
-        <v>190</v>
+      <c r="C160" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="D160" s="26" t="s">
+        <v>185</v>
       </c>
       <c r="E160" s="21" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="F160" s="19">
         <v>2</v>
       </c>
       <c r="G160" s="21" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="H160" s="16"/>
     </row>
@@ -5673,20 +5633,20 @@
       <c r="B161" s="25">
         <v>76</v>
       </c>
-      <c r="C161" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="D161" s="27" t="s">
-        <v>190</v>
+      <c r="C161" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="D161" s="26" t="s">
+        <v>185</v>
       </c>
       <c r="E161" s="19" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="F161" s="19">
         <v>2</v>
       </c>
       <c r="G161" s="19" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="H161" s="17"/>
     </row>
@@ -5697,20 +5657,20 @@
       <c r="B162" s="25">
         <v>77</v>
       </c>
-      <c r="C162" s="26" t="s">
-        <v>356</v>
+      <c r="C162" s="12" t="s">
+        <v>340</v>
       </c>
       <c r="D162" s="19">
         <v>1</v>
       </c>
       <c r="E162" s="19" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="F162" s="19">
         <v>1</v>
       </c>
       <c r="G162" s="19" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="H162" s="17"/>
     </row>
@@ -5721,20 +5681,20 @@
       <c r="B163" s="25">
         <v>77</v>
       </c>
-      <c r="C163" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="D163" s="27" t="s">
-        <v>190</v>
+      <c r="C163" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D163" s="26" t="s">
+        <v>185</v>
       </c>
       <c r="E163" s="19" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="F163" s="19">
         <v>2</v>
       </c>
       <c r="G163" s="19" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="H163" s="17"/>
     </row>
@@ -5745,20 +5705,20 @@
       <c r="B164" s="25">
         <v>78</v>
       </c>
-      <c r="C164" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="D164" s="28">
+      <c r="C164" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="D164" s="27">
         <v>1</v>
       </c>
       <c r="E164" s="21" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="F164" s="19">
         <v>1</v>
       </c>
       <c r="G164" s="21" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="H164" s="16"/>
     </row>
@@ -5769,20 +5729,20 @@
       <c r="B165" s="25">
         <v>78</v>
       </c>
-      <c r="C165" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="D165" s="27" t="s">
-        <v>190</v>
+      <c r="C165" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D165" s="26" t="s">
+        <v>185</v>
       </c>
       <c r="E165" s="21" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="F165" s="19">
         <v>2</v>
       </c>
       <c r="G165" s="21" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="H165" s="16"/>
     </row>
@@ -5793,20 +5753,20 @@
       <c r="B166" s="25">
         <v>79</v>
       </c>
-      <c r="C166" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="D166" s="28">
+      <c r="C166" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D166" s="27">
         <v>1</v>
       </c>
       <c r="E166" s="21" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="F166" s="19">
         <v>1</v>
       </c>
       <c r="G166" s="21" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="H166" s="16"/>
     </row>
@@ -5817,20 +5777,20 @@
       <c r="B167" s="25">
         <v>79</v>
       </c>
-      <c r="C167" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="D167" s="27" t="s">
-        <v>190</v>
+      <c r="C167" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D167" s="26" t="s">
+        <v>185</v>
       </c>
       <c r="E167" s="21" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="F167" s="19">
         <v>2</v>
       </c>
       <c r="G167" s="21" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="H167" s="16"/>
     </row>
@@ -5841,20 +5801,20 @@
       <c r="B168" s="25">
         <v>80</v>
       </c>
-      <c r="C168" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="D168" s="29">
+      <c r="C168" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D168" s="28">
         <v>1</v>
       </c>
       <c r="E168" s="13" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="F168" s="19">
         <v>1</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -5864,20 +5824,20 @@
       <c r="B169" s="25">
         <v>80</v>
       </c>
-      <c r="C169" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="D169" s="27" t="s">
-        <v>190</v>
+      <c r="C169" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="D169" s="26" t="s">
+        <v>185</v>
       </c>
       <c r="E169" s="13" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="F169" s="19">
         <v>2</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="363">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -1409,6 +1409,46 @@
   </si>
   <si>
     <t>Image/GameScene/halfbody/13;Image/GameScene/halfbody/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/9;Image/GameScene/halfbody/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/1;Image/GameScene/halfbody/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/14;Image/GameScene/halfbody/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1915,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87:F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3908,7 +3948,7 @@
         <v>39</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="D87" s="11">
         <v>1</v>
@@ -3931,7 +3971,7 @@
         <v>40</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="D88" s="11">
         <v>1</v>
@@ -3954,7 +3994,7 @@
         <v>41</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="D89" s="11">
         <v>1</v>
@@ -3977,7 +4017,7 @@
         <v>42</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="D90" s="11">
         <v>1</v>
@@ -4023,7 +4063,7 @@
         <v>44</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="D92" s="11">
         <v>1</v>
@@ -4046,7 +4086,7 @@
         <v>44</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>185</v>
@@ -4069,7 +4109,7 @@
         <v>44</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>185</v>
@@ -4092,7 +4132,7 @@
         <v>45</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="D95" s="11">
         <v>1</v>
@@ -4115,7 +4155,7 @@
         <v>46</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="D96" s="11">
         <v>1</v>
@@ -4138,7 +4178,7 @@
         <v>46</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>185</v>
@@ -4161,7 +4201,7 @@
         <v>47</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -4184,7 +4224,7 @@
         <v>47</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>185</v>
@@ -4230,16 +4270,16 @@
         <v>48</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="D101" s="15">
-        <v>1</v>
+        <v>359</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>177</v>
       </c>
       <c r="F101" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>173</v>
@@ -4253,16 +4293,16 @@
         <v>49</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="D102" s="15" t="s">
-        <v>185</v>
+        <v>362</v>
+      </c>
+      <c r="D102" s="15">
+        <v>1</v>
       </c>
       <c r="E102" s="11" t="s">
         <v>177</v>
       </c>
       <c r="F102" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>184</v>
@@ -5039,7 +5079,7 @@
         <v>66</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="D136" s="23">
         <v>1</v>

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="364">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -1449,6 +1449,20 @@
   </si>
   <si>
     <t>Image/GameScene/halfbody/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;2</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1955,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87:F97"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4089,7 +4103,7 @@
         <v>357</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>185</v>
+        <v>363</v>
       </c>
       <c r="E93" s="11" t="s">
         <v>157</v>
@@ -4111,8 +4125,8 @@
       <c r="C94" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="D94" s="15" t="s">
-        <v>185</v>
+      <c r="D94" s="15">
+        <v>1</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>158</v>

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="365">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -1464,6 +1464,9 @@
       <t>;2</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2</t>
   </si>
 </sst>
 </file>
@@ -1969,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4125,14 +4128,14 @@
       <c r="C94" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="D94" s="15">
-        <v>1</v>
+      <c r="D94" s="15" t="s">
+        <v>364</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>158</v>
       </c>
       <c r="F94" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G94" s="13" t="s">
         <v>166</v>

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="TDialogue" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
+    <sheet name="#" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="340">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -663,10 +664,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高贵妃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刘太医，你给愉贵人喝的是什么。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -703,19 +700,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>皇后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>怡嫔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>刘太医</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇后</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1025,31 +1014,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘太医！还不快给愉贵人喂药？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高贵妃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘太医，你给愉贵人喝的是什么。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回禀皇后娘娘，臣给愉贵人诊治，发现是咳疾，喝的枇杷膏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘太医</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你胡说，愉贵人分明是身怀有孕哪里是咳疾。嫔妾猜测，这枇杷膏就是贵妃毒杀皇嗣的证据。</t>
+    <t>我们是秀坊的宫女，张嬷嬷让我把春装送过来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玲珑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这丫头挺机灵的，过来说两句话。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我这不算什么，我们秀坊有个叫璎珞的姑娘，不但绣法巧夺天工，还知道新叶枇杷膏有毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你说什么？枇杷膏？她的名字叫魏璎珞。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奴才给二位娘娘请安。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么说话声音这么大声。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉嫔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奴才从小嗓门就大，嬷嬷打了我好多回。不行，改不了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是你说枇杷新叶有毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对，我小时太贪吃，有一回不小心吃多了。上吐下泻。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上回永和宫那位娘娘也要吃枇杷，被我给劝阻了。（手舞足蹈的说）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么乱七八糟的，颠三倒四，不知所云。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奴才从来没吃过藕粉丸子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你过来，本宫这碗赏你了。还有这些碗，吃完了再走。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵妃娘娘人太好了，都不嫌弃奴才吃的多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赶紧让她滚，本宫看着就心烦。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之后问问内务府，这都招进来什么人，这不就半个傻子，我累了，都退下吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怡嫔，奴才替贵妃娘娘问话。为何要掌你的嘴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫔妾污蔑贵妃，以下犯上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵妃娘娘再问，记住今后慎言了吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫔妾铭记于心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要打了，姐姐因为我犯错。贵妃娘娘要罚就罚我。要打就打我吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵人，快回去吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枇杷膏里有毒的，为什么验不出来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枇杷新叶有毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞你在胡说什么。不知道的事情不要乱说。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奴才幼时很爱吃枇杷，误吃了果核，呼吸困难。后来游医告诉我，枇杷的老叶无毒，新叶跟果核有毒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来是这样，你随我去见皇后。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵人万万不可，难道一个小小宫女的话比张院判还准。璎珞你什么话都敢说，不想要命了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张嬷嬷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉贵人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愉贵人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1057,202 +1170,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大胆怡嫔，竟敢以下犯上，诬陷本宫。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有毒没毒一验便知，张院判。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臣领旨。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张院判</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回禀皇后娘娘，这药的确是枇杷膏。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇后娘娘，一切都是我的错。是我跟怡嫔姐姐商量，现在月份小还不敢确定。等确定了再前来禀报。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>愉贵人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇后娘娘，您都听到了，愉贵人自己都说月份太小，太医诊断是常事。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至于怡嫔，诬陷嫔妾，需交由臣妾处理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们是秀坊的宫女，张嬷嬷让我把春装送过来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玲珑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这丫头挺机灵的，过来说两句话。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>芝兰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我这不算什么，我们秀坊有个叫璎珞的姑娘，不但绣法巧夺天工，还知道新叶枇杷膏有毒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你说什么？枇杷膏？她的名字叫魏璎珞。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奴才给二位娘娘请安。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>璎珞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么说话声音这么大声。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉嫔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奴才从小嗓门就大，嬷嬷打了我好多回。不行，改不了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是你说枇杷新叶有毒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对，我小时太贪吃，有一回不小心吃多了。上吐下泻。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上回永和宫那位娘娘也要吃枇杷，被我给劝阻了。（手舞足蹈的说）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么乱七八糟的，颠三倒四，不知所云。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奴才从来没吃过藕粉丸子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你过来，本宫这碗赏你了。还有这些碗，吃完了再走。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵妃娘娘人太好了，都不嫌弃奴才吃的多。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赶紧让她滚，本宫看着就心烦。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之后问问内务府，这都招进来什么人，这不就半个傻子，我累了，都退下吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怡嫔，奴才替贵妃娘娘问话。为何要掌你的嘴。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嫔妾污蔑贵妃，以下犯上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵妃娘娘再问，记住今后慎言了吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嫔妾铭记于心。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不要打了，姐姐因为我犯错。贵妃娘娘要罚就罚我。要打就打我吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵人，快回去吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枇杷膏里有毒的，为什么验不出来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枇杷新叶有毒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>璎珞你在胡说什么。不知道的事情不要乱说。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奴才幼时很爱吃枇杷，误吃了果核，呼吸困难。后来游医告诉我，枇杷的老叶无毒，新叶跟果核有毒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原来是这样，你随我去见皇后。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵人万万不可，难道一个小小宫女的话比张院判还准。璎珞你什么话都敢说，不想要命了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张嬷嬷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>愉贵人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>璎珞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>愉贵人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宫女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>怡嫔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>芝兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怡嫔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Image/GameScene/halfbody/1;Image/GameScene/halfbody/5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1412,10 +1337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/GameScene/halfbody/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Image/GameScene/halfbody/0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1429,26 +1350,6 @@
   </si>
   <si>
     <t>Image/GameScene/halfbody/9;Image/GameScene/halfbody/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/halfbody/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/halfbody/1;Image/GameScene/halfbody/11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/halfbody/14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/halfbody/14;Image/GameScene/halfbody/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/halfbody/11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1972,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2079,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D5" s="12">
         <v>1</v>
@@ -2102,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>37</v>
@@ -2125,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D7" s="12">
         <v>1</v>
@@ -2148,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>37</v>
@@ -2171,7 +2072,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D9" s="12">
         <v>1</v>
@@ -2194,7 +2095,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>37</v>
@@ -2217,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D11" s="12">
         <v>2</v>
@@ -2240,7 +2141,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>37</v>
@@ -2263,7 +2164,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>37</v>
@@ -2286,7 +2187,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
@@ -2309,7 +2210,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>37</v>
@@ -2332,7 +2233,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>37</v>
@@ -2355,7 +2256,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D17" s="12">
         <v>1</v>
@@ -2378,7 +2279,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>37</v>
@@ -2401,7 +2302,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>37</v>
@@ -2424,7 +2325,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>37</v>
@@ -2447,7 +2348,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>37</v>
@@ -2470,7 +2371,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>37</v>
@@ -2493,7 +2394,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>37</v>
@@ -2516,7 +2417,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D24" s="12">
         <v>2</v>
@@ -2539,7 +2440,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>37</v>
@@ -2562,7 +2463,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D26" s="11">
         <v>2</v>
@@ -2585,7 +2486,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>37</v>
@@ -2608,7 +2509,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D28" s="11">
         <v>2</v>
@@ -2631,7 +2532,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>37</v>
@@ -2654,7 +2555,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D30" s="11">
         <v>2</v>
@@ -2677,7 +2578,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>37</v>
@@ -2700,7 +2601,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D32" s="11">
         <v>2</v>
@@ -2723,7 +2624,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>37</v>
@@ -2746,7 +2647,7 @@
         <v>12</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D34" s="11">
         <v>2</v>
@@ -2769,7 +2670,7 @@
         <v>12</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>37</v>
@@ -2792,7 +2693,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>37</v>
@@ -2815,7 +2716,7 @@
         <v>12</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>84</v>
@@ -2838,7 +2739,7 @@
         <v>13</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="D38" s="11">
         <v>1</v>
@@ -2861,7 +2762,7 @@
         <v>14</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="D39" s="11">
         <v>1</v>
@@ -2884,7 +2785,7 @@
         <v>15</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="D40" s="11">
         <v>2</v>
@@ -2907,7 +2808,7 @@
         <v>15</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="D41" s="11">
         <v>1</v>
@@ -2930,7 +2831,7 @@
         <v>15</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="D42" s="11">
         <v>1</v>
@@ -2953,7 +2854,7 @@
         <v>16</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="D43" s="11">
         <v>1</v>
@@ -2976,7 +2877,7 @@
         <v>16</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>139</v>
@@ -2999,7 +2900,7 @@
         <v>16</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D45" s="12">
         <v>1</v>
@@ -3022,7 +2923,7 @@
         <v>17</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D46" s="12">
         <v>1</v>
@@ -3045,7 +2946,7 @@
         <v>17</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D47" s="12">
         <v>1</v>
@@ -3068,7 +2969,7 @@
         <v>18</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D48" s="12">
         <v>2</v>
@@ -3091,7 +2992,7 @@
         <v>18</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>84</v>
@@ -3114,7 +3015,7 @@
         <v>19</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D50" s="12">
         <v>1</v>
@@ -3137,7 +3038,7 @@
         <v>19</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>84</v>
@@ -3160,7 +3061,7 @@
         <v>20</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D52" s="11">
         <v>1</v>
@@ -3183,7 +3084,7 @@
         <v>20</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>84</v>
@@ -3206,7 +3107,7 @@
         <v>20</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>84</v>
@@ -3229,7 +3130,7 @@
         <v>21</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D55" s="12">
         <v>1</v>
@@ -3252,7 +3153,7 @@
         <v>21</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>84</v>
@@ -3275,7 +3176,7 @@
         <v>21</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>84</v>
@@ -3298,7 +3199,7 @@
         <v>21</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>85</v>
@@ -3321,7 +3222,7 @@
         <v>22</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D59" s="11">
         <v>1</v>
@@ -3344,7 +3245,7 @@
         <v>22</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>85</v>
@@ -3367,7 +3268,7 @@
         <v>22</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>85</v>
@@ -3390,7 +3291,7 @@
         <v>23</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D62" s="11">
         <v>2</v>
@@ -3413,7 +3314,7 @@
         <v>23</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>85</v>
@@ -3436,7 +3337,7 @@
         <v>23</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>85</v>
@@ -3459,7 +3360,7 @@
         <v>24</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="D65" s="11">
         <v>1</v>
@@ -3505,7 +3406,7 @@
         <v>25</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D67" s="9">
         <v>1</v>
@@ -3528,7 +3429,7 @@
         <v>26</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D68" s="9">
         <v>1</v>
@@ -3551,7 +3452,7 @@
         <v>27</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D69" s="11">
         <v>1</v>
@@ -3574,7 +3475,7 @@
         <v>28</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D70" s="11">
         <v>1</v>
@@ -3597,7 +3498,7 @@
         <v>29</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D71" s="11">
         <v>2</v>
@@ -3620,7 +3521,7 @@
         <v>29</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>85</v>
@@ -3643,7 +3544,7 @@
         <v>30</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D73" s="11">
         <v>1</v>
@@ -3666,7 +3567,7 @@
         <v>31</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D74" s="11">
         <v>2</v>
@@ -3689,7 +3590,7 @@
         <v>31</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>85</v>
@@ -3712,7 +3613,7 @@
         <v>32</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D76" s="11">
         <v>1</v>
@@ -3735,7 +3636,7 @@
         <v>33</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D77" s="11">
         <v>1</v>
@@ -3758,7 +3659,7 @@
         <v>34</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D78" s="11">
         <v>1</v>
@@ -3781,7 +3682,7 @@
         <v>35</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D79" s="11">
         <v>1</v>
@@ -3804,7 +3705,7 @@
         <v>35</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D80" s="11" t="s">
         <v>84</v>
@@ -3827,7 +3728,7 @@
         <v>36</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D81" s="11">
         <v>1</v>
@@ -3850,7 +3751,7 @@
         <v>36</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D82" s="11">
         <v>1</v>
@@ -3873,7 +3774,7 @@
         <v>37</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D83" s="11">
         <v>1</v>
@@ -3896,7 +3797,7 @@
         <v>38</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D84" s="11">
         <v>1</v>
@@ -3919,7 +3820,7 @@
         <v>38</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="D85" s="11">
         <v>1</v>
@@ -3942,7 +3843,7 @@
         <v>38</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>84</v>
@@ -3965,7 +3866,7 @@
         <v>39</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="D87" s="11">
         <v>1</v>
@@ -3988,7 +3889,7 @@
         <v>40</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="D88" s="11">
         <v>1</v>
@@ -4011,7 +3912,7 @@
         <v>41</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="D89" s="11">
         <v>1</v>
@@ -4034,7 +3935,7 @@
         <v>42</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="D90" s="11">
         <v>1</v>
@@ -4057,7 +3958,7 @@
         <v>43</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D91" s="11">
         <v>1</v>
@@ -4080,7 +3981,7 @@
         <v>44</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="D92" s="11">
         <v>1</v>
@@ -4103,10 +4004,10 @@
         <v>44</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="E93" s="11" t="s">
         <v>157</v>
@@ -4126,10 +4027,10 @@
         <v>44</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>158</v>
@@ -4149,18 +4050,18 @@
         <v>45</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="D95" s="11">
+        <v>195</v>
+      </c>
+      <c r="D95">
         <v>1</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="F95" s="11">
         <v>1</v>
       </c>
-      <c r="G95" s="11" t="s">
+      <c r="G95" s="13" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4172,19 +4073,19 @@
         <v>46</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="D96" s="11">
+        <v>206</v>
+      </c>
+      <c r="D96">
         <v>1</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c r="F96" s="11">
         <v>1</v>
       </c>
-      <c r="G96" s="11" t="s">
-        <v>169</v>
+      <c r="G96" s="13" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4195,19 +4096,19 @@
         <v>46</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F97" s="11">
         <v>2</v>
       </c>
-      <c r="G97" s="11" t="s">
-        <v>170</v>
+      <c r="G97" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4218,19 +4119,19 @@
         <v>47</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="F98" s="11">
-        <v>1</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>171</v>
+        <v>202</v>
+      </c>
+      <c r="D98" s="23">
+        <v>1</v>
+      </c>
+      <c r="E98" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F98" s="22">
+        <v>1</v>
+      </c>
+      <c r="G98" s="21" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4241,19 +4142,19 @@
         <v>47</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F99" s="11">
-        <v>2</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>172</v>
+        <v>182</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F99" s="22">
+        <v>2</v>
+      </c>
+      <c r="G99" s="21" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4264,19 +4165,19 @@
         <v>48</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="D100" s="15">
-        <v>1</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="F100" s="11">
-        <v>1</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>174</v>
+        <v>206</v>
+      </c>
+      <c r="D100" s="23">
+        <v>1</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F100" s="22">
+        <v>1</v>
+      </c>
+      <c r="G100" s="21" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4287,19 +4188,19 @@
         <v>48</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F101" s="11">
-        <v>2</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>173</v>
+        <v>182</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="F101" s="17">
+        <v>2</v>
+      </c>
+      <c r="G101" s="19" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4310,19 +4211,19 @@
         <v>49</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="D102" s="15">
-        <v>1</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F102" s="11">
-        <v>1</v>
-      </c>
-      <c r="G102" s="11" t="s">
-        <v>184</v>
+        <v>207</v>
+      </c>
+      <c r="D102" s="17">
+        <v>1</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="F102" s="17">
+        <v>1</v>
+      </c>
+      <c r="G102" s="19" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4333,19 +4234,19 @@
         <v>50</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="D103" s="15">
-        <v>1</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="F103" s="11">
-        <v>1</v>
-      </c>
-      <c r="G103" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D103" s="17">
+        <v>1</v>
+      </c>
+      <c r="E103" s="17" t="s">
         <v>175</v>
+      </c>
+      <c r="F103" s="17">
+        <v>1</v>
+      </c>
+      <c r="G103" s="19" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4356,19 +4257,19 @@
         <v>50</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F104" s="11">
-        <v>2</v>
-      </c>
-      <c r="G104" s="11" t="s">
         <v>182</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F104" s="17">
+        <v>2</v>
+      </c>
+      <c r="G104" s="19" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4379,19 +4280,19 @@
         <v>50</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>316</v>
+        <v>195</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E105" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F105" s="11">
-        <v>2</v>
-      </c>
-      <c r="G105" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F105" s="17">
+        <v>2</v>
+      </c>
+      <c r="G105" s="19" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4402,19 +4303,19 @@
         <v>51</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="D106" s="15">
         <v>1</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F106" s="11">
         <v>1</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4425,19 +4326,19 @@
         <v>51</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F107" s="11">
         <v>2</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4448,19 +4349,19 @@
         <v>52</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D108" s="15">
         <v>1</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F108" s="11">
         <v>1</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4471,19 +4372,19 @@
         <v>52</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F109" s="11">
         <v>2</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4494,19 +4395,19 @@
         <v>53</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="D110" s="15">
         <v>1</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F110" s="11">
         <v>1</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4517,19 +4418,19 @@
         <v>53</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F111" s="11">
         <v>2</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4540,19 +4441,19 @@
         <v>54</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D112" s="15">
         <v>1</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F112" s="11">
         <v>1</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4563,19 +4464,19 @@
         <v>54</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F113" s="11">
         <v>2</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4586,19 +4487,19 @@
         <v>55</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="D114" s="15">
         <v>1</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F114" s="11">
         <v>1</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4609,19 +4510,19 @@
         <v>55</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F115" s="11">
         <v>2</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4632,19 +4533,19 @@
         <v>55</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E116" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F116" s="11">
+        <v>2</v>
+      </c>
+      <c r="G116" s="13" t="s">
         <v>228</v>
-      </c>
-      <c r="F116" s="11">
-        <v>2</v>
-      </c>
-      <c r="G116" s="13" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4655,19 +4556,19 @@
         <v>56</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="D117" s="15">
         <v>1</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F117" s="11">
         <v>1</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4678,19 +4579,19 @@
         <v>56</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F118" s="11">
         <v>2</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4701,19 +4602,19 @@
         <v>57</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F119" s="11">
         <v>1</v>
       </c>
       <c r="G119" s="18" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4724,19 +4625,19 @@
         <v>57</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F120" s="11">
         <v>2</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4747,19 +4648,19 @@
         <v>58</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="D121">
         <v>1</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" s="11">
         <v>1</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4770,19 +4671,19 @@
         <v>59</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" s="11">
         <v>1</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4793,19 +4694,19 @@
         <v>59</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" s="11">
         <v>2</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4816,19 +4717,19 @@
         <v>59</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" s="11">
         <v>2</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4839,19 +4740,19 @@
         <v>60</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F125" s="11">
         <v>1</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4862,19 +4763,19 @@
         <v>60</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E126" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F126" s="11">
+        <v>2</v>
+      </c>
+      <c r="G126" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" s="11">
-        <v>2</v>
-      </c>
-      <c r="G126" s="11" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4885,19 +4786,19 @@
         <v>61</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F127" s="11">
         <v>1</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4908,19 +4809,19 @@
         <v>61</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F128" s="11">
         <v>2</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4931,19 +4832,19 @@
         <v>62</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="D129">
         <v>1</v>
       </c>
       <c r="E129" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F129" s="11">
+        <v>1</v>
+      </c>
+      <c r="G129" s="11" t="s">
         <v>250</v>
-      </c>
-      <c r="F129" s="11">
-        <v>1</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4954,88 +4855,88 @@
         <v>62</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F130" s="11">
         <v>2</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="12">
         <v>127</v>
       </c>
-      <c r="B131" s="14">
+      <c r="B131" s="24">
         <v>63</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="F131" s="11">
-        <v>1</v>
-      </c>
-      <c r="G131" s="13" t="s">
-        <v>256</v>
+        <v>323</v>
+      </c>
+      <c r="D131" s="15">
+        <v>1</v>
+      </c>
+      <c r="E131" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F131" s="17">
+        <v>1</v>
+      </c>
+      <c r="G131" s="22" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="12">
         <v>128</v>
       </c>
-      <c r="B132" s="14">
-        <v>64</v>
+      <c r="B132" s="24">
+        <v>63</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F132" s="11">
-        <v>1</v>
-      </c>
-      <c r="G132" s="13" t="s">
-        <v>258</v>
+        <v>324</v>
+      </c>
+      <c r="D132" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E132" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="F132" s="17">
+        <v>2</v>
+      </c>
+      <c r="G132" s="22" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="12">
         <v>129</v>
       </c>
-      <c r="B133" s="14">
+      <c r="B133" s="24">
         <v>64</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="D133" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E133" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="F133" s="11">
-        <v>2</v>
-      </c>
-      <c r="G133" s="13" t="s">
-        <v>260</v>
+        <v>323</v>
+      </c>
+      <c r="D133" s="16">
+        <v>1</v>
+      </c>
+      <c r="E133" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F133" s="17">
+        <v>1</v>
+      </c>
+      <c r="G133" s="22" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5043,22 +4944,22 @@
         <v>130</v>
       </c>
       <c r="B134" s="24">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="D134" s="23">
-        <v>1</v>
+        <v>324</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="E134" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="F134" s="22">
-        <v>1</v>
-      </c>
-      <c r="G134" s="21" t="s">
-        <v>262</v>
+        <v>257</v>
+      </c>
+      <c r="F134" s="17">
+        <v>2</v>
+      </c>
+      <c r="G134" s="22" t="s">
+        <v>259</v>
       </c>
       <c r="H134" s="16"/>
       <c r="I134" s="16"/>
@@ -5071,19 +4972,19 @@
         <v>65</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="D135" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E135" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="F135" s="22">
-        <v>2</v>
-      </c>
-      <c r="G135" s="21" t="s">
-        <v>264</v>
+        <v>299</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F135" s="17">
+        <v>1</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>260</v>
       </c>
       <c r="H135" s="16"/>
       <c r="I135" s="16"/>
@@ -5093,22 +4994,22 @@
         <v>132</v>
       </c>
       <c r="B136" s="24">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="D136" s="23">
-        <v>1</v>
-      </c>
-      <c r="E136" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="F136" s="22">
-        <v>1</v>
-      </c>
-      <c r="G136" s="21" t="s">
-        <v>265</v>
+        <v>325</v>
+      </c>
+      <c r="D136" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F136" s="17">
+        <v>2</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>262</v>
       </c>
       <c r="H136" s="16"/>
       <c r="I136" s="16"/>
@@ -5118,22 +5019,22 @@
         <v>133</v>
       </c>
       <c r="B137" s="24">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E137" s="17" t="s">
-        <v>267</v>
+        <v>182</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="F137" s="17">
         <v>2</v>
       </c>
-      <c r="G137" s="19" t="s">
-        <v>266</v>
+      <c r="G137" s="11" t="s">
+        <v>264</v>
       </c>
       <c r="H137" s="17"/>
       <c r="I137" s="16"/>
@@ -5143,22 +5044,22 @@
         <v>134</v>
       </c>
       <c r="B138" s="24">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="D138" s="17">
-        <v>1</v>
-      </c>
-      <c r="E138" s="17" t="s">
-        <v>267</v>
+        <v>318</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="F138" s="17">
         <v>1</v>
       </c>
-      <c r="G138" s="19" t="s">
-        <v>268</v>
+      <c r="G138" s="11" t="s">
+        <v>265</v>
       </c>
       <c r="H138" s="17"/>
       <c r="I138" s="16"/>
@@ -5168,22 +5069,22 @@
         <v>135</v>
       </c>
       <c r="B139" s="24">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="D139" s="17">
-        <v>1</v>
-      </c>
-      <c r="E139" s="17" t="s">
-        <v>270</v>
+        <v>326</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="F139" s="17">
-        <v>1</v>
-      </c>
-      <c r="G139" s="19" t="s">
-        <v>269</v>
+        <v>2</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>266</v>
       </c>
       <c r="H139" s="17"/>
       <c r="I139" s="16"/>
@@ -5193,22 +5094,22 @@
         <v>136</v>
       </c>
       <c r="B140" s="24">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E140" s="17" t="s">
-        <v>257</v>
+        <v>182</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="F140" s="17">
         <v>2</v>
       </c>
-      <c r="G140" s="19" t="s">
-        <v>271</v>
+      <c r="G140" s="11" t="s">
+        <v>267</v>
       </c>
       <c r="H140" s="17"/>
       <c r="I140" s="16"/>
@@ -5218,22 +5119,22 @@
         <v>137</v>
       </c>
       <c r="B141" s="24">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E141" s="17" t="s">
-        <v>257</v>
+        <v>182</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="F141" s="17">
         <v>2</v>
       </c>
-      <c r="G141" s="19" t="s">
-        <v>272</v>
+      <c r="G141" s="11" t="s">
+        <v>268</v>
       </c>
       <c r="H141" s="17"/>
       <c r="I141" s="16"/>
@@ -5243,22 +5144,22 @@
         <v>138</v>
       </c>
       <c r="B142" s="24">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="D142" s="15">
-        <v>1</v>
-      </c>
-      <c r="E142" s="22" t="s">
-        <v>274</v>
+        <v>299</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="F142" s="17">
         <v>1</v>
       </c>
-      <c r="G142" s="22" t="s">
-        <v>273</v>
+      <c r="G142" s="11" t="s">
+        <v>269</v>
       </c>
       <c r="H142" s="16"/>
       <c r="I142" s="16"/>
@@ -5268,22 +5169,22 @@
         <v>139</v>
       </c>
       <c r="B143" s="24">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E143" s="22" t="s">
-        <v>276</v>
+        <v>182</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="F143" s="17">
         <v>2</v>
       </c>
-      <c r="G143" s="22" t="s">
-        <v>275</v>
+      <c r="G143" s="11" t="s">
+        <v>270</v>
       </c>
       <c r="H143" s="16"/>
       <c r="I143" s="16"/>
@@ -5293,22 +5194,22 @@
         <v>140</v>
       </c>
       <c r="B144" s="24">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="D144" s="16">
-        <v>1</v>
-      </c>
-      <c r="E144" s="22" t="s">
-        <v>274</v>
+        <v>327</v>
+      </c>
+      <c r="D144" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="F144" s="17">
-        <v>1</v>
-      </c>
-      <c r="G144" s="22" t="s">
-        <v>277</v>
+        <v>2</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="H144" s="16"/>
       <c r="I144" s="16"/>
@@ -5318,22 +5219,22 @@
         <v>141</v>
       </c>
       <c r="B145" s="24">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="D145" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E145" s="22" t="s">
-        <v>276</v>
+        <v>318</v>
+      </c>
+      <c r="D145" s="15">
+        <v>1</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="F145" s="17">
-        <v>2</v>
-      </c>
-      <c r="G145" s="22" t="s">
-        <v>278</v>
+        <v>1</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="H145" s="16"/>
     </row>
@@ -5342,275 +5243,275 @@
         <v>142</v>
       </c>
       <c r="B146" s="24">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C146" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="15">
         <v>1</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="F146" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="12">
         <v>143</v>
       </c>
-      <c r="B147" s="24">
-        <v>71</v>
+      <c r="B147" s="25">
+        <v>69</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="D147" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="F147" s="17">
-        <v>2</v>
-      </c>
-      <c r="G147" s="11" t="s">
-        <v>281</v>
+        <v>323</v>
+      </c>
+      <c r="D147" s="26">
+        <v>1</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" s="19">
+        <v>1</v>
+      </c>
+      <c r="G147" s="13" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="12">
         <v>144</v>
       </c>
-      <c r="B148" s="24">
-        <v>71</v>
+      <c r="B148" s="25">
+        <v>70</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="D148" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E148" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="F148" s="17">
-        <v>2</v>
-      </c>
-      <c r="G148" s="11" t="s">
-        <v>283</v>
+        <v>315</v>
+      </c>
+      <c r="D148" s="26">
+        <v>1</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F148" s="19">
+        <v>1</v>
+      </c>
+      <c r="G148" s="13" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="12">
         <v>145</v>
       </c>
-      <c r="B149" s="24">
-        <v>72</v>
+      <c r="B149" s="25">
+        <v>70</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D149">
-        <v>1</v>
-      </c>
-      <c r="E149" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="F149" s="17">
-        <v>1</v>
-      </c>
-      <c r="G149" s="11" t="s">
-        <v>284</v>
+        <v>328</v>
+      </c>
+      <c r="D149" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E149" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="F149" s="19">
+        <v>2</v>
+      </c>
+      <c r="G149" s="21" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="12">
         <v>146</v>
       </c>
-      <c r="B150" s="24">
-        <v>72</v>
+      <c r="B150" s="25">
+        <v>70</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D150" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="F150" s="17">
-        <v>2</v>
-      </c>
-      <c r="G150" s="11" t="s">
-        <v>285</v>
+        <v>327</v>
+      </c>
+      <c r="D150" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E150" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="F150" s="19">
+        <v>2</v>
+      </c>
+      <c r="G150" s="19" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="12">
         <v>147</v>
       </c>
-      <c r="B151" s="24">
-        <v>72</v>
+      <c r="B151" s="25">
+        <v>71</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="F151" s="17">
-        <v>2</v>
-      </c>
-      <c r="G151" s="11" t="s">
-        <v>286</v>
+        <v>321</v>
+      </c>
+      <c r="D151" s="19">
+        <v>1</v>
+      </c>
+      <c r="E151" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="F151" s="19">
+        <v>1</v>
+      </c>
+      <c r="G151" s="19" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="12">
         <v>148</v>
       </c>
-      <c r="B152" s="24">
-        <v>72</v>
+      <c r="B152" s="25">
+        <v>71</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="D152" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="F152" s="17">
-        <v>2</v>
-      </c>
-      <c r="G152" s="11" t="s">
-        <v>287</v>
+        <v>329</v>
+      </c>
+      <c r="D152" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="F152" s="19">
+        <v>2</v>
+      </c>
+      <c r="G152" s="19" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="12">
         <v>149</v>
       </c>
-      <c r="B153" s="24">
-        <v>73</v>
+      <c r="B153" s="25">
+        <v>72</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="D153">
-        <v>1</v>
-      </c>
-      <c r="E153" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D153" s="27">
+        <v>1</v>
+      </c>
+      <c r="E153" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="F153" s="19">
+        <v>1</v>
+      </c>
+      <c r="G153" s="21" t="s">
         <v>280</v>
-      </c>
-      <c r="F153" s="17">
-        <v>1</v>
-      </c>
-      <c r="G153" s="11" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="12">
         <v>150</v>
       </c>
-      <c r="B154" s="24">
-        <v>73</v>
+      <c r="B154" s="25">
+        <v>72</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D154" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="F154" s="17">
-        <v>2</v>
-      </c>
-      <c r="G154" s="11" t="s">
-        <v>289</v>
+        <v>330</v>
+      </c>
+      <c r="D154" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E154" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="F154" s="19">
+        <v>2</v>
+      </c>
+      <c r="G154" s="21" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A155" s="12">
         <v>151</v>
       </c>
-      <c r="B155" s="24">
+      <c r="B155" s="25">
         <v>73</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D155" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="F155" s="17">
-        <v>2</v>
-      </c>
-      <c r="G155" s="11" t="s">
-        <v>290</v>
+        <v>312</v>
+      </c>
+      <c r="D155" s="27">
+        <v>1</v>
+      </c>
+      <c r="E155" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="F155" s="19">
+        <v>1</v>
+      </c>
+      <c r="G155" s="21" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="12">
         <v>152</v>
       </c>
-      <c r="B156" s="24">
-        <v>74</v>
+      <c r="B156" s="25">
+        <v>73</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D156" s="15">
-        <v>1</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="F156" s="17">
-        <v>1</v>
-      </c>
-      <c r="G156" s="11" t="s">
-        <v>291</v>
+        <v>331</v>
+      </c>
+      <c r="D156" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E156" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="F156" s="19">
+        <v>2</v>
+      </c>
+      <c r="G156" s="21" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="12">
         <v>153</v>
       </c>
-      <c r="B157" s="24">
+      <c r="B157" s="25">
         <v>74</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="D157" s="15">
-        <v>1</v>
-      </c>
-      <c r="E157" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="F157" s="17">
-        <v>2</v>
-      </c>
-      <c r="G157" s="11" t="s">
-        <v>292</v>
+        <v>332</v>
+      </c>
+      <c r="D157" s="28">
+        <v>1</v>
+      </c>
+      <c r="E157" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="F157" s="19">
+        <v>1</v>
+      </c>
+      <c r="G157" s="13" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -5618,284 +5519,64 @@
         <v>154</v>
       </c>
       <c r="B158" s="25">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="D158" s="26">
-        <v>1</v>
+        <v>333</v>
+      </c>
+      <c r="D158" s="26" t="s">
+        <v>182</v>
       </c>
       <c r="E158" s="13" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="F158" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="12">
-        <v>155</v>
-      </c>
-      <c r="B159" s="25">
-        <v>76</v>
-      </c>
-      <c r="C159" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="D159" s="26">
-        <v>1</v>
-      </c>
-      <c r="E159" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="F159" s="19">
-        <v>1</v>
-      </c>
-      <c r="G159" s="13" t="s">
-        <v>294</v>
-      </c>
+      <c r="A159" s="12"/>
     </row>
     <row r="160" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="12">
-        <v>156</v>
-      </c>
-      <c r="B160" s="25">
-        <v>76</v>
-      </c>
-      <c r="C160" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="D160" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="E160" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="F160" s="19">
-        <v>2</v>
-      </c>
-      <c r="G160" s="21" t="s">
-        <v>295</v>
-      </c>
+      <c r="A160" s="12"/>
       <c r="H160" s="16"/>
     </row>
     <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="12">
-        <v>157</v>
-      </c>
-      <c r="B161" s="25">
-        <v>76</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D161" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="E161" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="F161" s="19">
-        <v>2</v>
-      </c>
-      <c r="G161" s="19" t="s">
-        <v>296</v>
-      </c>
+      <c r="A161" s="12"/>
       <c r="H161" s="17"/>
     </row>
     <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="12">
-        <v>158</v>
-      </c>
-      <c r="B162" s="25">
-        <v>77</v>
-      </c>
-      <c r="C162" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="D162" s="19">
-        <v>1</v>
-      </c>
-      <c r="E162" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="F162" s="19">
-        <v>1</v>
-      </c>
-      <c r="G162" s="19" t="s">
-        <v>297</v>
-      </c>
+      <c r="A162" s="12"/>
       <c r="H162" s="17"/>
     </row>
     <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="12">
-        <v>159</v>
-      </c>
-      <c r="B163" s="25">
-        <v>77</v>
-      </c>
-      <c r="C163" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="D163" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="E163" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="F163" s="19">
-        <v>2</v>
-      </c>
-      <c r="G163" s="19" t="s">
-        <v>298</v>
-      </c>
+      <c r="A163" s="12"/>
       <c r="H163" s="17"/>
     </row>
     <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="12">
-        <v>160</v>
-      </c>
-      <c r="B164" s="25">
-        <v>78</v>
-      </c>
-      <c r="C164" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="D164" s="27">
-        <v>1</v>
-      </c>
-      <c r="E164" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="F164" s="19">
-        <v>1</v>
-      </c>
-      <c r="G164" s="21" t="s">
-        <v>299</v>
-      </c>
+      <c r="A164" s="12"/>
       <c r="H164" s="16"/>
     </row>
     <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="12">
-        <v>161</v>
-      </c>
-      <c r="B165" s="25">
-        <v>78</v>
-      </c>
-      <c r="C165" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="D165" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="E165" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="F165" s="19">
-        <v>2</v>
-      </c>
-      <c r="G165" s="21" t="s">
-        <v>300</v>
-      </c>
+      <c r="A165" s="12"/>
       <c r="H165" s="16"/>
     </row>
     <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="12">
-        <v>162</v>
-      </c>
-      <c r="B166" s="25">
-        <v>79</v>
-      </c>
-      <c r="C166" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="D166" s="27">
-        <v>1</v>
-      </c>
-      <c r="E166" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="F166" s="19">
-        <v>1</v>
-      </c>
-      <c r="G166" s="21" t="s">
-        <v>301</v>
-      </c>
+      <c r="A166" s="12"/>
       <c r="H166" s="16"/>
     </row>
     <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="12">
-        <v>163</v>
-      </c>
-      <c r="B167" s="25">
-        <v>79</v>
-      </c>
-      <c r="C167" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="D167" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="E167" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="F167" s="19">
-        <v>2</v>
-      </c>
-      <c r="G167" s="21" t="s">
-        <v>302</v>
-      </c>
+      <c r="A167" s="12"/>
       <c r="H167" s="16"/>
     </row>
     <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="12">
-        <v>164</v>
-      </c>
-      <c r="B168" s="25">
-        <v>80</v>
-      </c>
-      <c r="C168" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D168" s="28">
-        <v>1</v>
-      </c>
-      <c r="E168" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="F168" s="19">
-        <v>1</v>
-      </c>
-      <c r="G168" s="13" t="s">
-        <v>303</v>
-      </c>
+      <c r="A168" s="12"/>
     </row>
     <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A169" s="12">
-        <v>165</v>
-      </c>
-      <c r="B169" s="25">
-        <v>80</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="D169" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="E169" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="F169" s="19">
-        <v>2</v>
-      </c>
-      <c r="G169" s="13" t="s">
-        <v>304</v>
-      </c>
+      <c r="A169" s="12"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170"/>
@@ -6605,4 +6286,20 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="357">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -1369,12 +1369,80 @@
   <si>
     <t>1;2</t>
   </si>
+  <si>
+    <t>现在你就是一个小小的鸡蛋，鸡蛋怎么碰石头啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我才是那个又臭又硬的石头。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么姐姐无辜惨死，为什么怡嫔悬梁自尽。为什么世道如此不公。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大胆奴才，谁让你伤害灵柏的。圣驾在此还不下跪。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奴才恭请皇上圣安。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁准你伤害灵柏的，拖下去仗三十。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奴才斗胆，不知何为灵柏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混账东西，这就是灵柏。曾为圣上遮荫。这小铜牌都挂着呢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奴才刚入宫不识灵柏，不过奴才所为，是有原因的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堵上她的嘴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让她说。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天晚上有颗树给奴才托梦，身上痒痒，让奴才给它挠痒痒。皇上，奴才所言句句属实。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罢了，走吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张嬷嬷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -1415,6 +1483,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1453,7 +1527,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1529,6 +1603,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1871,10 +1951,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I317"/>
+  <dimension ref="A1:J317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C140" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="D169" sqref="D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5539,78 +5622,305 @@
     </row>
     <row r="159" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="12"/>
+      <c r="B159" s="25">
+        <v>75</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D159" s="28">
+        <v>1</v>
+      </c>
+      <c r="E159" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="G159" s="29" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="12"/>
+      <c r="B160" s="25">
+        <v>75</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D160" s="28">
+        <v>1</v>
+      </c>
+      <c r="E160" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="G160" s="29" t="s">
+        <v>341</v>
+      </c>
       <c r="H160" s="16"/>
     </row>
-    <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="12"/>
+      <c r="B161" s="25">
+        <v>75</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D161" s="28">
+        <v>1</v>
+      </c>
+      <c r="E161" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="G161" s="29" t="s">
+        <v>342</v>
+      </c>
       <c r="H161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="12"/>
+      <c r="B162" s="25">
+        <v>75</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D162" s="28">
+        <v>1</v>
+      </c>
+      <c r="E162" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="G162" s="29" t="s">
+        <v>343</v>
+      </c>
       <c r="H162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="12"/>
+      <c r="B163" s="25">
+        <v>75</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D163" s="28">
+        <v>1</v>
+      </c>
+      <c r="E163" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="G163" s="29" t="s">
+        <v>344</v>
+      </c>
       <c r="H163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="12"/>
+      <c r="B164" s="25">
+        <v>75</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D164" s="28">
+        <v>1</v>
+      </c>
+      <c r="E164" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G164" s="29" t="s">
+        <v>345</v>
+      </c>
       <c r="H164" s="16"/>
     </row>
-    <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="12"/>
+      <c r="B165" s="25">
+        <v>75</v>
+      </c>
+      <c r="C165" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D165" s="28">
+        <v>1</v>
+      </c>
+      <c r="E165" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="G165" s="29" t="s">
+        <v>346</v>
+      </c>
       <c r="H165" s="16"/>
     </row>
-    <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="12"/>
+      <c r="B166" s="25">
+        <v>75</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D166" s="28">
+        <v>1</v>
+      </c>
+      <c r="E166" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="G166" s="29" t="s">
+        <v>347</v>
+      </c>
       <c r="H166" s="16"/>
     </row>
-    <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A167" s="12"/>
+      <c r="B167" s="25">
+        <v>75</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D167" s="28">
+        <v>1</v>
+      </c>
+      <c r="E167" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="G167" s="29" t="s">
+        <v>348</v>
+      </c>
       <c r="H167" s="16"/>
     </row>
-    <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="12"/>
-    </row>
-    <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B168" s="25">
+        <v>75</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D168" s="28">
+        <v>1</v>
+      </c>
+      <c r="E168" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="G168" s="29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="12"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B169" s="25">
+        <v>75</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D169" s="28">
+        <v>1</v>
+      </c>
+      <c r="E169" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G169" s="29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A170"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B170" s="25">
+        <v>75</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D170" s="28">
+        <v>1</v>
+      </c>
+      <c r="E170" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="G170" s="29" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A171"/>
-      <c r="B171"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B171" s="25">
+        <v>75</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D171" s="28">
+        <v>1</v>
+      </c>
+      <c r="E171" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G171" s="29" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A172"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C172" s="17"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="17"/>
+      <c r="I172" s="16"/>
+      <c r="J172" s="30"/>
+    </row>
+    <row r="173" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A173"/>
       <c r="B173"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C173" s="17"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="17"/>
+      <c r="H173" s="17"/>
+      <c r="I173" s="16"/>
+      <c r="J173" s="30"/>
+    </row>
+    <row r="174" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A174"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C174" s="17"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="17"/>
+      <c r="G174" s="17"/>
+      <c r="H174" s="17"/>
+      <c r="I174" s="16"/>
+      <c r="J174" s="30"/>
+    </row>
+    <row r="175" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A175"/>
       <c r="B175"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C175" s="17"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="17"/>
+      <c r="H175" s="17"/>
+      <c r="I175" s="16"/>
+      <c r="J175" s="30"/>
+    </row>
+    <row r="176" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176" s="20"/>
-      <c r="C176" s="16"/>
-      <c r="D176" s="16"/>
-      <c r="E176" s="16"/>
-      <c r="F176" s="16"/>
-      <c r="G176" s="16"/>
-      <c r="H176" s="16"/>
+      <c r="C176" s="17"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="17"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="17"/>
       <c r="I176" s="16"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J176" s="30"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177"/>
       <c r="B177" s="16"/>
       <c r="C177" s="16"/>
@@ -5620,8 +5930,9 @@
       <c r="G177" s="16"/>
       <c r="H177" s="16"/>
       <c r="I177" s="16"/>
-    </row>
-    <row r="178" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J177" s="30"/>
+    </row>
+    <row r="178" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178" s="20"/>
       <c r="C178" s="17"/>
@@ -5631,8 +5942,9 @@
       <c r="G178" s="17"/>
       <c r="H178" s="17"/>
       <c r="I178" s="16"/>
-    </row>
-    <row r="179" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J178" s="30"/>
+    </row>
+    <row r="179" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A179"/>
       <c r="B179" s="16"/>
       <c r="C179" s="17"/>
@@ -5642,8 +5954,9 @@
       <c r="G179" s="17"/>
       <c r="H179" s="17"/>
       <c r="I179" s="16"/>
-    </row>
-    <row r="180" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J179" s="30"/>
+    </row>
+    <row r="180" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180" s="20"/>
       <c r="C180" s="17"/>
@@ -5653,8 +5966,9 @@
       <c r="G180" s="17"/>
       <c r="H180" s="17"/>
       <c r="I180" s="16"/>
-    </row>
-    <row r="181" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J180" s="30"/>
+    </row>
+    <row r="181" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A181"/>
       <c r="B181" s="16"/>
       <c r="C181" s="17"/>
@@ -5664,8 +5978,9 @@
       <c r="G181" s="17"/>
       <c r="H181" s="17"/>
       <c r="I181" s="16"/>
-    </row>
-    <row r="182" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J181" s="30"/>
+    </row>
+    <row r="182" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182" s="20"/>
       <c r="C182" s="17"/>
@@ -5675,8 +5990,9 @@
       <c r="G182" s="17"/>
       <c r="H182" s="17"/>
       <c r="I182" s="16"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J182" s="30"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183"/>
       <c r="B183" s="16"/>
       <c r="C183" s="16"/>
@@ -5686,8 +6002,9 @@
       <c r="G183" s="16"/>
       <c r="H183" s="16"/>
       <c r="I183" s="16"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J183" s="30"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184" s="20"/>
       <c r="C184" s="16"/>
@@ -5697,8 +6014,9 @@
       <c r="G184" s="16"/>
       <c r="H184" s="16"/>
       <c r="I184" s="16"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J184" s="30"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185"/>
       <c r="B185" s="16"/>
       <c r="C185" s="16"/>
@@ -5709,7 +6027,7 @@
       <c r="H185" s="16"/>
       <c r="I185" s="16"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186" s="20"/>
       <c r="C186" s="16"/>
@@ -5720,7 +6038,7 @@
       <c r="H186" s="16"/>
       <c r="I186" s="16"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187"/>
       <c r="B187" s="16"/>
       <c r="C187" s="16"/>
@@ -5731,7 +6049,7 @@
       <c r="H187" s="16"/>
       <c r="I187" s="16"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188" s="20"/>
       <c r="C188" s="16"/>
@@ -5742,18 +6060,18 @@
       <c r="H188" s="16"/>
       <c r="I188" s="16"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189"/>
       <c r="B189"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191"/>
       <c r="B191"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -1957,7 +1957,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D169" sqref="D169"/>
+      <selection pane="bottomRight" activeCell="A151" sqref="A151:A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5621,7 +5621,9 @@
       </c>
     </row>
     <row r="159" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="12"/>
+      <c r="A159" s="12">
+        <v>155</v>
+      </c>
       <c r="B159" s="25">
         <v>75</v>
       </c>
@@ -5639,7 +5641,9 @@
       </c>
     </row>
     <row r="160" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="12"/>
+      <c r="A160" s="12">
+        <v>156</v>
+      </c>
       <c r="B160" s="25">
         <v>75</v>
       </c>
@@ -5658,7 +5662,9 @@
       <c r="H160" s="16"/>
     </row>
     <row r="161" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="12"/>
+      <c r="A161" s="12">
+        <v>157</v>
+      </c>
       <c r="B161" s="25">
         <v>75</v>
       </c>
@@ -5677,7 +5683,9 @@
       <c r="H161" s="17"/>
     </row>
     <row r="162" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="12"/>
+      <c r="A162" s="12">
+        <v>158</v>
+      </c>
       <c r="B162" s="25">
         <v>75</v>
       </c>
@@ -5696,7 +5704,9 @@
       <c r="H162" s="17"/>
     </row>
     <row r="163" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="12"/>
+      <c r="A163" s="12">
+        <v>159</v>
+      </c>
       <c r="B163" s="25">
         <v>75</v>
       </c>
@@ -5715,7 +5725,9 @@
       <c r="H163" s="17"/>
     </row>
     <row r="164" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="12"/>
+      <c r="A164" s="12">
+        <v>160</v>
+      </c>
       <c r="B164" s="25">
         <v>75</v>
       </c>
@@ -5734,7 +5746,9 @@
       <c r="H164" s="16"/>
     </row>
     <row r="165" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="12"/>
+      <c r="A165" s="12">
+        <v>161</v>
+      </c>
       <c r="B165" s="25">
         <v>75</v>
       </c>
@@ -5753,7 +5767,9 @@
       <c r="H165" s="16"/>
     </row>
     <row r="166" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="12"/>
+      <c r="A166" s="12">
+        <v>162</v>
+      </c>
       <c r="B166" s="25">
         <v>75</v>
       </c>
@@ -5772,7 +5788,9 @@
       <c r="H166" s="16"/>
     </row>
     <row r="167" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="12"/>
+      <c r="A167" s="12">
+        <v>163</v>
+      </c>
       <c r="B167" s="25">
         <v>75</v>
       </c>
@@ -5791,7 +5809,9 @@
       <c r="H167" s="16"/>
     </row>
     <row r="168" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="12"/>
+      <c r="A168" s="12">
+        <v>164</v>
+      </c>
       <c r="B168" s="25">
         <v>75</v>
       </c>
@@ -5809,7 +5829,9 @@
       </c>
     </row>
     <row r="169" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A169" s="12"/>
+      <c r="A169" s="12">
+        <v>165</v>
+      </c>
       <c r="B169" s="25">
         <v>75</v>
       </c>
@@ -5827,7 +5849,9 @@
       </c>
     </row>
     <row r="170" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A170"/>
+      <c r="A170" s="12">
+        <v>166</v>
+      </c>
       <c r="B170" s="25">
         <v>75</v>
       </c>
@@ -5845,7 +5869,9 @@
       </c>
     </row>
     <row r="171" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A171"/>
+      <c r="A171" s="12">
+        <v>167</v>
+      </c>
       <c r="B171" s="25">
         <v>75</v>
       </c>

--- a/docs/excel/Dialogue.xlsx
+++ b/docs/excel/Dialogue.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="454">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -1435,6 +1435,393 @@
   </si>
   <si>
     <t>皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/4;Image/GameScene/halfbody/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/2;Image/GameScene/halfbody/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/2;Image/GameScene/halfbody/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/4;Image/GameScene/halfbody/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都给打起精神来。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>李玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把皇上都伺候好了。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵管事，这事儿抓紧点办好了。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴总管把你这儿的绣女都叫过来。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴书来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是，李公公。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>你觉得当今圣上是什么样的人。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天威难测啊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>德胜太监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转过去</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上，奴才犯了什么错，别让奴才的贱臀，脏了您的龙足。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>你把那小宫女给朕找到。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊。。。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/3;Image/GameScene/halfbody/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我手帕好像丢了，我去找一下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩，你早点回来。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>方姑姑，刚才有个侍卫把璎珞拉走。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>哼，好啊。刚入宫就勾搭侍卫。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞，璎宁的死我也很伤心。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我姐姐最需要帮助的时候，你在哪里。你可曾给与半点关怀。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是侍卫不能与宫女来往。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>很好，既然是陌生人，从此互不相认。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出来，你这个不守宫规的丫头。快开门。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>混账东西。让你偷看。没脸没皮的偷看。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好大胆子，竟然敢打姑姑。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>混账东西。你的奸夫呢？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的帕子吊了，突然内急，我发现后面有人尾随。所以就。。。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>这遗落的梅花络子是我姐姐编的。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>璎珞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方姑姑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦绣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆锡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玲珑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/4;Image/GameScene/halfbody/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/7;Image/GameScene/halfbody/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/4;Image/GameScene/halfbody/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/4;Image/GameScene/halfbody/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/4;Image/GameScene/halfbody/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奉天承运，皇帝制曰。永联耐朕之嫡子，聪明贵重，气宇不凡，亲书密旨藏于乾清宫正大光明榜后，命为皇太子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红螺，本宫会赐你一副嫁妆，让你风风光光嫁出去。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>（大哭）他册了永联做太子，可我却恨他怨他，臣妾错了要重新振作起来。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>她未婚夫等不及，就要另聘他人。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奴才没事，千万别说。(哭红了双眼）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后娘娘，红螺去年年满二十五，可以放出宫了。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>（点头，微笑表情）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯妃娘娘，富恒斗胆，想请娘娘帮忙。去说服我姐姐，振作起来。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是大清国的皇后。你不能忘记你肩上的责任。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的事不要你管。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>永联不幸夭折已经整整三年了。姐姐你要到什么时候才能振作起来。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>富恒你要干什么？长生锁呢？还给我！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇上是提醒本宫要修身养性。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>那这佛经。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来是她呀，我当是谁在背后装神弄鬼。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>既然咱的佛经抄完了，就不跟皇上置气了。不过奴才听说皇上晌午去了长春宫。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗻，奴才先行告退。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿去吧，去给皇上看，这都是本宫自己写的，写的手都要断了。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>娘娘笔墨纸砚已经帮你准备好了。皇上说了，让奴才在这儿等，亲眼看见娘娘抄写经书带回去复命。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一抄就是5000字。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>娘娘最近火气太旺，这本经书是专门送给您的。说您抄经文一编，必能消弭火气。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高贵妃</t>
+  </si>
+  <si>
+    <t>金刚经，皇上送这个是什么意思。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高贵妃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富察容音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富恒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯妃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红螺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富察皇后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奴才给贵妃娘娘请安。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么皇上让你给我送礼物了。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请娘娘亲自揭开。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/3;Image/GameScene/halfbody/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/12;Image/GameScene/halfbody/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/1;Image/GameScene/halfbody/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/11;Image/GameScene/halfbody/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/17;Image/GameScene/halfbody/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/12;Image/GameScene/halfbody/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/17;Image/GameScene/halfbody/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1510,11 +1897,63 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1527,7 +1966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1580,7 +2019,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1609,6 +2047,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1954,10 +2422,10 @@
   <dimension ref="A1:J317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C198" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A151" sqref="A151:A171"/>
+      <selection pane="bottomRight" activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4204,16 +4672,16 @@
       <c r="C98" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D98" s="23">
-        <v>1</v>
-      </c>
-      <c r="E98" s="22" t="s">
+      <c r="D98" s="22">
+        <v>1</v>
+      </c>
+      <c r="E98" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F98" s="22">
-        <v>1</v>
-      </c>
-      <c r="G98" s="21" t="s">
+      <c r="F98" s="21">
+        <v>1</v>
+      </c>
+      <c r="G98" s="20" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4230,13 +4698,13 @@
       <c r="D99" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E99" s="22" t="s">
+      <c r="E99" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F99" s="22">
-        <v>2</v>
-      </c>
-      <c r="G99" s="21" t="s">
+      <c r="F99" s="21">
+        <v>2</v>
+      </c>
+      <c r="G99" s="20" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4250,16 +4718,16 @@
       <c r="C100" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D100" s="23">
-        <v>1</v>
-      </c>
-      <c r="E100" s="22" t="s">
+      <c r="D100" s="22">
+        <v>1</v>
+      </c>
+      <c r="E100" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F100" s="22">
-        <v>1</v>
-      </c>
-      <c r="G100" s="21" t="s">
+      <c r="F100" s="21">
+        <v>1</v>
+      </c>
+      <c r="G100" s="20" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4625,7 +5093,7 @@
         <v>225</v>
       </c>
       <c r="F116" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G116" s="13" t="s">
         <v>228</v>
@@ -4957,7 +5425,7 @@
       <c r="A131" s="12">
         <v>127</v>
       </c>
-      <c r="B131" s="24">
+      <c r="B131" s="23">
         <v>63</v>
       </c>
       <c r="C131" s="12" t="s">
@@ -4966,13 +5434,13 @@
       <c r="D131" s="15">
         <v>1</v>
       </c>
-      <c r="E131" s="22" t="s">
+      <c r="E131" s="21" t="s">
         <v>255</v>
       </c>
       <c r="F131" s="17">
         <v>1</v>
       </c>
-      <c r="G131" s="22" t="s">
+      <c r="G131" s="21" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4980,7 +5448,7 @@
       <c r="A132" s="12">
         <v>128</v>
       </c>
-      <c r="B132" s="24">
+      <c r="B132" s="23">
         <v>63</v>
       </c>
       <c r="C132" s="12" t="s">
@@ -4989,13 +5457,13 @@
       <c r="D132" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E132" s="22" t="s">
+      <c r="E132" s="21" t="s">
         <v>257</v>
       </c>
       <c r="F132" s="17">
         <v>2</v>
       </c>
-      <c r="G132" s="22" t="s">
+      <c r="G132" s="21" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5003,7 +5471,7 @@
       <c r="A133" s="12">
         <v>129</v>
       </c>
-      <c r="B133" s="24">
+      <c r="B133" s="23">
         <v>64</v>
       </c>
       <c r="C133" s="12" t="s">
@@ -5012,13 +5480,13 @@
       <c r="D133" s="16">
         <v>1</v>
       </c>
-      <c r="E133" s="22" t="s">
+      <c r="E133" s="21" t="s">
         <v>255</v>
       </c>
       <c r="F133" s="17">
         <v>1</v>
       </c>
-      <c r="G133" s="22" t="s">
+      <c r="G133" s="21" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5026,7 +5494,7 @@
       <c r="A134" s="12">
         <v>130</v>
       </c>
-      <c r="B134" s="24">
+      <c r="B134" s="23">
         <v>64</v>
       </c>
       <c r="C134" s="12" t="s">
@@ -5035,13 +5503,13 @@
       <c r="D134" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E134" s="22" t="s">
+      <c r="E134" s="21" t="s">
         <v>257</v>
       </c>
       <c r="F134" s="17">
         <v>2</v>
       </c>
-      <c r="G134" s="22" t="s">
+      <c r="G134" s="21" t="s">
         <v>259</v>
       </c>
       <c r="H134" s="16"/>
@@ -5051,7 +5519,7 @@
       <c r="A135" s="12">
         <v>131</v>
       </c>
-      <c r="B135" s="24">
+      <c r="B135" s="23">
         <v>65</v>
       </c>
       <c r="C135" s="12" t="s">
@@ -5076,7 +5544,7 @@
       <c r="A136" s="12">
         <v>132</v>
       </c>
-      <c r="B136" s="24">
+      <c r="B136" s="23">
         <v>65</v>
       </c>
       <c r="C136" s="12" t="s">
@@ -5101,7 +5569,7 @@
       <c r="A137" s="12">
         <v>133</v>
       </c>
-      <c r="B137" s="24">
+      <c r="B137" s="23">
         <v>65</v>
       </c>
       <c r="C137" s="12" t="s">
@@ -5114,7 +5582,7 @@
         <v>261</v>
       </c>
       <c r="F137" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>264</v>
@@ -5126,20 +5594,20 @@
       <c r="A138" s="12">
         <v>134</v>
       </c>
-      <c r="B138" s="24">
+      <c r="B138" s="23">
         <v>66</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>318</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E138" s="11" t="s">
         <v>253</v>
       </c>
       <c r="F138" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>265</v>
@@ -5151,7 +5619,7 @@
       <c r="A139" s="12">
         <v>135</v>
       </c>
-      <c r="B139" s="24">
+      <c r="B139" s="23">
         <v>66</v>
       </c>
       <c r="C139" s="12" t="s">
@@ -5164,7 +5632,7 @@
         <v>261</v>
       </c>
       <c r="F139" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>266</v>
@@ -5176,7 +5644,7 @@
       <c r="A140" s="12">
         <v>136</v>
       </c>
-      <c r="B140" s="24">
+      <c r="B140" s="23">
         <v>66</v>
       </c>
       <c r="C140" s="12" t="s">
@@ -5189,7 +5657,7 @@
         <v>261</v>
       </c>
       <c r="F140" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>267</v>
@@ -5201,7 +5669,7 @@
       <c r="A141" s="12">
         <v>137</v>
       </c>
-      <c r="B141" s="24">
+      <c r="B141" s="23">
         <v>66</v>
       </c>
       <c r="C141" s="12" t="s">
@@ -5226,7 +5694,7 @@
       <c r="A142" s="12">
         <v>138</v>
       </c>
-      <c r="B142" s="24">
+      <c r="B142" s="23">
         <v>67</v>
       </c>
       <c r="C142" s="12" t="s">
@@ -5251,7 +5719,7 @@
       <c r="A143" s="12">
         <v>139</v>
       </c>
-      <c r="B143" s="24">
+      <c r="B143" s="23">
         <v>67</v>
       </c>
       <c r="C143" s="12" t="s">
@@ -5276,7 +5744,7 @@
       <c r="A144" s="12">
         <v>140</v>
       </c>
-      <c r="B144" s="24">
+      <c r="B144" s="23">
         <v>67</v>
       </c>
       <c r="C144" s="12" t="s">
@@ -5289,7 +5757,7 @@
         <v>261</v>
       </c>
       <c r="F144" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G144" s="11" t="s">
         <v>271</v>
@@ -5301,7 +5769,7 @@
       <c r="A145" s="12">
         <v>141</v>
       </c>
-      <c r="B145" s="24">
+      <c r="B145" s="23">
         <v>68</v>
       </c>
       <c r="C145" s="12" t="s">
@@ -5325,7 +5793,7 @@
       <c r="A146" s="12">
         <v>142</v>
       </c>
-      <c r="B146" s="24">
+      <c r="B146" s="23">
         <v>68</v>
       </c>
       <c r="C146" s="12" t="s">
@@ -5348,13 +5816,13 @@
       <c r="A147" s="12">
         <v>143</v>
       </c>
-      <c r="B147" s="25">
+      <c r="B147" s="24">
         <v>69</v>
       </c>
       <c r="C147" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="D147" s="26">
+      <c r="D147" s="25">
         <v>1</v>
       </c>
       <c r="E147" s="13" t="s">
@@ -5371,13 +5839,13 @@
       <c r="A148" s="12">
         <v>144</v>
       </c>
-      <c r="B148" s="25">
+      <c r="B148" s="24">
         <v>70</v>
       </c>
       <c r="C148" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D148" s="26">
+      <c r="D148" s="25">
         <v>1</v>
       </c>
       <c r="E148" s="13" t="s">
@@ -5394,22 +5862,22 @@
       <c r="A149" s="12">
         <v>145</v>
       </c>
-      <c r="B149" s="25">
+      <c r="B149" s="24">
         <v>70</v>
       </c>
       <c r="C149" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="D149" s="26" t="s">
+      <c r="D149" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="E149" s="21" t="s">
+      <c r="E149" s="20" t="s">
         <v>292</v>
       </c>
       <c r="F149" s="19">
         <v>2</v>
       </c>
-      <c r="G149" s="21" t="s">
+      <c r="G149" s="20" t="s">
         <v>276</v>
       </c>
     </row>
@@ -5417,13 +5885,13 @@
       <c r="A150" s="12">
         <v>146</v>
       </c>
-      <c r="B150" s="25">
+      <c r="B150" s="24">
         <v>70</v>
       </c>
       <c r="C150" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="D150" s="26" t="s">
+      <c r="D150" s="25" t="s">
         <v>182</v>
       </c>
       <c r="E150" s="19" t="s">
@@ -5440,7 +5908,7 @@
       <c r="A151" s="12">
         <v>147</v>
       </c>
-      <c r="B151" s="25">
+      <c r="B151" s="24">
         <v>71</v>
       </c>
       <c r="C151" s="12" t="s">
@@ -5463,13 +5931,13 @@
       <c r="A152" s="12">
         <v>148</v>
       </c>
-      <c r="B152" s="25">
+      <c r="B152" s="24">
         <v>71</v>
       </c>
       <c r="C152" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="D152" s="26" t="s">
+      <c r="D152" s="25" t="s">
         <v>182</v>
       </c>
       <c r="E152" s="19" t="s">
@@ -5486,22 +5954,22 @@
       <c r="A153" s="12">
         <v>149</v>
       </c>
-      <c r="B153" s="25">
+      <c r="B153" s="24">
         <v>72</v>
       </c>
       <c r="C153" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="D153" s="27">
-        <v>1</v>
-      </c>
-      <c r="E153" s="21" t="s">
+      <c r="D153" s="26">
+        <v>1</v>
+      </c>
+      <c r="E153" s="20" t="s">
         <v>289</v>
       </c>
       <c r="F153" s="19">
         <v>1</v>
       </c>
-      <c r="G153" s="21" t="s">
+      <c r="G153" s="20" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5509,22 +5977,22 @@
       <c r="A154" s="12">
         <v>150</v>
       </c>
-      <c r="B154" s="25">
+      <c r="B154" s="24">
         <v>72</v>
       </c>
       <c r="C154" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="D154" s="26" t="s">
+      <c r="D154" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="E154" s="21" t="s">
+      <c r="E154" s="20" t="s">
         <v>288</v>
       </c>
       <c r="F154" s="19">
         <v>2</v>
       </c>
-      <c r="G154" s="21" t="s">
+      <c r="G154" s="20" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5532,22 +6000,22 @@
       <c r="A155" s="12">
         <v>151</v>
       </c>
-      <c r="B155" s="25">
+      <c r="B155" s="24">
         <v>73</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="D155" s="27">
-        <v>1</v>
-      </c>
-      <c r="E155" s="21" t="s">
+      <c r="D155" s="26">
+        <v>1</v>
+      </c>
+      <c r="E155" s="20" t="s">
         <v>286</v>
       </c>
       <c r="F155" s="19">
         <v>1</v>
       </c>
-      <c r="G155" s="21" t="s">
+      <c r="G155" s="20" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5555,22 +6023,22 @@
       <c r="A156" s="12">
         <v>152</v>
       </c>
-      <c r="B156" s="25">
+      <c r="B156" s="24">
         <v>73</v>
       </c>
       <c r="C156" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="D156" s="26" t="s">
+      <c r="D156" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="E156" s="21" t="s">
+      <c r="E156" s="20" t="s">
         <v>288</v>
       </c>
       <c r="F156" s="19">
         <v>2</v>
       </c>
-      <c r="G156" s="21" t="s">
+      <c r="G156" s="20" t="s">
         <v>283</v>
       </c>
     </row>
@@ -5578,13 +6046,13 @@
       <c r="A157" s="12">
         <v>153</v>
       </c>
-      <c r="B157" s="25">
+      <c r="B157" s="24">
         <v>74</v>
       </c>
       <c r="C157" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="D157" s="28">
+      <c r="D157" s="27">
         <v>1</v>
       </c>
       <c r="E157" s="13" t="s">
@@ -5601,13 +6069,13 @@
       <c r="A158" s="12">
         <v>154</v>
       </c>
-      <c r="B158" s="25">
+      <c r="B158" s="24">
         <v>74</v>
       </c>
       <c r="C158" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="D158" s="26" t="s">
+      <c r="D158" s="25" t="s">
         <v>182</v>
       </c>
       <c r="E158" s="13" t="s">
@@ -5624,19 +6092,22 @@
       <c r="A159" s="12">
         <v>155</v>
       </c>
-      <c r="B159" s="25">
+      <c r="B159" s="24">
         <v>75</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D159" s="28">
-        <v>1</v>
-      </c>
-      <c r="E159" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="D159" s="27">
+        <v>1</v>
+      </c>
+      <c r="E159" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="G159" s="29" t="s">
+      <c r="F159" s="19">
+        <v>1</v>
+      </c>
+      <c r="G159" s="28" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5644,19 +6115,22 @@
       <c r="A160" s="12">
         <v>156</v>
       </c>
-      <c r="B160" s="25">
-        <v>75</v>
+      <c r="B160" s="24">
+        <v>76</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D160" s="28">
-        <v>1</v>
-      </c>
-      <c r="E160" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="D160" s="27">
+        <v>1</v>
+      </c>
+      <c r="E160" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="G160" s="29" t="s">
+      <c r="F160" s="19">
+        <v>1</v>
+      </c>
+      <c r="G160" s="28" t="s">
         <v>341</v>
       </c>
       <c r="H160" s="16"/>
@@ -5665,19 +6139,22 @@
       <c r="A161" s="12">
         <v>157</v>
       </c>
-      <c r="B161" s="25">
-        <v>75</v>
+      <c r="B161" s="24">
+        <v>77</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D161" s="28">
-        <v>1</v>
-      </c>
-      <c r="E161" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="D161" s="27">
+        <v>1</v>
+      </c>
+      <c r="E161" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="G161" s="29" t="s">
+      <c r="F161" s="19">
+        <v>1</v>
+      </c>
+      <c r="G161" s="28" t="s">
         <v>342</v>
       </c>
       <c r="H161" s="17"/>
@@ -5686,19 +6163,22 @@
       <c r="A162" s="12">
         <v>158</v>
       </c>
-      <c r="B162" s="25">
-        <v>75</v>
+      <c r="B162" s="24">
+        <v>78</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D162" s="28">
-        <v>1</v>
-      </c>
-      <c r="E162" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="D162" s="27">
+        <v>1</v>
+      </c>
+      <c r="E162" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="G162" s="29" t="s">
+      <c r="F162" s="19">
+        <v>1</v>
+      </c>
+      <c r="G162" s="28" t="s">
         <v>343</v>
       </c>
       <c r="H162" s="17"/>
@@ -5707,19 +6187,22 @@
       <c r="A163" s="12">
         <v>159</v>
       </c>
-      <c r="B163" s="25">
-        <v>75</v>
+      <c r="B163" s="24">
+        <v>78</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D163" s="28">
-        <v>1</v>
-      </c>
-      <c r="E163" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="D163" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E163" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="G163" s="29" t="s">
+      <c r="F163" s="19">
+        <v>2</v>
+      </c>
+      <c r="G163" s="28" t="s">
         <v>344</v>
       </c>
       <c r="H163" s="17"/>
@@ -5728,19 +6211,22 @@
       <c r="A164" s="12">
         <v>160</v>
       </c>
-      <c r="B164" s="25">
-        <v>75</v>
+      <c r="B164" s="24">
+        <v>79</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D164" s="28">
-        <v>1</v>
-      </c>
-      <c r="E164" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="D164" s="27">
+        <v>1</v>
+      </c>
+      <c r="E164" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="G164" s="29" t="s">
+      <c r="F164" s="19">
+        <v>1</v>
+      </c>
+      <c r="G164" s="28" t="s">
         <v>345</v>
       </c>
       <c r="H164" s="16"/>
@@ -5749,19 +6235,22 @@
       <c r="A165" s="12">
         <v>161</v>
       </c>
-      <c r="B165" s="25">
-        <v>75</v>
+      <c r="B165" s="24">
+        <v>79</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D165" s="28">
-        <v>1</v>
-      </c>
-      <c r="E165" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="D165" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E165" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="G165" s="29" t="s">
+      <c r="F165" s="19">
+        <v>2</v>
+      </c>
+      <c r="G165" s="28" t="s">
         <v>346</v>
       </c>
       <c r="H165" s="16"/>
@@ -5770,19 +6259,22 @@
       <c r="A166" s="12">
         <v>162</v>
       </c>
-      <c r="B166" s="25">
-        <v>75</v>
+      <c r="B166" s="24">
+        <v>79</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D166" s="28">
-        <v>1</v>
-      </c>
-      <c r="E166" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="D166" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E166" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="G166" s="29" t="s">
+      <c r="F166" s="19">
+        <v>2</v>
+      </c>
+      <c r="G166" s="28" t="s">
         <v>347</v>
       </c>
       <c r="H166" s="16"/>
@@ -5791,19 +6283,22 @@
       <c r="A167" s="12">
         <v>163</v>
       </c>
-      <c r="B167" s="25">
-        <v>75</v>
+      <c r="B167" s="24">
+        <v>80</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D167" s="28">
-        <v>1</v>
-      </c>
-      <c r="E167" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="D167" s="27">
+        <v>1</v>
+      </c>
+      <c r="E167" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="G167" s="29" t="s">
+      <c r="F167" s="19">
+        <v>1</v>
+      </c>
+      <c r="G167" s="28" t="s">
         <v>348</v>
       </c>
       <c r="H167" s="16"/>
@@ -5812,19 +6307,22 @@
       <c r="A168" s="12">
         <v>164</v>
       </c>
-      <c r="B168" s="25">
-        <v>75</v>
+      <c r="B168" s="24">
+        <v>80</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D168" s="28">
-        <v>1</v>
-      </c>
-      <c r="E168" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="D168" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E168" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="G168" s="29" t="s">
+      <c r="F168" s="19">
+        <v>2</v>
+      </c>
+      <c r="G168" s="28" t="s">
         <v>349</v>
       </c>
     </row>
@@ -5832,19 +6330,22 @@
       <c r="A169" s="12">
         <v>165</v>
       </c>
-      <c r="B169" s="25">
-        <v>75</v>
+      <c r="B169" s="24">
+        <v>80</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D169" s="28">
-        <v>1</v>
-      </c>
-      <c r="E169" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="D169" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E169" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="G169" s="29" t="s">
+      <c r="F169" s="19">
+        <v>2</v>
+      </c>
+      <c r="G169" s="28" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5852,19 +6353,22 @@
       <c r="A170" s="12">
         <v>166</v>
       </c>
-      <c r="B170" s="25">
-        <v>75</v>
+      <c r="B170" s="24">
+        <v>80</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D170" s="28">
-        <v>1</v>
-      </c>
-      <c r="E170" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="D170" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E170" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="G170" s="29" t="s">
+      <c r="F170" s="19">
+        <v>1</v>
+      </c>
+      <c r="G170" s="28" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5872,400 +6376,1387 @@
       <c r="A171" s="12">
         <v>167</v>
       </c>
-      <c r="B171" s="25">
-        <v>75</v>
+      <c r="B171" s="24">
+        <v>80</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D171" s="28">
-        <v>1</v>
-      </c>
-      <c r="E171" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="D171" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E171" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="G171" s="29" t="s">
+      <c r="F171" s="19">
+        <v>2</v>
+      </c>
+      <c r="G171" s="28" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A172"/>
-      <c r="C172" s="17"/>
-      <c r="D172" s="17"/>
-      <c r="E172" s="17"/>
-      <c r="F172" s="17"/>
-      <c r="G172" s="17"/>
+      <c r="A172" s="12">
+        <v>168</v>
+      </c>
+      <c r="B172" s="24">
+        <v>81</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D172" s="17">
+        <v>1</v>
+      </c>
+      <c r="E172" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="F172" s="17">
+        <v>1</v>
+      </c>
+      <c r="G172" s="30" t="s">
+        <v>365</v>
+      </c>
       <c r="H172" s="17"/>
       <c r="I172" s="16"/>
-      <c r="J172" s="30"/>
+      <c r="J172" s="29"/>
     </row>
     <row r="173" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A173"/>
-      <c r="B173"/>
-      <c r="C173" s="17"/>
-      <c r="D173" s="17"/>
-      <c r="E173" s="17"/>
-      <c r="F173" s="17"/>
-      <c r="G173" s="17"/>
+      <c r="A173" s="12">
+        <v>169</v>
+      </c>
+      <c r="B173" s="24">
+        <v>82</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D173" s="17">
+        <v>1</v>
+      </c>
+      <c r="E173" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="F173" s="17">
+        <v>1</v>
+      </c>
+      <c r="G173" s="30" t="s">
+        <v>367</v>
+      </c>
       <c r="H173" s="17"/>
       <c r="I173" s="16"/>
-      <c r="J173" s="30"/>
+      <c r="J173" s="29"/>
     </row>
     <row r="174" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A174"/>
-      <c r="C174" s="17"/>
-      <c r="D174" s="17"/>
-      <c r="E174" s="17"/>
-      <c r="F174" s="17"/>
-      <c r="G174" s="17"/>
+      <c r="A174" s="12">
+        <v>170</v>
+      </c>
+      <c r="B174" s="24">
+        <v>83</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D174" s="17">
+        <v>1</v>
+      </c>
+      <c r="E174" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="F174" s="17">
+        <v>1</v>
+      </c>
+      <c r="G174" s="30" t="s">
+        <v>368</v>
+      </c>
       <c r="H174" s="17"/>
       <c r="I174" s="16"/>
-      <c r="J174" s="30"/>
+      <c r="J174" s="29"/>
     </row>
     <row r="175" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A175"/>
-      <c r="B175"/>
-      <c r="C175" s="17"/>
-      <c r="D175" s="17"/>
-      <c r="E175" s="17"/>
-      <c r="F175" s="17"/>
-      <c r="G175" s="17"/>
+      <c r="A175" s="12">
+        <v>171</v>
+      </c>
+      <c r="B175" s="24">
+        <v>84</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D175" s="17">
+        <v>1</v>
+      </c>
+      <c r="E175" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="F175" s="17">
+        <v>1</v>
+      </c>
+      <c r="G175" s="8" t="s">
+        <v>369</v>
+      </c>
       <c r="H175" s="17"/>
       <c r="I175" s="16"/>
-      <c r="J175" s="30"/>
+      <c r="J175" s="29"/>
     </row>
     <row r="176" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A176"/>
-      <c r="B176" s="20"/>
-      <c r="C176" s="17"/>
-      <c r="D176" s="17"/>
-      <c r="E176" s="17"/>
-      <c r="F176" s="17"/>
-      <c r="G176" s="17"/>
+      <c r="A176" s="12">
+        <v>172</v>
+      </c>
+      <c r="B176" s="24">
+        <v>84</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="D176" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E176" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="F176" s="17">
+        <v>2</v>
+      </c>
+      <c r="G176" s="30" t="s">
+        <v>371</v>
+      </c>
       <c r="H176" s="17"/>
       <c r="I176" s="16"/>
-      <c r="J176" s="30"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A177"/>
-      <c r="B177" s="16"/>
-      <c r="C177" s="16"/>
-      <c r="D177" s="16"/>
-      <c r="E177" s="16"/>
-      <c r="F177" s="16"/>
-      <c r="G177" s="16"/>
+      <c r="J176" s="29"/>
+    </row>
+    <row r="177" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A177" s="12">
+        <v>173</v>
+      </c>
+      <c r="B177" s="24">
+        <v>85</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D177" s="17">
+        <v>1</v>
+      </c>
+      <c r="E177" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="F177" s="17">
+        <v>1</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>372</v>
+      </c>
       <c r="H177" s="16"/>
       <c r="I177" s="16"/>
-      <c r="J177" s="30"/>
+      <c r="J177" s="29"/>
     </row>
     <row r="178" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A178"/>
-      <c r="B178" s="20"/>
-      <c r="C178" s="17"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="17"/>
-      <c r="F178" s="17"/>
-      <c r="G178" s="17"/>
+      <c r="A178" s="12">
+        <v>174</v>
+      </c>
+      <c r="B178" s="24">
+        <v>85</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="D178" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E178" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="F178" s="17">
+        <v>2</v>
+      </c>
+      <c r="G178" s="30" t="s">
+        <v>373</v>
+      </c>
       <c r="H178" s="17"/>
       <c r="I178" s="16"/>
-      <c r="J178" s="30"/>
+      <c r="J178" s="29"/>
     </row>
     <row r="179" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A179"/>
-      <c r="B179" s="16"/>
-      <c r="C179" s="17"/>
-      <c r="D179" s="17"/>
-      <c r="E179" s="17"/>
-      <c r="F179" s="17"/>
-      <c r="G179" s="17"/>
+      <c r="A179" s="12">
+        <v>175</v>
+      </c>
+      <c r="B179" s="24">
+        <v>86</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D179" s="17">
+        <v>1</v>
+      </c>
+      <c r="E179" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="F179" s="17">
+        <v>1</v>
+      </c>
+      <c r="G179" s="30" t="s">
+        <v>375</v>
+      </c>
       <c r="H179" s="17"/>
       <c r="I179" s="16"/>
-      <c r="J179" s="30"/>
+      <c r="J179" s="29"/>
     </row>
     <row r="180" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A180"/>
-      <c r="B180" s="20"/>
-      <c r="C180" s="17"/>
-      <c r="D180" s="17"/>
-      <c r="E180" s="17"/>
-      <c r="F180" s="17"/>
-      <c r="G180" s="17"/>
+      <c r="A180" s="12">
+        <v>176</v>
+      </c>
+      <c r="B180" s="24">
+        <v>86</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D180" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E180" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="F180" s="17">
+        <v>2</v>
+      </c>
+      <c r="G180" s="30" t="s">
+        <v>377</v>
+      </c>
       <c r="H180" s="17"/>
       <c r="I180" s="16"/>
-      <c r="J180" s="30"/>
+      <c r="J180" s="29"/>
     </row>
     <row r="181" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A181"/>
-      <c r="B181" s="16"/>
-      <c r="C181" s="17"/>
-      <c r="D181" s="17"/>
-      <c r="E181" s="17"/>
-      <c r="F181" s="17"/>
-      <c r="G181" s="17"/>
+      <c r="A181" s="12">
+        <v>177</v>
+      </c>
+      <c r="B181" s="24">
+        <v>86</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D181" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E181" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="F181" s="17">
+        <v>1</v>
+      </c>
+      <c r="G181" s="30" t="s">
+        <v>378</v>
+      </c>
       <c r="H181" s="17"/>
       <c r="I181" s="16"/>
-      <c r="J181" s="30"/>
+      <c r="J181" s="29"/>
     </row>
     <row r="182" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A182"/>
-      <c r="B182" s="20"/>
-      <c r="C182" s="17"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="17"/>
-      <c r="F182" s="17"/>
-      <c r="G182" s="17"/>
+      <c r="A182" s="12">
+        <v>178</v>
+      </c>
+      <c r="B182" s="24">
+        <v>86</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D182" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E182" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="F182" s="17">
+        <v>2</v>
+      </c>
+      <c r="G182" s="33" t="s">
+        <v>379</v>
+      </c>
       <c r="H182" s="17"/>
       <c r="I182" s="16"/>
-      <c r="J182" s="30"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A183"/>
-      <c r="B183" s="16"/>
-      <c r="C183" s="16"/>
-      <c r="D183" s="16"/>
-      <c r="E183" s="16"/>
-      <c r="F183" s="16"/>
-      <c r="G183" s="16"/>
+      <c r="J182" s="29"/>
+    </row>
+    <row r="183" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A183" s="12">
+        <v>179</v>
+      </c>
+      <c r="B183" s="24">
+        <v>87</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D183" s="16">
+        <v>1</v>
+      </c>
+      <c r="E183" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="F183" s="17">
+        <v>1</v>
+      </c>
+      <c r="G183" s="31" t="s">
+        <v>381</v>
+      </c>
       <c r="H183" s="16"/>
       <c r="I183" s="16"/>
-      <c r="J183" s="30"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A184"/>
-      <c r="B184" s="20"/>
-      <c r="C184" s="16"/>
-      <c r="D184" s="16"/>
-      <c r="E184" s="16"/>
-      <c r="F184" s="16"/>
-      <c r="G184" s="16"/>
+      <c r="J183" s="29"/>
+    </row>
+    <row r="184" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A184" s="12">
+        <v>180</v>
+      </c>
+      <c r="B184" s="24">
+        <v>87</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="D184" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E184" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="F184" s="17">
+        <v>2</v>
+      </c>
+      <c r="G184" s="17" t="s">
+        <v>382</v>
+      </c>
       <c r="H184" s="16"/>
       <c r="I184" s="16"/>
-      <c r="J184" s="30"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A185"/>
-      <c r="B185" s="16"/>
-      <c r="C185" s="16"/>
-      <c r="D185" s="16"/>
-      <c r="E185" s="16"/>
-      <c r="F185" s="16"/>
-      <c r="G185" s="16"/>
-      <c r="H185" s="16"/>
+      <c r="J184" s="29"/>
+    </row>
+    <row r="185" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A185" s="12">
+        <v>181</v>
+      </c>
+      <c r="B185" s="24">
+        <v>88</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="D185" s="17">
+        <v>1</v>
+      </c>
+      <c r="E185" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="F185" s="17">
+        <v>1</v>
+      </c>
+      <c r="G185" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="H185" s="17"/>
       <c r="I185" s="16"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A186"/>
-      <c r="B186" s="20"/>
-      <c r="C186" s="16"/>
-      <c r="D186" s="16"/>
-      <c r="E186" s="16"/>
-      <c r="F186" s="16"/>
-      <c r="G186" s="16"/>
-      <c r="H186" s="16"/>
+    <row r="186" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A186" s="12">
+        <v>182</v>
+      </c>
+      <c r="B186" s="24">
+        <v>88</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="D186" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E186" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="F186" s="17">
+        <v>2</v>
+      </c>
+      <c r="G186" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="H186" s="17"/>
       <c r="I186" s="16"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A187"/>
-      <c r="B187" s="16"/>
-      <c r="C187" s="16"/>
-      <c r="D187" s="16"/>
-      <c r="E187" s="16"/>
-      <c r="F187" s="16"/>
-      <c r="G187" s="16"/>
-      <c r="H187" s="16"/>
+    <row r="187" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A187" s="12">
+        <v>183</v>
+      </c>
+      <c r="B187" s="24">
+        <v>89</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="D187" s="17">
+        <v>2</v>
+      </c>
+      <c r="E187" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="F187" s="17">
+        <v>2</v>
+      </c>
+      <c r="G187" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="H187" s="17"/>
       <c r="I187" s="16"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A188"/>
-      <c r="B188" s="20"/>
-      <c r="C188" s="16"/>
-      <c r="D188" s="16"/>
-      <c r="E188" s="16"/>
-      <c r="F188" s="16"/>
-      <c r="G188" s="16"/>
-      <c r="H188" s="16"/>
+    <row r="188" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A188" s="12">
+        <v>184</v>
+      </c>
+      <c r="B188" s="24">
+        <v>89</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="D188" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E188" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="F188" s="17">
+        <v>1</v>
+      </c>
+      <c r="G188" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="H188" s="17"/>
       <c r="I188" s="16"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A189"/>
-      <c r="B189"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A190"/>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A191"/>
-      <c r="B191"/>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A192"/>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193"/>
-      <c r="B193"/>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194"/>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195"/>
-      <c r="B195"/>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196"/>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197"/>
-      <c r="B197"/>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198"/>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199"/>
-      <c r="B199"/>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200"/>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201"/>
-      <c r="B201"/>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202"/>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203"/>
-      <c r="B203"/>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204"/>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205"/>
-      <c r="B205"/>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206"/>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207"/>
-      <c r="B207"/>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208"/>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209"/>
-      <c r="B209"/>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210"/>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211"/>
-      <c r="B211"/>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212"/>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213"/>
-      <c r="B213"/>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214"/>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215"/>
-      <c r="B215"/>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216"/>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217"/>
-      <c r="B217"/>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218"/>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219"/>
-      <c r="B219"/>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220"/>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221"/>
-      <c r="B221"/>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A189" s="12">
+        <v>185</v>
+      </c>
+      <c r="B189" s="24">
+        <v>89</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="D189" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E189" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="F189" s="17">
+        <v>2</v>
+      </c>
+      <c r="G189" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="H189" s="17"/>
+    </row>
+    <row r="190" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A190" s="12">
+        <v>186</v>
+      </c>
+      <c r="B190" s="24">
+        <v>89</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="D190" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E190" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="F190" s="17">
+        <v>1</v>
+      </c>
+      <c r="G190" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="H190" s="16"/>
+    </row>
+    <row r="191" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A191" s="12">
+        <v>187</v>
+      </c>
+      <c r="B191" s="24">
+        <v>90</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="D191" s="17">
+        <v>1</v>
+      </c>
+      <c r="E191" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="F191" s="17">
+        <v>1</v>
+      </c>
+      <c r="G191" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="H191" s="16"/>
+    </row>
+    <row r="192" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A192" s="12">
+        <v>188</v>
+      </c>
+      <c r="B192" s="24">
+        <v>91</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D192" s="17">
+        <v>1</v>
+      </c>
+      <c r="E192" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="F192" s="17">
+        <v>1</v>
+      </c>
+      <c r="G192" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="H192" s="16"/>
+    </row>
+    <row r="193" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A193" s="12">
+        <v>189</v>
+      </c>
+      <c r="B193" s="24">
+        <v>91</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="D193" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E193" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="F193" s="17">
+        <v>2</v>
+      </c>
+      <c r="G193" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="H193" s="16"/>
+    </row>
+    <row r="194" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A194" s="12">
+        <v>190</v>
+      </c>
+      <c r="B194" s="24">
+        <v>91</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="D194" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E194" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="F194" s="17">
+        <v>2</v>
+      </c>
+      <c r="G194" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="H194" s="16"/>
+    </row>
+    <row r="195" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A195" s="12">
+        <v>191</v>
+      </c>
+      <c r="B195" s="24">
+        <v>91</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="D195" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E195" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="F195" s="17">
+        <v>1</v>
+      </c>
+      <c r="G195" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="H195" s="16"/>
+    </row>
+    <row r="196" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A196" s="12">
+        <v>192</v>
+      </c>
+      <c r="B196" s="24">
+        <v>92</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D196" s="17">
+        <v>1</v>
+      </c>
+      <c r="E196" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="F196" s="17">
+        <v>1</v>
+      </c>
+      <c r="G196" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="H196" s="16"/>
+    </row>
+    <row r="197" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A197" s="12">
+        <v>193</v>
+      </c>
+      <c r="B197" s="24">
+        <v>93</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D197" s="16">
+        <v>1</v>
+      </c>
+      <c r="E197" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="F197" s="17">
+        <v>1</v>
+      </c>
+      <c r="G197" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="H197" s="16"/>
+    </row>
+    <row r="198" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A198" s="12">
+        <v>194</v>
+      </c>
+      <c r="B198" s="24">
+        <v>93</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="D198" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E198" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="F198" s="17">
+        <v>2</v>
+      </c>
+      <c r="G198" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="H198" s="29"/>
+    </row>
+    <row r="199" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A199" s="12">
+        <v>195</v>
+      </c>
+      <c r="B199" s="24">
+        <v>94</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D199" s="29">
+        <v>1</v>
+      </c>
+      <c r="E199" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="F199" s="17">
+        <v>1</v>
+      </c>
+      <c r="G199" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="H199" s="29"/>
+    </row>
+    <row r="200" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A200" s="12">
+        <v>196</v>
+      </c>
+      <c r="B200" s="24">
+        <v>94</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="D200" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E200" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="F200" s="17">
+        <v>2</v>
+      </c>
+      <c r="G200" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="H200" s="29"/>
+    </row>
+    <row r="201" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A201" s="12">
+        <v>197</v>
+      </c>
+      <c r="B201" s="24">
+        <v>94</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="D201" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E201" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="F201" s="17">
+        <v>1</v>
+      </c>
+      <c r="G201" s="37" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A202" s="12">
+        <v>198</v>
+      </c>
+      <c r="B202" s="24">
+        <v>95</v>
+      </c>
+      <c r="C202" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="D202" s="29">
+        <v>1</v>
+      </c>
+      <c r="E202" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="F202" s="17">
+        <v>1</v>
+      </c>
+      <c r="G202" s="37" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A203" s="12">
+        <v>199</v>
+      </c>
+      <c r="B203" s="24">
+        <v>95</v>
+      </c>
+      <c r="C203" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="D203" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E203" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="F203" s="17">
+        <v>2</v>
+      </c>
+      <c r="G203" s="37" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A204" s="12">
+        <v>200</v>
+      </c>
+      <c r="B204" s="24">
+        <v>96</v>
+      </c>
+      <c r="C204" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="D204" s="16">
+        <v>1</v>
+      </c>
+      <c r="E204" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="F204" s="17">
+        <v>1</v>
+      </c>
+      <c r="G204" s="37" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A205" s="12">
+        <v>201</v>
+      </c>
+      <c r="B205" s="24">
+        <v>96</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="D205" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E205" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="F205" s="17">
+        <v>2</v>
+      </c>
+      <c r="G205" s="37" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A206" s="12">
+        <v>202</v>
+      </c>
+      <c r="B206" s="24">
+        <v>97</v>
+      </c>
+      <c r="C206" s="39" t="s">
+        <v>451</v>
+      </c>
+      <c r="D206" s="16">
+        <v>1</v>
+      </c>
+      <c r="E206" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="F206" s="17">
+        <v>1</v>
+      </c>
+      <c r="G206" s="37" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A207" s="12">
+        <v>203</v>
+      </c>
+      <c r="B207" s="24">
+        <v>98</v>
+      </c>
+      <c r="C207" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="D207" s="17">
+        <v>1</v>
+      </c>
+      <c r="E207" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="F207" s="17">
+        <v>1</v>
+      </c>
+      <c r="G207" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="H207" s="30"/>
+    </row>
+    <row r="208" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A208" s="12">
+        <v>204</v>
+      </c>
+      <c r="B208" s="24">
+        <v>98</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="D208" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E208" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="F208" s="17">
+        <v>2</v>
+      </c>
+      <c r="G208" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="H208" s="30"/>
+    </row>
+    <row r="209" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A209" s="12">
+        <v>205</v>
+      </c>
+      <c r="B209" s="24">
+        <v>98</v>
+      </c>
+      <c r="C209" s="17"/>
+      <c r="D209" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E209" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="F209" s="17">
+        <v>1</v>
+      </c>
+      <c r="G209" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="H209" s="33"/>
+    </row>
+    <row r="210" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A210" s="12">
+        <v>206</v>
+      </c>
+      <c r="B210" s="24">
+        <v>99</v>
+      </c>
+      <c r="C210" s="39" t="s">
+        <v>445</v>
+      </c>
+      <c r="D210" s="17">
+        <v>1</v>
+      </c>
+      <c r="E210" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="F210" s="17">
+        <v>1</v>
+      </c>
+      <c r="G210" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="H210" s="19"/>
+    </row>
+    <row r="211" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A211" s="12">
+        <v>207</v>
+      </c>
+      <c r="B211" s="24">
+        <v>100</v>
+      </c>
+      <c r="C211" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="D211" s="17">
+        <v>1</v>
+      </c>
+      <c r="E211" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="F211" s="17">
+        <v>1</v>
+      </c>
+      <c r="G211" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="H211" s="29"/>
+    </row>
+    <row r="212" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A212" s="12">
+        <v>208</v>
+      </c>
+      <c r="B212" s="24">
+        <v>100</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D212" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E212" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="F212" s="17">
+        <v>2</v>
+      </c>
+      <c r="G212" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="H212" s="29"/>
+    </row>
+    <row r="213" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A213" s="12">
+        <v>209</v>
+      </c>
+      <c r="B213" s="24">
+        <v>100</v>
+      </c>
+      <c r="C213" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D213" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E213" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="F213" s="17">
+        <v>1</v>
+      </c>
+      <c r="G213" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="H213" s="29"/>
+    </row>
+    <row r="214" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A214" s="12">
+        <v>210</v>
+      </c>
+      <c r="B214" s="24">
+        <v>101</v>
+      </c>
+      <c r="C214" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="D214" s="16">
+        <v>1</v>
+      </c>
+      <c r="E214" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="F214" s="17">
+        <v>1</v>
+      </c>
+      <c r="G214" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="H214" s="29"/>
+    </row>
+    <row r="215" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A215" s="12">
+        <v>211</v>
+      </c>
+      <c r="B215" s="24">
+        <v>101</v>
+      </c>
+      <c r="C215" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="D215" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E215" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="F215" s="17">
+        <v>2</v>
+      </c>
+      <c r="G215" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="H215" s="29"/>
+    </row>
+    <row r="216" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A216" s="12">
+        <v>212</v>
+      </c>
+      <c r="B216" s="24">
+        <v>102</v>
+      </c>
+      <c r="C216" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="D216" s="16">
+        <v>1</v>
+      </c>
+      <c r="E216" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="F216" s="17">
+        <v>1</v>
+      </c>
+      <c r="G216" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="H216" s="16"/>
+      <c r="I216" s="32"/>
+    </row>
+    <row r="217" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A217" s="12">
+        <v>213</v>
+      </c>
+      <c r="B217" s="24">
+        <v>102</v>
+      </c>
+      <c r="C217" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D217" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E217" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="F217" s="17">
+        <v>2</v>
+      </c>
+      <c r="G217" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="H217" s="16"/>
+      <c r="I217" s="32"/>
+    </row>
+    <row r="218" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A218" s="12">
+        <v>214</v>
+      </c>
+      <c r="B218" s="24">
+        <v>102</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D218" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E218" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="F218" s="17">
+        <v>1</v>
+      </c>
+      <c r="G218" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="H218" s="16"/>
+      <c r="I218" s="32"/>
+    </row>
+    <row r="219" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A219" s="12">
+        <v>215</v>
+      </c>
+      <c r="B219" s="24">
+        <v>102</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="D219" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E219" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="F219" s="17">
+        <v>2</v>
+      </c>
+      <c r="G219" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="H219" s="17"/>
+      <c r="I219" s="32"/>
+    </row>
+    <row r="220" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A220" s="12">
+        <v>216</v>
+      </c>
+      <c r="B220" s="24">
+        <v>103</v>
+      </c>
+      <c r="C220" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D220" s="17">
+        <v>1</v>
+      </c>
+      <c r="E220" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="F220" s="17">
+        <v>1</v>
+      </c>
+      <c r="G220" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="H220" s="17"/>
+      <c r="I220" s="32"/>
+    </row>
+    <row r="221" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A221" s="12">
+        <v>217</v>
+      </c>
+      <c r="B221" s="24">
+        <v>104</v>
+      </c>
+      <c r="C221" s="39" t="s">
+        <v>445</v>
+      </c>
+      <c r="D221" s="17">
+        <v>1</v>
+      </c>
+      <c r="E221" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="F221" s="17">
+        <v>1</v>
+      </c>
+      <c r="G221" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="H221" s="17"/>
+      <c r="I221" s="32"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222"/>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C222" s="16"/>
+      <c r="D222" s="16"/>
+      <c r="E222" s="16"/>
+      <c r="F222" s="16"/>
+      <c r="G222" s="16"/>
+      <c r="H222" s="16"/>
+      <c r="I222" s="32"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223"/>
       <c r="B223"/>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C223" s="16"/>
+      <c r="D223" s="16"/>
+      <c r="E223" s="16"/>
+      <c r="F223" s="16"/>
+      <c r="G223" s="16"/>
+      <c r="H223" s="16"/>
+      <c r="I223" s="32"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224"/>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C224" s="16"/>
+      <c r="D224" s="16"/>
+      <c r="E224" s="16"/>
+      <c r="F224" s="16"/>
+      <c r="G224" s="16"/>
+      <c r="H224" s="16"/>
+      <c r="I224" s="32"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225"/>
       <c r="B225"/>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C225" s="16"/>
+      <c r="D225" s="16"/>
+      <c r="E225" s="16"/>
+      <c r="F225" s="16"/>
+      <c r="G225" s="16"/>
+      <c r="H225" s="16"/>
+      <c r="I225" s="32"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226"/>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C226" s="29"/>
+      <c r="D226" s="29"/>
+      <c r="E226" s="29"/>
+      <c r="F226" s="29"/>
+      <c r="G226" s="29"/>
+      <c r="H226" s="29"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227"/>
       <c r="B227"/>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C227" s="29"/>
+      <c r="D227" s="29"/>
+      <c r="E227" s="29"/>
+      <c r="F227" s="29"/>
+      <c r="G227" s="29"/>
+      <c r="H227" s="29"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228"/>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C228" s="29"/>
+      <c r="D228" s="29"/>
+      <c r="E228" s="29"/>
+      <c r="F228" s="29"/>
+      <c r="G228" s="29"/>
+      <c r="H228" s="29"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229"/>
       <c r="B229"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231"/>
       <c r="B231"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233"/>
       <c r="B233"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A234"/>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C234" s="34"/>
+      <c r="D234" s="34"/>
+      <c r="E234" s="34"/>
+      <c r="F234" s="34"/>
+      <c r="G234" s="34"/>
+      <c r="H234" s="34"/>
+    </row>
+    <row r="235" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A235"/>
       <c r="B235"/>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C235" s="34"/>
+      <c r="D235" s="34"/>
+      <c r="E235" s="34"/>
+      <c r="F235" s="34"/>
+      <c r="G235" s="34"/>
+      <c r="H235" s="34"/>
+    </row>
+    <row r="236" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A236"/>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C236" s="34"/>
+      <c r="D236" s="34"/>
+      <c r="E236" s="34"/>
+      <c r="F236" s="34"/>
+      <c r="G236" s="34"/>
+      <c r="H236" s="34"/>
+    </row>
+    <row r="237" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A237"/>
       <c r="B237"/>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C237" s="34"/>
+      <c r="D237" s="34"/>
+      <c r="E237" s="34"/>
+      <c r="F237" s="34"/>
+      <c r="G237" s="34"/>
+      <c r="H237" s="34"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239"/>
       <c r="B239"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
